--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9EA1B1-A4F8-42E0-AD50-B2FF4B235DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0F9B1-A996-4F18-A819-260C7857CA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11075" uniqueCount="2438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12219" uniqueCount="2696">
   <si>
     <t>Alias</t>
   </si>
@@ -7337,6 +7337,780 @@
   </si>
   <si>
     <t>1257082</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:25:52</t>
+  </si>
+  <si>
+    <t>689328</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:23:42</t>
+  </si>
+  <si>
+    <t>649819.20</t>
+  </si>
+  <si>
+    <t>585212</t>
+  </si>
+  <si>
+    <t>12-01-2026 23:16:11</t>
+  </si>
+  <si>
+    <t>236215.40</t>
+  </si>
+  <si>
+    <t>585641</t>
+  </si>
+  <si>
+    <t>12-01-2026 11:31:46</t>
+  </si>
+  <si>
+    <t>425877.40</t>
+  </si>
+  <si>
+    <t>876763</t>
+  </si>
+  <si>
+    <t>12-01-2026 21:41:36</t>
+  </si>
+  <si>
+    <t>309816.00</t>
+  </si>
+  <si>
+    <t>877193</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:08:09</t>
+  </si>
+  <si>
+    <t>1208193</t>
+  </si>
+  <si>
+    <t>12-01-2026 12:35:21</t>
+  </si>
+  <si>
+    <t>65125</t>
+  </si>
+  <si>
+    <t>12-01-2026 23:20:25</t>
+  </si>
+  <si>
+    <t>462085.60</t>
+  </si>
+  <si>
+    <t>942548</t>
+  </si>
+  <si>
+    <t>12-01-2026 21:55:59</t>
+  </si>
+  <si>
+    <t>83419</t>
+  </si>
+  <si>
+    <t>12-01-2026 10:52:06</t>
+  </si>
+  <si>
+    <t>367254.60</t>
+  </si>
+  <si>
+    <t>316806</t>
+  </si>
+  <si>
+    <t>12-01-2026 10:04:53</t>
+  </si>
+  <si>
+    <t>517260.00</t>
+  </si>
+  <si>
+    <t>1000448</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:44:23</t>
+  </si>
+  <si>
+    <t>391393.40</t>
+  </si>
+  <si>
+    <t>473141</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:02:39</t>
+  </si>
+  <si>
+    <t>473790</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:14:30</t>
+  </si>
+  <si>
+    <t>844539</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:12:55</t>
+  </si>
+  <si>
+    <t>252221.20</t>
+  </si>
+  <si>
+    <t>457974</t>
+  </si>
+  <si>
+    <t>12-01-2026 23:46:07</t>
+  </si>
+  <si>
+    <t>393117.60</t>
+  </si>
+  <si>
+    <t>1170722</t>
+  </si>
+  <si>
+    <t>12-01-2026 10:48:37</t>
+  </si>
+  <si>
+    <t>12-01-2026 19:00:19</t>
+  </si>
+  <si>
+    <t>303460.80</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:35:42</t>
+  </si>
+  <si>
+    <t>765039</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:49:50</t>
+  </si>
+  <si>
+    <t>68003</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:33:09</t>
+  </si>
+  <si>
+    <t>68415</t>
+  </si>
+  <si>
+    <t>12-01-2026 11:05:30</t>
+  </si>
+  <si>
+    <t>415291</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:52:33</t>
+  </si>
+  <si>
+    <t>271684.80</t>
+  </si>
+  <si>
+    <t>415437</t>
+  </si>
+  <si>
+    <t>12-01-2026 19:43:54</t>
+  </si>
+  <si>
+    <t>320937.60</t>
+  </si>
+  <si>
+    <t>932320</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:34:38</t>
+  </si>
+  <si>
+    <t>963641</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:51:56</t>
+  </si>
+  <si>
+    <t>196558.80</t>
+  </si>
+  <si>
+    <t>12-01-2026 11:41:39</t>
+  </si>
+  <si>
+    <t>477098.80</t>
+  </si>
+  <si>
+    <t>884889</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:45:49</t>
+  </si>
+  <si>
+    <t>241770.00</t>
+  </si>
+  <si>
+    <t>885546</t>
+  </si>
+  <si>
+    <t>12-01-2026 22:25:18</t>
+  </si>
+  <si>
+    <t>885671</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:24:12</t>
+  </si>
+  <si>
+    <t>863824.20</t>
+  </si>
+  <si>
+    <t>1415085</t>
+  </si>
+  <si>
+    <t>12-01-2026 07:58:59</t>
+  </si>
+  <si>
+    <t>258630.00</t>
+  </si>
+  <si>
+    <t>275200</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:06:18</t>
+  </si>
+  <si>
+    <t>314582.40</t>
+  </si>
+  <si>
+    <t>800848</t>
+  </si>
+  <si>
+    <t>12-01-2026 07:42:03</t>
+  </si>
+  <si>
+    <t>503466.40</t>
+  </si>
+  <si>
+    <t>340860</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:43:26</t>
+  </si>
+  <si>
+    <t>643464.00</t>
+  </si>
+  <si>
+    <t>824049</t>
+  </si>
+  <si>
+    <t>12-01-2026 15:42:34</t>
+  </si>
+  <si>
+    <t>203455.60</t>
+  </si>
+  <si>
+    <t>824479</t>
+  </si>
+  <si>
+    <t>12-01-2026 11:02:58</t>
+  </si>
+  <si>
+    <t>1218128</t>
+  </si>
+  <si>
+    <t>12-01-2026 00:11:59</t>
+  </si>
+  <si>
+    <t>760372.20</t>
+  </si>
+  <si>
+    <t>1004992</t>
+  </si>
+  <si>
+    <t>12-01-2026 21:49:44</t>
+  </si>
+  <si>
+    <t>1005642</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:31:45</t>
+  </si>
+  <si>
+    <t>427979</t>
+  </si>
+  <si>
+    <t>12-01-2026 09:44:28</t>
+  </si>
+  <si>
+    <t>161200</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:01:30</t>
+  </si>
+  <si>
+    <t>1259234</t>
+  </si>
+  <si>
+    <t>12-01-2026 04:42:44</t>
+  </si>
+  <si>
+    <t>206544.00</t>
+  </si>
+  <si>
+    <t>1404969</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:11:06</t>
+  </si>
+  <si>
+    <t>360465.00</t>
+  </si>
+  <si>
+    <t>78925</t>
+  </si>
+  <si>
+    <t>12-01-2026 10:12:00</t>
+  </si>
+  <si>
+    <t>706490</t>
+  </si>
+  <si>
+    <t>12-01-2026 22:22:38</t>
+  </si>
+  <si>
+    <t>707276</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:27:45</t>
+  </si>
+  <si>
+    <t>652642</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:21:02</t>
+  </si>
+  <si>
+    <t>572136</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:10:01</t>
+  </si>
+  <si>
+    <t>1087970.20</t>
+  </si>
+  <si>
+    <t>225307</t>
+  </si>
+  <si>
+    <t>12-01-2026 00:30:55</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:42:52</t>
+  </si>
+  <si>
+    <t>412083.80</t>
+  </si>
+  <si>
+    <t>47653</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:17:57</t>
+  </si>
+  <si>
+    <t>94065</t>
+  </si>
+  <si>
+    <t>12-01-2026 00:10:35</t>
+  </si>
+  <si>
+    <t>751827.00</t>
+  </si>
+  <si>
+    <t>190868</t>
+  </si>
+  <si>
+    <t>12-01-2026 21:48:08</t>
+  </si>
+  <si>
+    <t>365530.40</t>
+  </si>
+  <si>
+    <t>988976</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:16:57</t>
+  </si>
+  <si>
+    <t>1150578</t>
+  </si>
+  <si>
+    <t>12-01-2026 13:59:21</t>
+  </si>
+  <si>
+    <t>193416.00</t>
+  </si>
+  <si>
+    <t>1150841</t>
+  </si>
+  <si>
+    <t>12-01-2026 09:22:58</t>
+  </si>
+  <si>
+    <t>443119.40</t>
+  </si>
+  <si>
+    <t>55333</t>
+  </si>
+  <si>
+    <t>12-01-2026 02:45:00</t>
+  </si>
+  <si>
+    <t>303367</t>
+  </si>
+  <si>
+    <t>12-01-2026 18:37:24</t>
+  </si>
+  <si>
+    <t>254888.40</t>
+  </si>
+  <si>
+    <t>303718</t>
+  </si>
+  <si>
+    <t>12-01-2026 15:23:00</t>
+  </si>
+  <si>
+    <t>305049.60</t>
+  </si>
+  <si>
+    <t>398638</t>
+  </si>
+  <si>
+    <t>12-01-2026 09:54:29</t>
+  </si>
+  <si>
+    <t>695785</t>
+  </si>
+  <si>
+    <t>12-01-2026 00:16:38</t>
+  </si>
+  <si>
+    <t>180232.50</t>
+  </si>
+  <si>
+    <t>1207451</t>
+  </si>
+  <si>
+    <t>12-01-2026 13:51:43</t>
+  </si>
+  <si>
+    <t>558565</t>
+  </si>
+  <si>
+    <t>12-01-2026 06:34:07</t>
+  </si>
+  <si>
+    <t>273273.60</t>
+  </si>
+  <si>
+    <t>231184</t>
+  </si>
+  <si>
+    <t>12-01-2026 15:47:52</t>
+  </si>
+  <si>
+    <t>408759</t>
+  </si>
+  <si>
+    <t>12-01-2026 22:05:13</t>
+  </si>
+  <si>
+    <t>316171.20</t>
+  </si>
+  <si>
+    <t>409188</t>
+  </si>
+  <si>
+    <t>12-01-2026 13:27:37</t>
+  </si>
+  <si>
+    <t>490089.60</t>
+  </si>
+  <si>
+    <t>174740</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:07:25</t>
+  </si>
+  <si>
+    <t>174904</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:38:51</t>
+  </si>
+  <si>
+    <t>250555</t>
+  </si>
+  <si>
+    <t>12-01-2026 13:54:35</t>
+  </si>
+  <si>
+    <t>651747.60</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:10:56</t>
+  </si>
+  <si>
+    <t>322526.40</t>
+  </si>
+  <si>
+    <t>350370</t>
+  </si>
+  <si>
+    <t>12-01-2026 11:04:43</t>
+  </si>
+  <si>
+    <t>619632.00</t>
+  </si>
+  <si>
+    <t>2313135</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:10:20</t>
+  </si>
+  <si>
+    <t>819290</t>
+  </si>
+  <si>
+    <t>12-01-2026 15:21:35</t>
+  </si>
+  <si>
+    <t>819731</t>
+  </si>
+  <si>
+    <t>12-01-2026 09:24:55</t>
+  </si>
+  <si>
+    <t>886238.80</t>
+  </si>
+  <si>
+    <t>1059457</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:51:18</t>
+  </si>
+  <si>
+    <t>230487.40</t>
+  </si>
+  <si>
+    <t>207846</t>
+  </si>
+  <si>
+    <t>12-01-2026 02:26:52</t>
+  </si>
+  <si>
+    <t>651408.00</t>
+  </si>
+  <si>
+    <t>338031</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:15:21</t>
+  </si>
+  <si>
+    <t>193110.40</t>
+  </si>
+  <si>
+    <t>338460</t>
+  </si>
+  <si>
+    <t>12-01-2026 19:46:27</t>
+  </si>
+  <si>
+    <t>599937</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:07:53</t>
+  </si>
+  <si>
+    <t>625987.20</t>
+  </si>
+  <si>
+    <t>537351</t>
+  </si>
+  <si>
+    <t>12-01-2026 07:17:01</t>
+  </si>
+  <si>
+    <t>251100</t>
+  </si>
+  <si>
+    <t>12-01-2026 05:52:10</t>
+  </si>
+  <si>
+    <t>1084983</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:30:00</t>
+  </si>
+  <si>
+    <t>810374.00</t>
+  </si>
+  <si>
+    <t>1085763</t>
+  </si>
+  <si>
+    <t>12-01-2026 14:17:38</t>
+  </si>
+  <si>
+    <t>987234</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:58:10</t>
+  </si>
+  <si>
+    <t>404561.80</t>
+  </si>
+  <si>
+    <t>485419</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:53:31</t>
+  </si>
+  <si>
+    <t>513811.60</t>
+  </si>
+  <si>
+    <t>485679</t>
+  </si>
+  <si>
+    <t>12-01-2026 21:51:00</t>
+  </si>
+  <si>
+    <t>1170515</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:35:49</t>
+  </si>
+  <si>
+    <t>446567.80</t>
+  </si>
+  <si>
+    <t>1256144</t>
+  </si>
+  <si>
+    <t>12-01-2026 01:08:33</t>
+  </si>
+  <si>
+    <t>942316</t>
+  </si>
+  <si>
+    <t>12-01-2026 22:59:41</t>
+  </si>
+  <si>
+    <t>942883</t>
+  </si>
+  <si>
+    <t>12-01-2026 12:37:00</t>
+  </si>
+  <si>
+    <t>75522</t>
+  </si>
+  <si>
+    <t>12-01-2026 00:45:43</t>
+  </si>
+  <si>
+    <t>722802</t>
+  </si>
+  <si>
+    <t>12-01-2026 16:51:33</t>
+  </si>
+  <si>
+    <t>396511.50</t>
+  </si>
+  <si>
+    <t>377489</t>
+  </si>
+  <si>
+    <t>12-01-2026 01:11:32</t>
+  </si>
+  <si>
+    <t>541780.80</t>
+  </si>
+  <si>
+    <t>63333</t>
+  </si>
+  <si>
+    <t>12-01-2026 17:03:31</t>
+  </si>
+  <si>
+    <t>363898.00</t>
+  </si>
+  <si>
+    <t>63878</t>
+  </si>
+  <si>
+    <t>12-01-2026 10:41:02</t>
+  </si>
+  <si>
+    <t>63467</t>
+  </si>
+  <si>
+    <t>12-01-2026 13:57:15</t>
+  </si>
+  <si>
+    <t>948310.00</t>
+  </si>
+  <si>
+    <t>227016</t>
+  </si>
+  <si>
+    <t>12-01-2026 00:42:54</t>
+  </si>
+  <si>
+    <t>748302.80</t>
+  </si>
+  <si>
+    <t>440940</t>
+  </si>
+  <si>
+    <t>12-01-2026 22:09:02</t>
+  </si>
+  <si>
+    <t>441504</t>
+  </si>
+  <si>
+    <t>12-01-2026 08:53:07</t>
+  </si>
+  <si>
+    <t>767826</t>
+  </si>
+  <si>
+    <t>12-01-2026 18:48:04</t>
+  </si>
+  <si>
+    <t>768260</t>
+  </si>
+  <si>
+    <t>12-01-2026 22:57:24</t>
+  </si>
+  <si>
+    <t>1241028</t>
+  </si>
+  <si>
+    <t>12-01-2026 13:32:22</t>
+  </si>
+  <si>
+    <t>246718.90</t>
+  </si>
+  <si>
+    <t>461500</t>
+  </si>
+  <si>
+    <t>12-01-2026 20:02:16</t>
+  </si>
+  <si>
+    <t>365424.00</t>
+  </si>
+  <si>
+    <t>12-01-2026 19:08:12</t>
+  </si>
+  <si>
+    <t>1237976</t>
   </si>
 </sst>
 </file>
@@ -7378,7 +8152,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7724,10 +8508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O791"/>
+  <dimension ref="A1:O895"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A782" workbookViewId="0">
+      <selection activeCell="A792" sqref="A792:L895"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -44909,9 +45693,3963 @@
         <v>26</v>
       </c>
     </row>
+    <row r="792" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>176</v>
+      </c>
+      <c r="B792" t="s">
+        <v>177</v>
+      </c>
+      <c r="C792" t="s">
+        <v>17</v>
+      </c>
+      <c r="D792" t="s">
+        <v>18</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F792" t="s">
+        <v>172</v>
+      </c>
+      <c r="G792" t="s">
+        <v>21</v>
+      </c>
+      <c r="H792" t="s">
+        <v>496</v>
+      </c>
+      <c r="I792">
+        <v>179</v>
+      </c>
+      <c r="J792" t="s">
+        <v>751</v>
+      </c>
+      <c r="K792" t="s">
+        <v>24</v>
+      </c>
+      <c r="L792" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="793" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C793" t="s">
+        <v>17</v>
+      </c>
+      <c r="D793" t="s">
+        <v>18</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F793" t="s">
+        <v>172</v>
+      </c>
+      <c r="G793" t="s">
+        <v>21</v>
+      </c>
+      <c r="H793" t="s">
+        <v>496</v>
+      </c>
+      <c r="I793">
+        <v>409</v>
+      </c>
+      <c r="J793" t="s">
+        <v>2441</v>
+      </c>
+      <c r="K793" t="s">
+        <v>24</v>
+      </c>
+      <c r="L793" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="794" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C794" t="s">
+        <v>17</v>
+      </c>
+      <c r="D794" t="s">
+        <v>18</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F794" t="s">
+        <v>39</v>
+      </c>
+      <c r="G794" t="s">
+        <v>21</v>
+      </c>
+      <c r="H794" t="s">
+        <v>695</v>
+      </c>
+      <c r="I794">
+        <v>137</v>
+      </c>
+      <c r="J794" t="s">
+        <v>2444</v>
+      </c>
+      <c r="K794" t="s">
+        <v>24</v>
+      </c>
+      <c r="L794" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="795" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>58</v>
+      </c>
+      <c r="B795" t="s">
+        <v>59</v>
+      </c>
+      <c r="C795" t="s">
+        <v>17</v>
+      </c>
+      <c r="D795" t="s">
+        <v>18</v>
+      </c>
+      <c r="E795" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F795" t="s">
+        <v>39</v>
+      </c>
+      <c r="G795" t="s">
+        <v>21</v>
+      </c>
+      <c r="H795" t="s">
+        <v>695</v>
+      </c>
+      <c r="I795">
+        <v>247</v>
+      </c>
+      <c r="J795" t="s">
+        <v>2447</v>
+      </c>
+      <c r="K795" t="s">
+        <v>24</v>
+      </c>
+      <c r="L795" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="796" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>58</v>
+      </c>
+      <c r="B796" t="s">
+        <v>59</v>
+      </c>
+      <c r="C796" t="s">
+        <v>17</v>
+      </c>
+      <c r="D796" t="s">
+        <v>18</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F796" t="s">
+        <v>172</v>
+      </c>
+      <c r="G796" t="s">
+        <v>21</v>
+      </c>
+      <c r="H796" t="s">
+        <v>496</v>
+      </c>
+      <c r="I796">
+        <v>195</v>
+      </c>
+      <c r="J796" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K796" t="s">
+        <v>24</v>
+      </c>
+      <c r="L796" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="797" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C797" t="s">
+        <v>17</v>
+      </c>
+      <c r="D797" t="s">
+        <v>18</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2452</v>
+      </c>
+      <c r="F797" t="s">
+        <v>20</v>
+      </c>
+      <c r="G797" t="s">
+        <v>21</v>
+      </c>
+      <c r="H797" t="s">
+        <v>719</v>
+      </c>
+      <c r="I797">
+        <v>150</v>
+      </c>
+      <c r="J797" t="s">
+        <v>848</v>
+      </c>
+      <c r="K797" t="s">
+        <v>24</v>
+      </c>
+      <c r="L797" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="798" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B798" t="s">
+        <v>54</v>
+      </c>
+      <c r="C798" t="s">
+        <v>17</v>
+      </c>
+      <c r="D798" t="s">
+        <v>18</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F798" t="s">
+        <v>20</v>
+      </c>
+      <c r="G798" t="s">
+        <v>21</v>
+      </c>
+      <c r="H798" t="s">
+        <v>719</v>
+      </c>
+      <c r="I798">
+        <v>340</v>
+      </c>
+      <c r="J798" t="s">
+        <v>2277</v>
+      </c>
+      <c r="K798" t="s">
+        <v>24</v>
+      </c>
+      <c r="L798" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="799" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C799" t="s">
+        <v>17</v>
+      </c>
+      <c r="D799" t="s">
+        <v>18</v>
+      </c>
+      <c r="E799" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F799" t="s">
+        <v>30</v>
+      </c>
+      <c r="G799" t="s">
+        <v>21</v>
+      </c>
+      <c r="H799" t="s">
+        <v>695</v>
+      </c>
+      <c r="I799">
+        <v>268</v>
+      </c>
+      <c r="J799" t="s">
+        <v>2457</v>
+      </c>
+      <c r="K799" t="s">
+        <v>24</v>
+      </c>
+      <c r="L799" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="800" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B800" t="s">
+        <v>43</v>
+      </c>
+      <c r="C800" t="s">
+        <v>17</v>
+      </c>
+      <c r="D800" t="s">
+        <v>18</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F800" t="s">
+        <v>39</v>
+      </c>
+      <c r="G800" t="s">
+        <v>21</v>
+      </c>
+      <c r="H800" t="s">
+        <v>695</v>
+      </c>
+      <c r="I800">
+        <v>340</v>
+      </c>
+      <c r="J800" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K800" t="s">
+        <v>24</v>
+      </c>
+      <c r="L800" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C801" t="s">
+        <v>17</v>
+      </c>
+      <c r="D801" t="s">
+        <v>18</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2461</v>
+      </c>
+      <c r="F801" t="s">
+        <v>261</v>
+      </c>
+      <c r="G801" t="s">
+        <v>21</v>
+      </c>
+      <c r="H801" t="s">
+        <v>695</v>
+      </c>
+      <c r="I801">
+        <v>213</v>
+      </c>
+      <c r="J801" t="s">
+        <v>2462</v>
+      </c>
+      <c r="K801" t="s">
+        <v>24</v>
+      </c>
+      <c r="L801" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>110</v>
+      </c>
+      <c r="B802" t="s">
+        <v>111</v>
+      </c>
+      <c r="C802" t="s">
+        <v>17</v>
+      </c>
+      <c r="D802" t="s">
+        <v>18</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F802" t="s">
+        <v>261</v>
+      </c>
+      <c r="G802" t="s">
+        <v>21</v>
+      </c>
+      <c r="H802" t="s">
+        <v>695</v>
+      </c>
+      <c r="I802">
+        <v>300</v>
+      </c>
+      <c r="J802" t="s">
+        <v>2465</v>
+      </c>
+      <c r="K802" t="s">
+        <v>24</v>
+      </c>
+      <c r="L802" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>137</v>
+      </c>
+      <c r="B803" t="s">
+        <v>138</v>
+      </c>
+      <c r="C803" t="s">
+        <v>36</v>
+      </c>
+      <c r="D803" t="s">
+        <v>37</v>
+      </c>
+      <c r="E803" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F803" t="s">
+        <v>39</v>
+      </c>
+      <c r="G803" t="s">
+        <v>21</v>
+      </c>
+      <c r="H803" t="s">
+        <v>695</v>
+      </c>
+      <c r="I803">
+        <v>227</v>
+      </c>
+      <c r="J803" t="s">
+        <v>2468</v>
+      </c>
+      <c r="K803" t="s">
+        <v>24</v>
+      </c>
+      <c r="L803" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>137</v>
+      </c>
+      <c r="B804" t="s">
+        <v>138</v>
+      </c>
+      <c r="C804" t="s">
+        <v>36</v>
+      </c>
+      <c r="D804" t="s">
+        <v>37</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F804" t="s">
+        <v>39</v>
+      </c>
+      <c r="G804" t="s">
+        <v>21</v>
+      </c>
+      <c r="H804" t="s">
+        <v>695</v>
+      </c>
+      <c r="I804">
+        <v>225</v>
+      </c>
+      <c r="J804" t="s">
+        <v>803</v>
+      </c>
+      <c r="K804" t="s">
+        <v>24</v>
+      </c>
+      <c r="L804" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>287</v>
+      </c>
+      <c r="B805" t="s">
+        <v>288</v>
+      </c>
+      <c r="C805" t="s">
+        <v>36</v>
+      </c>
+      <c r="D805" t="s">
+        <v>342</v>
+      </c>
+      <c r="E805" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F805" t="s">
+        <v>39</v>
+      </c>
+      <c r="G805" t="s">
+        <v>21</v>
+      </c>
+      <c r="H805" t="s">
+        <v>695</v>
+      </c>
+      <c r="I805">
+        <v>233</v>
+      </c>
+      <c r="J805" t="s">
+        <v>1782</v>
+      </c>
+      <c r="K805" t="s">
+        <v>24</v>
+      </c>
+      <c r="L805" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>280</v>
+      </c>
+      <c r="B806" t="s">
+        <v>281</v>
+      </c>
+      <c r="C806" t="s">
+        <v>17</v>
+      </c>
+      <c r="D806" t="s">
+        <v>18</v>
+      </c>
+      <c r="E806" t="s">
+        <v>2474</v>
+      </c>
+      <c r="F806" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G806" t="s">
+        <v>21</v>
+      </c>
+      <c r="H806" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I806">
+        <v>154</v>
+      </c>
+      <c r="J806" t="s">
+        <v>2475</v>
+      </c>
+      <c r="K806" t="s">
+        <v>24</v>
+      </c>
+      <c r="L806" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>624</v>
+      </c>
+      <c r="B807" t="s">
+        <v>625</v>
+      </c>
+      <c r="C807" t="s">
+        <v>17</v>
+      </c>
+      <c r="D807" t="s">
+        <v>18</v>
+      </c>
+      <c r="E807" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F807" t="s">
+        <v>30</v>
+      </c>
+      <c r="G807" t="s">
+        <v>21</v>
+      </c>
+      <c r="H807" t="s">
+        <v>695</v>
+      </c>
+      <c r="I807">
+        <v>228</v>
+      </c>
+      <c r="J807" t="s">
+        <v>2478</v>
+      </c>
+      <c r="K807" t="s">
+        <v>24</v>
+      </c>
+      <c r="L807" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>946</v>
+      </c>
+      <c r="B808" t="s">
+        <v>947</v>
+      </c>
+      <c r="C808" t="s">
+        <v>17</v>
+      </c>
+      <c r="D808" t="s">
+        <v>18</v>
+      </c>
+      <c r="E808" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F808" t="s">
+        <v>261</v>
+      </c>
+      <c r="G808" t="s">
+        <v>21</v>
+      </c>
+      <c r="H808" t="s">
+        <v>695</v>
+      </c>
+      <c r="I808">
+        <v>256</v>
+      </c>
+      <c r="J808" t="s">
+        <v>882</v>
+      </c>
+      <c r="K808" t="s">
+        <v>24</v>
+      </c>
+      <c r="L808" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>946</v>
+      </c>
+      <c r="B809" t="s">
+        <v>947</v>
+      </c>
+      <c r="C809" t="s">
+        <v>17</v>
+      </c>
+      <c r="D809" t="s">
+        <v>18</v>
+      </c>
+      <c r="E809" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F809" t="s">
+        <v>172</v>
+      </c>
+      <c r="G809" t="s">
+        <v>21</v>
+      </c>
+      <c r="H809" t="s">
+        <v>496</v>
+      </c>
+      <c r="I809">
+        <v>191</v>
+      </c>
+      <c r="J809" t="s">
+        <v>2482</v>
+      </c>
+      <c r="K809" t="s">
+        <v>24</v>
+      </c>
+      <c r="L809" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>275</v>
+      </c>
+      <c r="B810" t="s">
+        <v>276</v>
+      </c>
+      <c r="C810" t="s">
+        <v>17</v>
+      </c>
+      <c r="D810" t="s">
+        <v>18</v>
+      </c>
+      <c r="E810" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F810" t="s">
+        <v>39</v>
+      </c>
+      <c r="G810" t="s">
+        <v>21</v>
+      </c>
+      <c r="H810" t="s">
+        <v>695</v>
+      </c>
+      <c r="I810">
+        <v>484</v>
+      </c>
+      <c r="J810" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K810" t="s">
+        <v>24</v>
+      </c>
+      <c r="L810" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>147</v>
+      </c>
+      <c r="B811" t="s">
+        <v>148</v>
+      </c>
+      <c r="C811" t="s">
+        <v>17</v>
+      </c>
+      <c r="D811" t="s">
+        <v>18</v>
+      </c>
+      <c r="E811" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F811" t="s">
+        <v>272</v>
+      </c>
+      <c r="G811" t="s">
+        <v>21</v>
+      </c>
+      <c r="H811" t="s">
+        <v>500</v>
+      </c>
+      <c r="I811">
+        <v>137</v>
+      </c>
+      <c r="J811" t="s">
+        <v>879</v>
+      </c>
+      <c r="K811" t="s">
+        <v>24</v>
+      </c>
+      <c r="L811" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>147</v>
+      </c>
+      <c r="B812" t="s">
+        <v>148</v>
+      </c>
+      <c r="C812" t="s">
+        <v>36</v>
+      </c>
+      <c r="D812" t="s">
+        <v>49</v>
+      </c>
+      <c r="E812" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F812" t="s">
+        <v>261</v>
+      </c>
+      <c r="G812" t="s">
+        <v>21</v>
+      </c>
+      <c r="H812" t="s">
+        <v>695</v>
+      </c>
+      <c r="I812">
+        <v>188</v>
+      </c>
+      <c r="J812" t="s">
+        <v>2097</v>
+      </c>
+      <c r="K812" t="s">
+        <v>24</v>
+      </c>
+      <c r="L812" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B813" t="s">
+        <v>403</v>
+      </c>
+      <c r="C813" t="s">
+        <v>17</v>
+      </c>
+      <c r="D813" t="s">
+        <v>18</v>
+      </c>
+      <c r="E813" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F813" t="s">
+        <v>172</v>
+      </c>
+      <c r="G813" t="s">
+        <v>21</v>
+      </c>
+      <c r="H813" t="s">
+        <v>496</v>
+      </c>
+      <c r="I813">
+        <v>179</v>
+      </c>
+      <c r="J813" t="s">
+        <v>751</v>
+      </c>
+      <c r="K813" t="s">
+        <v>24</v>
+      </c>
+      <c r="L813" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B814" t="s">
+        <v>403</v>
+      </c>
+      <c r="C814" t="s">
+        <v>36</v>
+      </c>
+      <c r="D814" t="s">
+        <v>49</v>
+      </c>
+      <c r="E814" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F814" t="s">
+        <v>172</v>
+      </c>
+      <c r="G814" t="s">
+        <v>21</v>
+      </c>
+      <c r="H814" t="s">
+        <v>496</v>
+      </c>
+      <c r="I814">
+        <v>171</v>
+      </c>
+      <c r="J814" t="s">
+        <v>2492</v>
+      </c>
+      <c r="K814" t="s">
+        <v>24</v>
+      </c>
+      <c r="L814" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>683</v>
+      </c>
+      <c r="B815" t="s">
+        <v>684</v>
+      </c>
+      <c r="C815" t="s">
+        <v>36</v>
+      </c>
+      <c r="D815" t="s">
+        <v>37</v>
+      </c>
+      <c r="E815" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F815" t="s">
+        <v>172</v>
+      </c>
+      <c r="G815" t="s">
+        <v>21</v>
+      </c>
+      <c r="H815" t="s">
+        <v>496</v>
+      </c>
+      <c r="I815">
+        <v>202</v>
+      </c>
+      <c r="J815" t="s">
+        <v>2495</v>
+      </c>
+      <c r="K815" t="s">
+        <v>24</v>
+      </c>
+      <c r="L815" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C816" t="s">
+        <v>17</v>
+      </c>
+      <c r="D816" t="s">
+        <v>18</v>
+      </c>
+      <c r="E816" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F816" t="s">
+        <v>39</v>
+      </c>
+      <c r="G816" t="s">
+        <v>21</v>
+      </c>
+      <c r="H816" t="s">
+        <v>695</v>
+      </c>
+      <c r="I816">
+        <v>551</v>
+      </c>
+      <c r="J816" t="s">
+        <v>711</v>
+      </c>
+      <c r="K816" t="s">
+        <v>24</v>
+      </c>
+      <c r="L816" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C817" t="s">
+        <v>17</v>
+      </c>
+      <c r="D817" t="s">
+        <v>18</v>
+      </c>
+      <c r="E817" t="s">
+        <v>2499</v>
+      </c>
+      <c r="F817" t="s">
+        <v>39</v>
+      </c>
+      <c r="G817" t="s">
+        <v>21</v>
+      </c>
+      <c r="H817" t="s">
+        <v>695</v>
+      </c>
+      <c r="I817">
+        <v>114</v>
+      </c>
+      <c r="J817" t="s">
+        <v>2500</v>
+      </c>
+      <c r="K817" t="s">
+        <v>24</v>
+      </c>
+      <c r="L817" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C818" t="s">
+        <v>17</v>
+      </c>
+      <c r="D818" t="s">
+        <v>18</v>
+      </c>
+      <c r="E818" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F818" t="s">
+        <v>20</v>
+      </c>
+      <c r="G818" t="s">
+        <v>21</v>
+      </c>
+      <c r="H818" t="s">
+        <v>719</v>
+      </c>
+      <c r="I818">
+        <v>292</v>
+      </c>
+      <c r="J818" t="s">
+        <v>2502</v>
+      </c>
+      <c r="K818" t="s">
+        <v>24</v>
+      </c>
+      <c r="L818" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C819" t="s">
+        <v>36</v>
+      </c>
+      <c r="D819" t="s">
+        <v>49</v>
+      </c>
+      <c r="E819" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F819" t="s">
+        <v>172</v>
+      </c>
+      <c r="G819" t="s">
+        <v>21</v>
+      </c>
+      <c r="H819" t="s">
+        <v>500</v>
+      </c>
+      <c r="I819">
+        <v>150</v>
+      </c>
+      <c r="J819" t="s">
+        <v>2505</v>
+      </c>
+      <c r="K819" t="s">
+        <v>24</v>
+      </c>
+      <c r="L819" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C820" t="s">
+        <v>17</v>
+      </c>
+      <c r="D820" t="s">
+        <v>18</v>
+      </c>
+      <c r="E820" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F820" t="s">
+        <v>30</v>
+      </c>
+      <c r="G820" t="s">
+        <v>21</v>
+      </c>
+      <c r="H820" t="s">
+        <v>695</v>
+      </c>
+      <c r="I820">
+        <v>217</v>
+      </c>
+      <c r="J820" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K820" t="s">
+        <v>24</v>
+      </c>
+      <c r="L820" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>419</v>
+      </c>
+      <c r="B821" t="s">
+        <v>420</v>
+      </c>
+      <c r="C821" t="s">
+        <v>17</v>
+      </c>
+      <c r="D821" t="s">
+        <v>18</v>
+      </c>
+      <c r="E821" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F821" t="s">
+        <v>39</v>
+      </c>
+      <c r="G821" t="s">
+        <v>21</v>
+      </c>
+      <c r="H821" t="s">
+        <v>695</v>
+      </c>
+      <c r="I821">
+        <v>501</v>
+      </c>
+      <c r="J821" t="s">
+        <v>2510</v>
+      </c>
+      <c r="K821" t="s">
+        <v>24</v>
+      </c>
+      <c r="L821" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>218</v>
+      </c>
+      <c r="B822" t="s">
+        <v>219</v>
+      </c>
+      <c r="C822" t="s">
+        <v>17</v>
+      </c>
+      <c r="D822" t="s">
+        <v>18</v>
+      </c>
+      <c r="E822" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F822" t="s">
+        <v>39</v>
+      </c>
+      <c r="G822" t="s">
+        <v>21</v>
+      </c>
+      <c r="H822" t="s">
+        <v>695</v>
+      </c>
+      <c r="I822">
+        <v>150</v>
+      </c>
+      <c r="J822" t="s">
+        <v>2513</v>
+      </c>
+      <c r="K822" t="s">
+        <v>24</v>
+      </c>
+      <c r="L822" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>675</v>
+      </c>
+      <c r="B823" t="s">
+        <v>676</v>
+      </c>
+      <c r="C823" t="s">
+        <v>17</v>
+      </c>
+      <c r="D823" t="s">
+        <v>18</v>
+      </c>
+      <c r="E823" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F823" t="s">
+        <v>172</v>
+      </c>
+      <c r="G823" t="s">
+        <v>21</v>
+      </c>
+      <c r="H823" t="s">
+        <v>496</v>
+      </c>
+      <c r="I823">
+        <v>198</v>
+      </c>
+      <c r="J823" t="s">
+        <v>2516</v>
+      </c>
+      <c r="K823" t="s">
+        <v>24</v>
+      </c>
+      <c r="L823" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C824" t="s">
+        <v>36</v>
+      </c>
+      <c r="D824" t="s">
+        <v>37</v>
+      </c>
+      <c r="E824" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F824" t="s">
+        <v>39</v>
+      </c>
+      <c r="G824" t="s">
+        <v>21</v>
+      </c>
+      <c r="H824" t="s">
+        <v>695</v>
+      </c>
+      <c r="I824">
+        <v>292</v>
+      </c>
+      <c r="J824" t="s">
+        <v>2519</v>
+      </c>
+      <c r="K824" t="s">
+        <v>24</v>
+      </c>
+      <c r="L824" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C825" t="s">
+        <v>17</v>
+      </c>
+      <c r="D825" t="s">
+        <v>18</v>
+      </c>
+      <c r="E825" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F825" t="s">
+        <v>172</v>
+      </c>
+      <c r="G825" t="s">
+        <v>21</v>
+      </c>
+      <c r="H825" t="s">
+        <v>496</v>
+      </c>
+      <c r="I825">
+        <v>405</v>
+      </c>
+      <c r="J825" t="s">
+        <v>2522</v>
+      </c>
+      <c r="K825" t="s">
+        <v>24</v>
+      </c>
+      <c r="L825" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C826" t="s">
+        <v>17</v>
+      </c>
+      <c r="D826" t="s">
+        <v>18</v>
+      </c>
+      <c r="E826" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F826" t="s">
+        <v>39</v>
+      </c>
+      <c r="G826" t="s">
+        <v>21</v>
+      </c>
+      <c r="H826" t="s">
+        <v>695</v>
+      </c>
+      <c r="I826">
+        <v>118</v>
+      </c>
+      <c r="J826" t="s">
+        <v>2525</v>
+      </c>
+      <c r="K826" t="s">
+        <v>24</v>
+      </c>
+      <c r="L826" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C827" t="s">
+        <v>17</v>
+      </c>
+      <c r="D827" t="s">
+        <v>18</v>
+      </c>
+      <c r="E827" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F827" t="s">
+        <v>172</v>
+      </c>
+      <c r="G827" t="s">
+        <v>21</v>
+      </c>
+      <c r="H827" t="s">
+        <v>496</v>
+      </c>
+      <c r="I827">
+        <v>181</v>
+      </c>
+      <c r="J827" t="s">
+        <v>550</v>
+      </c>
+      <c r="K827" t="s">
+        <v>24</v>
+      </c>
+      <c r="L827" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C828" t="s">
+        <v>36</v>
+      </c>
+      <c r="D828" t="s">
+        <v>37</v>
+      </c>
+      <c r="E828" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F828" t="s">
+        <v>39</v>
+      </c>
+      <c r="G828" t="s">
+        <v>21</v>
+      </c>
+      <c r="H828" t="s">
+        <v>695</v>
+      </c>
+      <c r="I828">
+        <v>441</v>
+      </c>
+      <c r="J828" t="s">
+        <v>2530</v>
+      </c>
+      <c r="K828" t="s">
+        <v>24</v>
+      </c>
+      <c r="L828" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C829" t="s">
+        <v>36</v>
+      </c>
+      <c r="D829" t="s">
+        <v>37</v>
+      </c>
+      <c r="E829" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F829" t="s">
+        <v>39</v>
+      </c>
+      <c r="G829" t="s">
+        <v>21</v>
+      </c>
+      <c r="H829" t="s">
+        <v>695</v>
+      </c>
+      <c r="I829">
+        <v>221</v>
+      </c>
+      <c r="J829" t="s">
+        <v>1779</v>
+      </c>
+      <c r="K829" t="s">
+        <v>24</v>
+      </c>
+      <c r="L829" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B830" t="s">
+        <v>223</v>
+      </c>
+      <c r="C830" t="s">
+        <v>36</v>
+      </c>
+      <c r="D830" t="s">
+        <v>49</v>
+      </c>
+      <c r="E830" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F830" t="s">
+        <v>367</v>
+      </c>
+      <c r="G830" t="s">
+        <v>21</v>
+      </c>
+      <c r="H830" t="s">
+        <v>368</v>
+      </c>
+      <c r="I830">
+        <v>249</v>
+      </c>
+      <c r="J830" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K830" t="s">
+        <v>24</v>
+      </c>
+      <c r="L830" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>97</v>
+      </c>
+      <c r="B831" t="s">
+        <v>98</v>
+      </c>
+      <c r="C831" t="s">
+        <v>17</v>
+      </c>
+      <c r="D831" t="s">
+        <v>18</v>
+      </c>
+      <c r="E831" t="s">
+        <v>2536</v>
+      </c>
+      <c r="F831" t="s">
+        <v>39</v>
+      </c>
+      <c r="G831" t="s">
+        <v>21</v>
+      </c>
+      <c r="H831" t="s">
+        <v>695</v>
+      </c>
+      <c r="I831">
+        <v>411</v>
+      </c>
+      <c r="J831" t="s">
+        <v>2115</v>
+      </c>
+      <c r="K831" t="s">
+        <v>24</v>
+      </c>
+      <c r="L831" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B832" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C832" t="s">
+        <v>17</v>
+      </c>
+      <c r="D832" t="s">
+        <v>18</v>
+      </c>
+      <c r="E832" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F832" t="s">
+        <v>30</v>
+      </c>
+      <c r="G832" t="s">
+        <v>21</v>
+      </c>
+      <c r="H832" t="s">
+        <v>695</v>
+      </c>
+      <c r="I832">
+        <v>325</v>
+      </c>
+      <c r="J832" t="s">
+        <v>768</v>
+      </c>
+      <c r="K832" t="s">
+        <v>24</v>
+      </c>
+      <c r="L832" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="833" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>858</v>
+      </c>
+      <c r="B833" t="s">
+        <v>859</v>
+      </c>
+      <c r="C833" t="s">
+        <v>17</v>
+      </c>
+      <c r="D833" t="s">
+        <v>18</v>
+      </c>
+      <c r="E833" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F833" t="s">
+        <v>172</v>
+      </c>
+      <c r="G833" t="s">
+        <v>21</v>
+      </c>
+      <c r="H833" t="s">
+        <v>496</v>
+      </c>
+      <c r="I833">
+        <v>130</v>
+      </c>
+      <c r="J833" t="s">
+        <v>2541</v>
+      </c>
+      <c r="K833" t="s">
+        <v>24</v>
+      </c>
+      <c r="L833" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="834" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B834" t="s">
+        <v>432</v>
+      </c>
+      <c r="C834" t="s">
+        <v>36</v>
+      </c>
+      <c r="D834" t="s">
+        <v>49</v>
+      </c>
+      <c r="E834" t="s">
+        <v>2543</v>
+      </c>
+      <c r="F834" t="s">
+        <v>367</v>
+      </c>
+      <c r="G834" t="s">
+        <v>21</v>
+      </c>
+      <c r="H834" t="s">
+        <v>368</v>
+      </c>
+      <c r="I834">
+        <v>210</v>
+      </c>
+      <c r="J834" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K834" t="s">
+        <v>24</v>
+      </c>
+      <c r="L834" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>235</v>
+      </c>
+      <c r="B835" t="s">
+        <v>236</v>
+      </c>
+      <c r="C835" t="s">
+        <v>17</v>
+      </c>
+      <c r="D835" t="s">
+        <v>18</v>
+      </c>
+      <c r="E835" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F835" t="s">
+        <v>39</v>
+      </c>
+      <c r="G835" t="s">
+        <v>21</v>
+      </c>
+      <c r="H835" t="s">
+        <v>695</v>
+      </c>
+      <c r="I835">
+        <v>178</v>
+      </c>
+      <c r="J835" t="s">
+        <v>2159</v>
+      </c>
+      <c r="K835" t="s">
+        <v>24</v>
+      </c>
+      <c r="L835" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="836" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>235</v>
+      </c>
+      <c r="B836" t="s">
+        <v>236</v>
+      </c>
+      <c r="C836" t="s">
+        <v>17</v>
+      </c>
+      <c r="D836" t="s">
+        <v>18</v>
+      </c>
+      <c r="E836" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F836" t="s">
+        <v>20</v>
+      </c>
+      <c r="G836" t="s">
+        <v>21</v>
+      </c>
+      <c r="H836" t="s">
+        <v>719</v>
+      </c>
+      <c r="I836">
+        <v>250</v>
+      </c>
+      <c r="J836" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K836" t="s">
+        <v>24</v>
+      </c>
+      <c r="L836" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="837" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B837" t="s">
+        <v>28</v>
+      </c>
+      <c r="C837" t="s">
+        <v>17</v>
+      </c>
+      <c r="D837" t="s">
+        <v>18</v>
+      </c>
+      <c r="E837" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F837" t="s">
+        <v>20</v>
+      </c>
+      <c r="G837" t="s">
+        <v>21</v>
+      </c>
+      <c r="H837" t="s">
+        <v>719</v>
+      </c>
+      <c r="I837">
+        <v>250</v>
+      </c>
+      <c r="J837" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K837" t="s">
+        <v>24</v>
+      </c>
+      <c r="L837" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>824</v>
+      </c>
+      <c r="B838" t="s">
+        <v>825</v>
+      </c>
+      <c r="C838" t="s">
+        <v>17</v>
+      </c>
+      <c r="D838" t="s">
+        <v>18</v>
+      </c>
+      <c r="E838" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F838" t="s">
+        <v>39</v>
+      </c>
+      <c r="G838" t="s">
+        <v>21</v>
+      </c>
+      <c r="H838" t="s">
+        <v>695</v>
+      </c>
+      <c r="I838">
+        <v>227</v>
+      </c>
+      <c r="J838" t="s">
+        <v>2468</v>
+      </c>
+      <c r="K838" t="s">
+        <v>24</v>
+      </c>
+      <c r="L838" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="839" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>932</v>
+      </c>
+      <c r="B839" t="s">
+        <v>933</v>
+      </c>
+      <c r="C839" t="s">
+        <v>17</v>
+      </c>
+      <c r="D839" t="s">
+        <v>18</v>
+      </c>
+      <c r="E839" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F839" t="s">
+        <v>39</v>
+      </c>
+      <c r="G839" t="s">
+        <v>21</v>
+      </c>
+      <c r="H839" t="s">
+        <v>695</v>
+      </c>
+      <c r="I839">
+        <v>631</v>
+      </c>
+      <c r="J839" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K839" t="s">
+        <v>24</v>
+      </c>
+      <c r="L839" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="840" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>379</v>
+      </c>
+      <c r="B840" t="s">
+        <v>380</v>
+      </c>
+      <c r="C840" t="s">
+        <v>17</v>
+      </c>
+      <c r="D840" t="s">
+        <v>18</v>
+      </c>
+      <c r="E840" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F840" t="s">
+        <v>39</v>
+      </c>
+      <c r="G840" t="s">
+        <v>21</v>
+      </c>
+      <c r="H840" t="s">
+        <v>695</v>
+      </c>
+      <c r="I840">
+        <v>199</v>
+      </c>
+      <c r="J840" t="s">
+        <v>797</v>
+      </c>
+      <c r="K840" t="s">
+        <v>24</v>
+      </c>
+      <c r="L840" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="841" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>78</v>
+      </c>
+      <c r="B841" t="s">
+        <v>79</v>
+      </c>
+      <c r="C841" t="s">
+        <v>17</v>
+      </c>
+      <c r="D841" t="s">
+        <v>18</v>
+      </c>
+      <c r="E841" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F841" t="s">
+        <v>30</v>
+      </c>
+      <c r="G841" t="s">
+        <v>21</v>
+      </c>
+      <c r="H841" t="s">
+        <v>695</v>
+      </c>
+      <c r="I841">
+        <v>239</v>
+      </c>
+      <c r="J841" t="s">
+        <v>2559</v>
+      </c>
+      <c r="K841" t="s">
+        <v>24</v>
+      </c>
+      <c r="L841" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="842" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>73</v>
+      </c>
+      <c r="B842" t="s">
+        <v>74</v>
+      </c>
+      <c r="C842" t="s">
+        <v>36</v>
+      </c>
+      <c r="D842" t="s">
+        <v>37</v>
+      </c>
+      <c r="E842" t="s">
+        <v>2561</v>
+      </c>
+      <c r="F842" t="s">
+        <v>172</v>
+      </c>
+      <c r="G842" t="s">
+        <v>21</v>
+      </c>
+      <c r="H842" t="s">
+        <v>496</v>
+      </c>
+      <c r="I842">
+        <v>170</v>
+      </c>
+      <c r="J842" t="s">
+        <v>647</v>
+      </c>
+      <c r="K842" t="s">
+        <v>24</v>
+      </c>
+      <c r="L842" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="843" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>611</v>
+      </c>
+      <c r="B843" t="s">
+        <v>612</v>
+      </c>
+      <c r="C843" t="s">
+        <v>36</v>
+      </c>
+      <c r="D843" t="s">
+        <v>49</v>
+      </c>
+      <c r="E843" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F843" t="s">
+        <v>367</v>
+      </c>
+      <c r="G843" t="s">
+        <v>21</v>
+      </c>
+      <c r="H843" t="s">
+        <v>368</v>
+      </c>
+      <c r="I843">
+        <v>438</v>
+      </c>
+      <c r="J843" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K843" t="s">
+        <v>24</v>
+      </c>
+      <c r="L843" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="844" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>87</v>
+      </c>
+      <c r="B844" t="s">
+        <v>88</v>
+      </c>
+      <c r="C844" t="s">
+        <v>17</v>
+      </c>
+      <c r="D844" t="s">
+        <v>18</v>
+      </c>
+      <c r="E844" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F844" t="s">
+        <v>39</v>
+      </c>
+      <c r="G844" t="s">
+        <v>21</v>
+      </c>
+      <c r="H844" t="s">
+        <v>695</v>
+      </c>
+      <c r="I844">
+        <v>212</v>
+      </c>
+      <c r="J844" t="s">
+        <v>2567</v>
+      </c>
+      <c r="K844" t="s">
+        <v>24</v>
+      </c>
+      <c r="L844" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="845" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>68</v>
+      </c>
+      <c r="B845" t="s">
+        <v>69</v>
+      </c>
+      <c r="C845" t="s">
+        <v>17</v>
+      </c>
+      <c r="D845" t="s">
+        <v>18</v>
+      </c>
+      <c r="E845" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F845" t="s">
+        <v>39</v>
+      </c>
+      <c r="G845" t="s">
+        <v>21</v>
+      </c>
+      <c r="H845" t="s">
+        <v>695</v>
+      </c>
+      <c r="I845">
+        <v>232</v>
+      </c>
+      <c r="J845" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K845" t="s">
+        <v>24</v>
+      </c>
+      <c r="L845" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="846" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>68</v>
+      </c>
+      <c r="B846" t="s">
+        <v>69</v>
+      </c>
+      <c r="C846" t="s">
+        <v>17</v>
+      </c>
+      <c r="D846" t="s">
+        <v>18</v>
+      </c>
+      <c r="E846" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F846" t="s">
+        <v>172</v>
+      </c>
+      <c r="G846" t="s">
+        <v>21</v>
+      </c>
+      <c r="H846" t="s">
+        <v>500</v>
+      </c>
+      <c r="I846">
+        <v>120</v>
+      </c>
+      <c r="J846" t="s">
+        <v>2572</v>
+      </c>
+      <c r="K846" t="s">
+        <v>24</v>
+      </c>
+      <c r="L846" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>53</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C847" t="s">
+        <v>17</v>
+      </c>
+      <c r="D847" t="s">
+        <v>18</v>
+      </c>
+      <c r="E847" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F847" t="s">
+        <v>39</v>
+      </c>
+      <c r="G847" t="s">
+        <v>21</v>
+      </c>
+      <c r="H847" t="s">
+        <v>695</v>
+      </c>
+      <c r="I847">
+        <v>257</v>
+      </c>
+      <c r="J847" t="s">
+        <v>2575</v>
+      </c>
+      <c r="K847" t="s">
+        <v>24</v>
+      </c>
+      <c r="L847" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="848" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>296</v>
+      </c>
+      <c r="B848" t="s">
+        <v>297</v>
+      </c>
+      <c r="C848" t="s">
+        <v>17</v>
+      </c>
+      <c r="D848" t="s">
+        <v>18</v>
+      </c>
+      <c r="E848" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F848" t="s">
+        <v>172</v>
+      </c>
+      <c r="G848" t="s">
+        <v>21</v>
+      </c>
+      <c r="H848" t="s">
+        <v>496</v>
+      </c>
+      <c r="I848">
+        <v>175</v>
+      </c>
+      <c r="J848" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K848" t="s">
+        <v>24</v>
+      </c>
+      <c r="L848" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="849" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>296</v>
+      </c>
+      <c r="B849" t="s">
+        <v>297</v>
+      </c>
+      <c r="C849" t="s">
+        <v>17</v>
+      </c>
+      <c r="D849" t="s">
+        <v>18</v>
+      </c>
+      <c r="E849" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F849" t="s">
+        <v>20</v>
+      </c>
+      <c r="G849" t="s">
+        <v>21</v>
+      </c>
+      <c r="H849" t="s">
+        <v>719</v>
+      </c>
+      <c r="I849">
+        <v>156</v>
+      </c>
+      <c r="J849" t="s">
+        <v>2580</v>
+      </c>
+      <c r="K849" t="s">
+        <v>24</v>
+      </c>
+      <c r="L849" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="850" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>204</v>
+      </c>
+      <c r="B850" t="s">
+        <v>205</v>
+      </c>
+      <c r="C850" t="s">
+        <v>17</v>
+      </c>
+      <c r="D850" t="s">
+        <v>18</v>
+      </c>
+      <c r="E850" t="s">
+        <v>2582</v>
+      </c>
+      <c r="F850" t="s">
+        <v>172</v>
+      </c>
+      <c r="G850" t="s">
+        <v>21</v>
+      </c>
+      <c r="H850" t="s">
+        <v>496</v>
+      </c>
+      <c r="I850">
+        <v>192</v>
+      </c>
+      <c r="J850" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K850" t="s">
+        <v>24</v>
+      </c>
+      <c r="L850" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="851" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C851" t="s">
+        <v>17</v>
+      </c>
+      <c r="D851" t="s">
+        <v>18</v>
+      </c>
+      <c r="E851" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F851" t="s">
+        <v>39</v>
+      </c>
+      <c r="G851" t="s">
+        <v>21</v>
+      </c>
+      <c r="H851" t="s">
+        <v>695</v>
+      </c>
+      <c r="I851">
+        <v>230</v>
+      </c>
+      <c r="J851" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K851" t="s">
+        <v>24</v>
+      </c>
+      <c r="L851" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="852" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>253</v>
+      </c>
+      <c r="B852" t="s">
+        <v>254</v>
+      </c>
+      <c r="C852" t="s">
+        <v>36</v>
+      </c>
+      <c r="D852" t="s">
+        <v>49</v>
+      </c>
+      <c r="E852" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F852" t="s">
+        <v>367</v>
+      </c>
+      <c r="G852" t="s">
+        <v>21</v>
+      </c>
+      <c r="H852" t="s">
+        <v>368</v>
+      </c>
+      <c r="I852">
+        <v>105</v>
+      </c>
+      <c r="J852" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K852" t="s">
+        <v>24</v>
+      </c>
+      <c r="L852" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B853" t="s">
+        <v>200</v>
+      </c>
+      <c r="C853" t="s">
+        <v>36</v>
+      </c>
+      <c r="D853" t="s">
+        <v>37</v>
+      </c>
+      <c r="E853" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F853" t="s">
+        <v>20</v>
+      </c>
+      <c r="G853" t="s">
+        <v>21</v>
+      </c>
+      <c r="H853" t="s">
+        <v>719</v>
+      </c>
+      <c r="I853">
+        <v>200</v>
+      </c>
+      <c r="J853" t="s">
+        <v>745</v>
+      </c>
+      <c r="K853" t="s">
+        <v>24</v>
+      </c>
+      <c r="L853" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>106</v>
+      </c>
+      <c r="B854" t="s">
+        <v>107</v>
+      </c>
+      <c r="C854" t="s">
+        <v>17</v>
+      </c>
+      <c r="D854" t="s">
+        <v>18</v>
+      </c>
+      <c r="E854" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F854" t="s">
+        <v>172</v>
+      </c>
+      <c r="G854" t="s">
+        <v>21</v>
+      </c>
+      <c r="H854" t="s">
+        <v>496</v>
+      </c>
+      <c r="I854">
+        <v>172</v>
+      </c>
+      <c r="J854" t="s">
+        <v>2593</v>
+      </c>
+      <c r="K854" t="s">
+        <v>24</v>
+      </c>
+      <c r="L854" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>240</v>
+      </c>
+      <c r="B855" t="s">
+        <v>241</v>
+      </c>
+      <c r="C855" t="s">
+        <v>17</v>
+      </c>
+      <c r="D855" t="s">
+        <v>18</v>
+      </c>
+      <c r="E855" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F855" t="s">
+        <v>39</v>
+      </c>
+      <c r="G855" t="s">
+        <v>21</v>
+      </c>
+      <c r="H855" t="s">
+        <v>695</v>
+      </c>
+      <c r="I855">
+        <v>173</v>
+      </c>
+      <c r="J855" t="s">
+        <v>726</v>
+      </c>
+      <c r="K855" t="s">
+        <v>24</v>
+      </c>
+      <c r="L855" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="856" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>240</v>
+      </c>
+      <c r="B856" t="s">
+        <v>241</v>
+      </c>
+      <c r="C856" t="s">
+        <v>17</v>
+      </c>
+      <c r="D856" t="s">
+        <v>18</v>
+      </c>
+      <c r="E856" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F856" t="s">
+        <v>172</v>
+      </c>
+      <c r="G856" t="s">
+        <v>21</v>
+      </c>
+      <c r="H856" t="s">
+        <v>496</v>
+      </c>
+      <c r="I856">
+        <v>199</v>
+      </c>
+      <c r="J856" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K856" t="s">
+        <v>24</v>
+      </c>
+      <c r="L856" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B857" t="s">
+        <v>102</v>
+      </c>
+      <c r="C857" t="s">
+        <v>17</v>
+      </c>
+      <c r="D857" t="s">
+        <v>18</v>
+      </c>
+      <c r="E857" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F857" t="s">
+        <v>422</v>
+      </c>
+      <c r="G857" t="s">
+        <v>21</v>
+      </c>
+      <c r="H857" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I857">
+        <v>286</v>
+      </c>
+      <c r="J857" t="s">
+        <v>2601</v>
+      </c>
+      <c r="K857" t="s">
+        <v>24</v>
+      </c>
+      <c r="L857" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B858" t="s">
+        <v>102</v>
+      </c>
+      <c r="C858" t="s">
+        <v>36</v>
+      </c>
+      <c r="D858" t="s">
+        <v>37</v>
+      </c>
+      <c r="E858" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F858" t="s">
+        <v>39</v>
+      </c>
+      <c r="G858" t="s">
+        <v>21</v>
+      </c>
+      <c r="H858" t="s">
+        <v>695</v>
+      </c>
+      <c r="I858">
+        <v>551</v>
+      </c>
+      <c r="J858" t="s">
+        <v>711</v>
+      </c>
+      <c r="K858" t="s">
+        <v>24</v>
+      </c>
+      <c r="L858" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="859" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>333</v>
+      </c>
+      <c r="B859" t="s">
+        <v>334</v>
+      </c>
+      <c r="C859" t="s">
+        <v>36</v>
+      </c>
+      <c r="D859" t="s">
+        <v>49</v>
+      </c>
+      <c r="E859" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F859" t="s">
+        <v>261</v>
+      </c>
+      <c r="G859" t="s">
+        <v>21</v>
+      </c>
+      <c r="H859" t="s">
+        <v>695</v>
+      </c>
+      <c r="I859">
+        <v>551</v>
+      </c>
+      <c r="J859" t="s">
+        <v>711</v>
+      </c>
+      <c r="K859" t="s">
+        <v>24</v>
+      </c>
+      <c r="L859" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="860" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B860" t="s">
+        <v>190</v>
+      </c>
+      <c r="C860" t="s">
+        <v>17</v>
+      </c>
+      <c r="D860" t="s">
+        <v>18</v>
+      </c>
+      <c r="E860" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F860" t="s">
+        <v>30</v>
+      </c>
+      <c r="G860" t="s">
+        <v>21</v>
+      </c>
+      <c r="H860" t="s">
+        <v>695</v>
+      </c>
+      <c r="I860">
+        <v>378</v>
+      </c>
+      <c r="J860" t="s">
+        <v>2608</v>
+      </c>
+      <c r="K860" t="s">
+        <v>24</v>
+      </c>
+      <c r="L860" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="861" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C861" t="s">
+        <v>17</v>
+      </c>
+      <c r="D861" t="s">
+        <v>18</v>
+      </c>
+      <c r="E861" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F861" t="s">
+        <v>172</v>
+      </c>
+      <c r="G861" t="s">
+        <v>21</v>
+      </c>
+      <c r="H861" t="s">
+        <v>496</v>
+      </c>
+      <c r="I861">
+        <v>203</v>
+      </c>
+      <c r="J861" t="s">
+        <v>2610</v>
+      </c>
+      <c r="K861" t="s">
+        <v>24</v>
+      </c>
+      <c r="L861" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="862" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>402</v>
+      </c>
+      <c r="B862" t="s">
+        <v>478</v>
+      </c>
+      <c r="C862" t="s">
+        <v>17</v>
+      </c>
+      <c r="D862" t="s">
+        <v>18</v>
+      </c>
+      <c r="E862" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F862" t="s">
+        <v>172</v>
+      </c>
+      <c r="G862" t="s">
+        <v>21</v>
+      </c>
+      <c r="H862" t="s">
+        <v>496</v>
+      </c>
+      <c r="I862">
+        <v>390</v>
+      </c>
+      <c r="J862" t="s">
+        <v>2613</v>
+      </c>
+      <c r="K862" t="s">
+        <v>24</v>
+      </c>
+      <c r="L862" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="863" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C863" t="s">
+        <v>17</v>
+      </c>
+      <c r="D863" t="s">
+        <v>18</v>
+      </c>
+      <c r="E863" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F863" t="s">
+        <v>39</v>
+      </c>
+      <c r="G863" t="s">
+        <v>21</v>
+      </c>
+      <c r="H863" t="s">
+        <v>695</v>
+      </c>
+      <c r="I863">
+        <v>223</v>
+      </c>
+      <c r="J863" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K863" t="s">
+        <v>24</v>
+      </c>
+      <c r="L863" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="864" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C864" t="s">
+        <v>17</v>
+      </c>
+      <c r="D864" t="s">
+        <v>18</v>
+      </c>
+      <c r="E864" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F864" t="s">
+        <v>172</v>
+      </c>
+      <c r="G864" t="s">
+        <v>21</v>
+      </c>
+      <c r="H864" t="s">
+        <v>496</v>
+      </c>
+      <c r="I864">
+        <v>186</v>
+      </c>
+      <c r="J864" t="s">
+        <v>2103</v>
+      </c>
+      <c r="K864" t="s">
+        <v>24</v>
+      </c>
+      <c r="L864" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="865" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>47</v>
+      </c>
+      <c r="B865" t="s">
+        <v>48</v>
+      </c>
+      <c r="C865" t="s">
+        <v>36</v>
+      </c>
+      <c r="D865" t="s">
+        <v>37</v>
+      </c>
+      <c r="E865" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F865" t="s">
+        <v>39</v>
+      </c>
+      <c r="G865" t="s">
+        <v>21</v>
+      </c>
+      <c r="H865" t="s">
+        <v>695</v>
+      </c>
+      <c r="I865">
+        <v>514</v>
+      </c>
+      <c r="J865" t="s">
+        <v>2620</v>
+      </c>
+      <c r="K865" t="s">
+        <v>24</v>
+      </c>
+      <c r="L865" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="866" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>194</v>
+      </c>
+      <c r="B866" t="s">
+        <v>195</v>
+      </c>
+      <c r="C866" t="s">
+        <v>17</v>
+      </c>
+      <c r="D866" t="s">
+        <v>18</v>
+      </c>
+      <c r="E866" t="s">
+        <v>2622</v>
+      </c>
+      <c r="F866" t="s">
+        <v>272</v>
+      </c>
+      <c r="G866" t="s">
+        <v>21</v>
+      </c>
+      <c r="H866" t="s">
+        <v>500</v>
+      </c>
+      <c r="I866">
+        <v>143</v>
+      </c>
+      <c r="J866" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K866" t="s">
+        <v>24</v>
+      </c>
+      <c r="L866" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="867" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>142</v>
+      </c>
+      <c r="B867" t="s">
+        <v>143</v>
+      </c>
+      <c r="C867" t="s">
+        <v>17</v>
+      </c>
+      <c r="D867" t="s">
+        <v>18</v>
+      </c>
+      <c r="E867" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F867" t="s">
+        <v>172</v>
+      </c>
+      <c r="G867" t="s">
+        <v>21</v>
+      </c>
+      <c r="H867" t="s">
+        <v>496</v>
+      </c>
+      <c r="I867">
+        <v>410</v>
+      </c>
+      <c r="J867" t="s">
+        <v>2626</v>
+      </c>
+      <c r="K867" t="s">
+        <v>24</v>
+      </c>
+      <c r="L867" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="868" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>142</v>
+      </c>
+      <c r="B868" t="s">
+        <v>143</v>
+      </c>
+      <c r="C868" t="s">
+        <v>17</v>
+      </c>
+      <c r="D868" t="s">
+        <v>18</v>
+      </c>
+      <c r="E868" t="s">
+        <v>2628</v>
+      </c>
+      <c r="F868" t="s">
+        <v>39</v>
+      </c>
+      <c r="G868" t="s">
+        <v>21</v>
+      </c>
+      <c r="H868" t="s">
+        <v>695</v>
+      </c>
+      <c r="I868">
+        <v>112</v>
+      </c>
+      <c r="J868" t="s">
+        <v>2629</v>
+      </c>
+      <c r="K868" t="s">
+        <v>24</v>
+      </c>
+      <c r="L868" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>986</v>
+      </c>
+      <c r="B869" t="s">
+        <v>330</v>
+      </c>
+      <c r="C869" t="s">
+        <v>17</v>
+      </c>
+      <c r="D869" t="s">
+        <v>18</v>
+      </c>
+      <c r="E869" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F869" t="s">
+        <v>172</v>
+      </c>
+      <c r="G869" t="s">
+        <v>21</v>
+      </c>
+      <c r="H869" t="s">
+        <v>496</v>
+      </c>
+      <c r="I869">
+        <v>183</v>
+      </c>
+      <c r="J869" t="s">
+        <v>870</v>
+      </c>
+      <c r="K869" t="s">
+        <v>24</v>
+      </c>
+      <c r="L869" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>340</v>
+      </c>
+      <c r="B870" t="s">
+        <v>341</v>
+      </c>
+      <c r="C870" t="s">
+        <v>36</v>
+      </c>
+      <c r="D870" t="s">
+        <v>342</v>
+      </c>
+      <c r="E870" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F870" t="s">
+        <v>172</v>
+      </c>
+      <c r="G870" t="s">
+        <v>21</v>
+      </c>
+      <c r="H870" t="s">
+        <v>496</v>
+      </c>
+      <c r="I870">
+        <v>394</v>
+      </c>
+      <c r="J870" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K870" t="s">
+        <v>24</v>
+      </c>
+      <c r="L870" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>161</v>
+      </c>
+      <c r="B871" t="s">
+        <v>162</v>
+      </c>
+      <c r="C871" t="s">
+        <v>36</v>
+      </c>
+      <c r="D871" t="s">
+        <v>37</v>
+      </c>
+      <c r="E871" t="s">
+        <v>2636</v>
+      </c>
+      <c r="F871" t="s">
+        <v>39</v>
+      </c>
+      <c r="G871" t="s">
+        <v>21</v>
+      </c>
+      <c r="H871" t="s">
+        <v>695</v>
+      </c>
+      <c r="I871">
+        <v>310</v>
+      </c>
+      <c r="J871" t="s">
+        <v>2156</v>
+      </c>
+      <c r="K871" t="s">
+        <v>24</v>
+      </c>
+      <c r="L871" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>166</v>
+      </c>
+      <c r="B872" t="s">
+        <v>167</v>
+      </c>
+      <c r="C872" t="s">
+        <v>17</v>
+      </c>
+      <c r="D872" t="s">
+        <v>18</v>
+      </c>
+      <c r="E872" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F872" t="s">
+        <v>20</v>
+      </c>
+      <c r="G872" t="s">
+        <v>21</v>
+      </c>
+      <c r="H872" t="s">
+        <v>719</v>
+      </c>
+      <c r="I872">
+        <v>250</v>
+      </c>
+      <c r="J872" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K872" t="s">
+        <v>24</v>
+      </c>
+      <c r="L872" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>166</v>
+      </c>
+      <c r="B873" t="s">
+        <v>167</v>
+      </c>
+      <c r="C873" t="s">
+        <v>17</v>
+      </c>
+      <c r="D873" t="s">
+        <v>18</v>
+      </c>
+      <c r="E873" t="s">
+        <v>2640</v>
+      </c>
+      <c r="F873" t="s">
+        <v>39</v>
+      </c>
+      <c r="G873" t="s">
+        <v>21</v>
+      </c>
+      <c r="H873" t="s">
+        <v>695</v>
+      </c>
+      <c r="I873">
+        <v>470</v>
+      </c>
+      <c r="J873" t="s">
+        <v>2641</v>
+      </c>
+      <c r="K873" t="s">
+        <v>24</v>
+      </c>
+      <c r="L873" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C874" t="s">
+        <v>17</v>
+      </c>
+      <c r="D874" t="s">
+        <v>18</v>
+      </c>
+      <c r="E874" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F874" t="s">
+        <v>20</v>
+      </c>
+      <c r="G874" t="s">
+        <v>21</v>
+      </c>
+      <c r="H874" t="s">
+        <v>719</v>
+      </c>
+      <c r="I874">
+        <v>200</v>
+      </c>
+      <c r="J874" t="s">
+        <v>745</v>
+      </c>
+      <c r="K874" t="s">
+        <v>24</v>
+      </c>
+      <c r="L874" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>83</v>
+      </c>
+      <c r="B875" t="s">
+        <v>84</v>
+      </c>
+      <c r="C875" t="s">
+        <v>17</v>
+      </c>
+      <c r="D875" t="s">
+        <v>18</v>
+      </c>
+      <c r="E875" t="s">
+        <v>2645</v>
+      </c>
+      <c r="F875" t="s">
+        <v>172</v>
+      </c>
+      <c r="G875" t="s">
+        <v>21</v>
+      </c>
+      <c r="H875" t="s">
+        <v>500</v>
+      </c>
+      <c r="I875">
+        <v>251</v>
+      </c>
+      <c r="J875" t="s">
+        <v>2646</v>
+      </c>
+      <c r="K875" t="s">
+        <v>24</v>
+      </c>
+      <c r="L875" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>83</v>
+      </c>
+      <c r="B876" t="s">
+        <v>84</v>
+      </c>
+      <c r="C876" t="s">
+        <v>17</v>
+      </c>
+      <c r="D876" t="s">
+        <v>18</v>
+      </c>
+      <c r="E876" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F876" t="s">
+        <v>39</v>
+      </c>
+      <c r="G876" t="s">
+        <v>21</v>
+      </c>
+      <c r="H876" t="s">
+        <v>695</v>
+      </c>
+      <c r="I876">
+        <v>298</v>
+      </c>
+      <c r="J876" t="s">
+        <v>2649</v>
+      </c>
+      <c r="K876" t="s">
+        <v>24</v>
+      </c>
+      <c r="L876" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B877" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C877" t="s">
+        <v>17</v>
+      </c>
+      <c r="D877" t="s">
+        <v>18</v>
+      </c>
+      <c r="E877" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F877" t="s">
+        <v>39</v>
+      </c>
+      <c r="G877" t="s">
+        <v>21</v>
+      </c>
+      <c r="H877" t="s">
+        <v>695</v>
+      </c>
+      <c r="I877">
+        <v>342</v>
+      </c>
+      <c r="J877" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K877" t="s">
+        <v>24</v>
+      </c>
+      <c r="L877" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>547</v>
+      </c>
+      <c r="B878" t="s">
+        <v>548</v>
+      </c>
+      <c r="C878" t="s">
+        <v>17</v>
+      </c>
+      <c r="D878" t="s">
+        <v>18</v>
+      </c>
+      <c r="E878" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F878" t="s">
+        <v>39</v>
+      </c>
+      <c r="G878" t="s">
+        <v>21</v>
+      </c>
+      <c r="H878" t="s">
+        <v>695</v>
+      </c>
+      <c r="I878">
+        <v>259</v>
+      </c>
+      <c r="J878" t="s">
+        <v>2654</v>
+      </c>
+      <c r="K878" t="s">
+        <v>24</v>
+      </c>
+      <c r="L878" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C879" t="s">
+        <v>17</v>
+      </c>
+      <c r="D879" t="s">
+        <v>18</v>
+      </c>
+      <c r="E879" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F879" t="s">
+        <v>39</v>
+      </c>
+      <c r="G879" t="s">
+        <v>21</v>
+      </c>
+      <c r="H879" t="s">
+        <v>695</v>
+      </c>
+      <c r="I879">
+        <v>340</v>
+      </c>
+      <c r="J879" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K879" t="s">
+        <v>24</v>
+      </c>
+      <c r="L879" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C880" t="s">
+        <v>17</v>
+      </c>
+      <c r="D880" t="s">
+        <v>18</v>
+      </c>
+      <c r="E880" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F880" t="s">
+        <v>39</v>
+      </c>
+      <c r="G880" t="s">
+        <v>21</v>
+      </c>
+      <c r="H880" t="s">
+        <v>695</v>
+      </c>
+      <c r="I880">
+        <v>193</v>
+      </c>
+      <c r="J880" t="s">
+        <v>893</v>
+      </c>
+      <c r="K880" t="s">
+        <v>24</v>
+      </c>
+      <c r="L880" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="881" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>115</v>
+      </c>
+      <c r="B881" t="s">
+        <v>116</v>
+      </c>
+      <c r="C881" t="s">
+        <v>17</v>
+      </c>
+      <c r="D881" t="s">
+        <v>18</v>
+      </c>
+      <c r="E881" t="s">
+        <v>2660</v>
+      </c>
+      <c r="F881" t="s">
+        <v>20</v>
+      </c>
+      <c r="G881" t="s">
+        <v>21</v>
+      </c>
+      <c r="H881" t="s">
+        <v>719</v>
+      </c>
+      <c r="I881">
+        <v>336</v>
+      </c>
+      <c r="J881" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K881" t="s">
+        <v>24</v>
+      </c>
+      <c r="L881" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="882" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>436</v>
+      </c>
+      <c r="B882" t="s">
+        <v>437</v>
+      </c>
+      <c r="C882" t="s">
+        <v>17</v>
+      </c>
+      <c r="D882" t="s">
+        <v>18</v>
+      </c>
+      <c r="E882" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F882" t="s">
+        <v>39</v>
+      </c>
+      <c r="G882" t="s">
+        <v>21</v>
+      </c>
+      <c r="H882" t="s">
+        <v>695</v>
+      </c>
+      <c r="I882">
+        <v>470</v>
+      </c>
+      <c r="J882" t="s">
+        <v>2641</v>
+      </c>
+      <c r="K882" t="s">
+        <v>24</v>
+      </c>
+      <c r="L882" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="883" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B883" t="s">
+        <v>16</v>
+      </c>
+      <c r="C883" t="s">
+        <v>36</v>
+      </c>
+      <c r="D883" t="s">
+        <v>49</v>
+      </c>
+      <c r="E883" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F883" t="s">
+        <v>367</v>
+      </c>
+      <c r="G883" t="s">
+        <v>21</v>
+      </c>
+      <c r="H883" t="s">
+        <v>368</v>
+      </c>
+      <c r="I883">
+        <v>231</v>
+      </c>
+      <c r="J883" t="s">
+        <v>2665</v>
+      </c>
+      <c r="K883" t="s">
+        <v>24</v>
+      </c>
+      <c r="L883" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="884" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>956</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C884" t="s">
+        <v>17</v>
+      </c>
+      <c r="D884" t="s">
+        <v>18</v>
+      </c>
+      <c r="E884" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F884" t="s">
+        <v>172</v>
+      </c>
+      <c r="G884" t="s">
+        <v>21</v>
+      </c>
+      <c r="H884" t="s">
+        <v>496</v>
+      </c>
+      <c r="I884">
+        <v>341</v>
+      </c>
+      <c r="J884" t="s">
+        <v>2668</v>
+      </c>
+      <c r="K884" t="s">
+        <v>24</v>
+      </c>
+      <c r="L884" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="885" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>956</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C885" t="s">
+        <v>36</v>
+      </c>
+      <c r="D885" t="s">
+        <v>49</v>
+      </c>
+      <c r="E885" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F885" t="s">
+        <v>367</v>
+      </c>
+      <c r="G885" t="s">
+        <v>21</v>
+      </c>
+      <c r="H885" t="s">
+        <v>368</v>
+      </c>
+      <c r="I885">
+        <v>212</v>
+      </c>
+      <c r="J885" t="s">
+        <v>2671</v>
+      </c>
+      <c r="K885" t="s">
+        <v>24</v>
+      </c>
+      <c r="L885" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="886" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C886" t="s">
+        <v>17</v>
+      </c>
+      <c r="D886" t="s">
+        <v>18</v>
+      </c>
+      <c r="E886" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F886" t="s">
+        <v>20</v>
+      </c>
+      <c r="G886" t="s">
+        <v>21</v>
+      </c>
+      <c r="H886" t="s">
+        <v>719</v>
+      </c>
+      <c r="I886">
+        <v>331</v>
+      </c>
+      <c r="J886" t="s">
+        <v>2392</v>
+      </c>
+      <c r="K886" t="s">
+        <v>24</v>
+      </c>
+      <c r="L886" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="887" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C887" t="s">
+        <v>17</v>
+      </c>
+      <c r="D887" t="s">
+        <v>18</v>
+      </c>
+      <c r="E887" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F887" t="s">
+        <v>30</v>
+      </c>
+      <c r="G887" t="s">
+        <v>21</v>
+      </c>
+      <c r="H887" t="s">
+        <v>695</v>
+      </c>
+      <c r="I887">
+        <v>550</v>
+      </c>
+      <c r="J887" t="s">
+        <v>2676</v>
+      </c>
+      <c r="K887" t="s">
+        <v>24</v>
+      </c>
+      <c r="L887" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="888" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>125</v>
+      </c>
+      <c r="B888" t="s">
+        <v>126</v>
+      </c>
+      <c r="C888" t="s">
+        <v>17</v>
+      </c>
+      <c r="D888" t="s">
+        <v>18</v>
+      </c>
+      <c r="E888" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F888" t="s">
+        <v>39</v>
+      </c>
+      <c r="G888" t="s">
+        <v>21</v>
+      </c>
+      <c r="H888" t="s">
+        <v>695</v>
+      </c>
+      <c r="I888">
+        <v>434</v>
+      </c>
+      <c r="J888" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K888" t="s">
+        <v>24</v>
+      </c>
+      <c r="L888" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="889" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>125</v>
+      </c>
+      <c r="B889" t="s">
+        <v>126</v>
+      </c>
+      <c r="C889" t="s">
+        <v>17</v>
+      </c>
+      <c r="D889" t="s">
+        <v>18</v>
+      </c>
+      <c r="E889" t="s">
+        <v>2681</v>
+      </c>
+      <c r="F889" t="s">
+        <v>39</v>
+      </c>
+      <c r="G889" t="s">
+        <v>21</v>
+      </c>
+      <c r="H889" t="s">
+        <v>695</v>
+      </c>
+      <c r="I889">
+        <v>220</v>
+      </c>
+      <c r="J889" t="s">
+        <v>777</v>
+      </c>
+      <c r="K889" t="s">
+        <v>24</v>
+      </c>
+      <c r="L889" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="890" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>307</v>
+      </c>
+      <c r="B890" t="s">
+        <v>308</v>
+      </c>
+      <c r="C890" t="s">
+        <v>17</v>
+      </c>
+      <c r="D890" t="s">
+        <v>18</v>
+      </c>
+      <c r="E890" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F890" t="s">
+        <v>39</v>
+      </c>
+      <c r="G890" t="s">
+        <v>21</v>
+      </c>
+      <c r="H890" t="s">
+        <v>695</v>
+      </c>
+      <c r="I890">
+        <v>182</v>
+      </c>
+      <c r="J890" t="s">
+        <v>845</v>
+      </c>
+      <c r="K890" t="s">
+        <v>24</v>
+      </c>
+      <c r="L890" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="891" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>307</v>
+      </c>
+      <c r="B891" t="s">
+        <v>308</v>
+      </c>
+      <c r="C891" t="s">
+        <v>17</v>
+      </c>
+      <c r="D891" t="s">
+        <v>18</v>
+      </c>
+      <c r="E891" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F891" t="s">
+        <v>172</v>
+      </c>
+      <c r="G891" t="s">
+        <v>21</v>
+      </c>
+      <c r="H891" t="s">
+        <v>496</v>
+      </c>
+      <c r="I891">
+        <v>190</v>
+      </c>
+      <c r="J891" t="s">
+        <v>735</v>
+      </c>
+      <c r="K891" t="s">
+        <v>24</v>
+      </c>
+      <c r="L891" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="892" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>397</v>
+      </c>
+      <c r="B892" t="s">
+        <v>398</v>
+      </c>
+      <c r="C892" t="s">
+        <v>17</v>
+      </c>
+      <c r="D892" t="s">
+        <v>18</v>
+      </c>
+      <c r="E892" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F892" t="s">
+        <v>39</v>
+      </c>
+      <c r="G892" t="s">
+        <v>21</v>
+      </c>
+      <c r="H892" t="s">
+        <v>695</v>
+      </c>
+      <c r="I892">
+        <v>231</v>
+      </c>
+      <c r="J892" t="s">
+        <v>822</v>
+      </c>
+      <c r="K892" t="s">
+        <v>24</v>
+      </c>
+      <c r="L892" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="893" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C893" t="s">
+        <v>17</v>
+      </c>
+      <c r="D893" t="s">
+        <v>18</v>
+      </c>
+      <c r="E893" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F893" t="s">
+        <v>20</v>
+      </c>
+      <c r="G893" t="s">
+        <v>21</v>
+      </c>
+      <c r="H893" t="s">
+        <v>719</v>
+      </c>
+      <c r="I893">
+        <v>151</v>
+      </c>
+      <c r="J893" t="s">
+        <v>2690</v>
+      </c>
+      <c r="K893" t="s">
+        <v>24</v>
+      </c>
+      <c r="L893" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="894" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C894" t="s">
+        <v>17</v>
+      </c>
+      <c r="D894" t="s">
+        <v>18</v>
+      </c>
+      <c r="E894" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F894" t="s">
+        <v>172</v>
+      </c>
+      <c r="G894" t="s">
+        <v>21</v>
+      </c>
+      <c r="H894" t="s">
+        <v>496</v>
+      </c>
+      <c r="I894">
+        <v>230</v>
+      </c>
+      <c r="J894" t="s">
+        <v>2693</v>
+      </c>
+      <c r="K894" t="s">
+        <v>24</v>
+      </c>
+      <c r="L894" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="895" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>63</v>
+      </c>
+      <c r="B895" t="s">
+        <v>64</v>
+      </c>
+      <c r="C895" t="s">
+        <v>17</v>
+      </c>
+      <c r="D895" t="s">
+        <v>18</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F895" t="s">
+        <v>20</v>
+      </c>
+      <c r="G895" t="s">
+        <v>21</v>
+      </c>
+      <c r="H895" t="s">
+        <v>719</v>
+      </c>
+      <c r="I895">
+        <v>150</v>
+      </c>
+      <c r="J895" t="s">
+        <v>848</v>
+      </c>
+      <c r="K895" t="s">
+        <v>24</v>
+      </c>
+      <c r="L895" t="s">
+        <v>2695</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O791" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B791 B896:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B792:B895">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684DD4D-00E6-497E-9F84-842209E9E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8739857-8A2D-40AD-9941-81C28F29DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12205" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13409" uniqueCount="2918">
   <si>
     <t>Alias</t>
   </si>
@@ -8081,6 +8081,702 @@
   </si>
   <si>
     <t>1237976</t>
+  </si>
+  <si>
+    <t>13-01-2026 19:51:47</t>
+  </si>
+  <si>
+    <t>307858.60</t>
+  </si>
+  <si>
+    <t>989415</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:05:09</t>
+  </si>
+  <si>
+    <t>526115.80</t>
+  </si>
+  <si>
+    <t>208626</t>
+  </si>
+  <si>
+    <t>13-01-2026 15:13:22</t>
+  </si>
+  <si>
+    <t>1406487</t>
+  </si>
+  <si>
+    <t>13-01-2026 15:08:52</t>
+  </si>
+  <si>
+    <t>620477.90</t>
+  </si>
+  <si>
+    <t>1460011</t>
+  </si>
+  <si>
+    <t>13-01-2026 04:06:47</t>
+  </si>
+  <si>
+    <t>755364.40</t>
+  </si>
+  <si>
+    <t>1393426</t>
+  </si>
+  <si>
+    <t>13-01-2026 16:45:26</t>
+  </si>
+  <si>
+    <t>331776.00</t>
+  </si>
+  <si>
+    <t>1393866</t>
+  </si>
+  <si>
+    <t>13-01-2026 01:49:25</t>
+  </si>
+  <si>
+    <t>1259667</t>
+  </si>
+  <si>
+    <t>13-01-2026 16:28:10</t>
+  </si>
+  <si>
+    <t>1151727</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:05:35</t>
+  </si>
+  <si>
+    <t>888192.00</t>
+  </si>
+  <si>
+    <t>1208995</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:59:45</t>
+  </si>
+  <si>
+    <t>1238763</t>
+  </si>
+  <si>
+    <t>13-01-2026 14:33:23</t>
+  </si>
+  <si>
+    <t>1086331</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:08:02</t>
+  </si>
+  <si>
+    <t>445824.00</t>
+  </si>
+  <si>
+    <t>845187</t>
+  </si>
+  <si>
+    <t>13-01-2026 18:07:09</t>
+  </si>
+  <si>
+    <t>315793.10</t>
+  </si>
+  <si>
+    <t>845621</t>
+  </si>
+  <si>
+    <t>13-01-2026 19:11:22</t>
+  </si>
+  <si>
+    <t>432000.00</t>
+  </si>
+  <si>
+    <t>825139</t>
+  </si>
+  <si>
+    <t>13-01-2026 15:15:13</t>
+  </si>
+  <si>
+    <t>1001600</t>
+  </si>
+  <si>
+    <t>13-01-2026 21:26:30</t>
+  </si>
+  <si>
+    <t>574457.80</t>
+  </si>
+  <si>
+    <t>1001954</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:24:50</t>
+  </si>
+  <si>
+    <t>803520.00</t>
+  </si>
+  <si>
+    <t>988021</t>
+  </si>
+  <si>
+    <t>13-01-2026 12:44:29</t>
+  </si>
+  <si>
+    <t>414180.90</t>
+  </si>
+  <si>
+    <t>1006081</t>
+  </si>
+  <si>
+    <t>13-01-2026 12:00:31</t>
+  </si>
+  <si>
+    <t>767131</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:36:40</t>
+  </si>
+  <si>
+    <t>598261.30</t>
+  </si>
+  <si>
+    <t>723797</t>
+  </si>
+  <si>
+    <t>13-01-2026 21:40:48</t>
+  </si>
+  <si>
+    <t>783763</t>
+  </si>
+  <si>
+    <t>13-01-2026 01:25:49</t>
+  </si>
+  <si>
+    <t>1086912.00</t>
+  </si>
+  <si>
+    <t>764356</t>
+  </si>
+  <si>
+    <t>13-01-2026 11:12:00</t>
+  </si>
+  <si>
+    <t>603022.00</t>
+  </si>
+  <si>
+    <t>696961</t>
+  </si>
+  <si>
+    <t>13-01-2026 09:50:14</t>
+  </si>
+  <si>
+    <t>853632.00</t>
+  </si>
+  <si>
+    <t>586140</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:41:39</t>
+  </si>
+  <si>
+    <t>276120.60</t>
+  </si>
+  <si>
+    <t>572580</t>
+  </si>
+  <si>
+    <t>13-01-2026 14:05:33</t>
+  </si>
+  <si>
+    <t>708480.00</t>
+  </si>
+  <si>
+    <t>653424</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:14:21</t>
+  </si>
+  <si>
+    <t>559345</t>
+  </si>
+  <si>
+    <t>13-01-2026 14:06:32</t>
+  </si>
+  <si>
+    <t>250730.20</t>
+  </si>
+  <si>
+    <t>559548</t>
+  </si>
+  <si>
+    <t>13-01-2026 20:17:29</t>
+  </si>
+  <si>
+    <t>428934</t>
+  </si>
+  <si>
+    <t>13-01-2026 09:20:51</t>
+  </si>
+  <si>
+    <t>474155</t>
+  </si>
+  <si>
+    <t>13-01-2026 17:34:38</t>
+  </si>
+  <si>
+    <t>323512.20</t>
+  </si>
+  <si>
+    <t>474602</t>
+  </si>
+  <si>
+    <t>13-01-2026 08:40:43</t>
+  </si>
+  <si>
+    <t>243451.10</t>
+  </si>
+  <si>
+    <t>350721</t>
+  </si>
+  <si>
+    <t>13-01-2026 21:42:06</t>
+  </si>
+  <si>
+    <t>228746.00</t>
+  </si>
+  <si>
+    <t>351074</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:33:40</t>
+  </si>
+  <si>
+    <t>207883.90</t>
+  </si>
+  <si>
+    <t>378004</t>
+  </si>
+  <si>
+    <t>13-01-2026 20:02:57</t>
+  </si>
+  <si>
+    <t>183168.00</t>
+  </si>
+  <si>
+    <t>378436</t>
+  </si>
+  <si>
+    <t>Tanquis Ignacio</t>
+  </si>
+  <si>
+    <t>13-01-2026 19:57:41</t>
+  </si>
+  <si>
+    <t>397440.00</t>
+  </si>
+  <si>
+    <t>394665</t>
+  </si>
+  <si>
+    <t>13-01-2026 03:10:09</t>
+  </si>
+  <si>
+    <t>258156.20</t>
+  </si>
+  <si>
+    <t>409539</t>
+  </si>
+  <si>
+    <t>13-01-2026 11:40:41</t>
+  </si>
+  <si>
+    <t>409894</t>
+  </si>
+  <si>
+    <t>13-01-2026 22:17:58</t>
+  </si>
+  <si>
+    <t>355968.00</t>
+  </si>
+  <si>
+    <t>410675</t>
+  </si>
+  <si>
+    <t>13-01-2026 01:10:31</t>
+  </si>
+  <si>
+    <t>340416.00</t>
+  </si>
+  <si>
+    <t>458728</t>
+  </si>
+  <si>
+    <t>13-01-2026 23:11:59</t>
+  </si>
+  <si>
+    <t>459392</t>
+  </si>
+  <si>
+    <t>13-01-2026 14:18:23</t>
+  </si>
+  <si>
+    <t>399359</t>
+  </si>
+  <si>
+    <t>13-01-2026 20:29:45</t>
+  </si>
+  <si>
+    <t>396725.00</t>
+  </si>
+  <si>
+    <t>399716</t>
+  </si>
+  <si>
+    <t>13-01-2026 03:04:29</t>
+  </si>
+  <si>
+    <t>528768.00</t>
+  </si>
+  <si>
+    <t>227694</t>
+  </si>
+  <si>
+    <t>13-01-2026 18:54:54</t>
+  </si>
+  <si>
+    <t>1071360.00</t>
+  </si>
+  <si>
+    <t>216131</t>
+  </si>
+  <si>
+    <t>13-01-2026 16:56:00</t>
+  </si>
+  <si>
+    <t>318610.50</t>
+  </si>
+  <si>
+    <t>162360</t>
+  </si>
+  <si>
+    <t>13-01-2026 06:18:34</t>
+  </si>
+  <si>
+    <t>399898.80</t>
+  </si>
+  <si>
+    <t>175343</t>
+  </si>
+  <si>
+    <t>13-01-2026 01:08:57</t>
+  </si>
+  <si>
+    <t>200694</t>
+  </si>
+  <si>
+    <t>13-01-2026 22:27:48</t>
+  </si>
+  <si>
+    <t>201367</t>
+  </si>
+  <si>
+    <t>13-01-2026 14:10:03</t>
+  </si>
+  <si>
+    <t>291989.60</t>
+  </si>
+  <si>
+    <t>83852</t>
+  </si>
+  <si>
+    <t>Conradi Luis</t>
+  </si>
+  <si>
+    <t>13-01-2026 11:47:50</t>
+  </si>
+  <si>
+    <t>585566.10</t>
+  </si>
+  <si>
+    <t>95171</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:21:18</t>
+  </si>
+  <si>
+    <t>499973.40</t>
+  </si>
+  <si>
+    <t>68791</t>
+  </si>
+  <si>
+    <t>13-01-2026 09:39:43</t>
+  </si>
+  <si>
+    <t>241208.80</t>
+  </si>
+  <si>
+    <t>79445</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:55:31</t>
+  </si>
+  <si>
+    <t>675648.00</t>
+  </si>
+  <si>
+    <t>64622</t>
+  </si>
+  <si>
+    <t>13-01-2026 22:56:53</t>
+  </si>
+  <si>
+    <t>317952.00</t>
+  </si>
+  <si>
+    <t>65193</t>
+  </si>
+  <si>
+    <t>Morales Angel</t>
+  </si>
+  <si>
+    <t>13-01-2026 20:42:08</t>
+  </si>
+  <si>
+    <t>587520.00</t>
+  </si>
+  <si>
+    <t>76670</t>
+  </si>
+  <si>
+    <t>13-01-2026 12:34:12</t>
+  </si>
+  <si>
+    <t>56006</t>
+  </si>
+  <si>
+    <t>13-01-2026 19:50:01</t>
+  </si>
+  <si>
+    <t>277707.50</t>
+  </si>
+  <si>
+    <t>56439</t>
+  </si>
+  <si>
+    <t>13-01-2026 15:46:59</t>
+  </si>
+  <si>
+    <t>665280.00</t>
+  </si>
+  <si>
+    <t>66281</t>
+  </si>
+  <si>
+    <t>13-01-2026 07:56:31</t>
+  </si>
+  <si>
+    <t>636346.90</t>
+  </si>
+  <si>
+    <t>65590</t>
+  </si>
+  <si>
+    <t>13-01-2026 09:05:34</t>
+  </si>
+  <si>
+    <t>48088</t>
+  </si>
+  <si>
+    <t>13-01-2026 18:37:01</t>
+  </si>
+  <si>
+    <t>457492.00</t>
+  </si>
+  <si>
+    <t>13-01-2026 16:53:07</t>
+  </si>
+  <si>
+    <t>275864</t>
+  </si>
+  <si>
+    <t>13-01-2026 11:11:00</t>
+  </si>
+  <si>
+    <t>502848.00</t>
+  </si>
+  <si>
+    <t>1208276</t>
+  </si>
+  <si>
+    <t>Jurao</t>
+  </si>
+  <si>
+    <t>LIQ702</t>
+  </si>
+  <si>
+    <t>13-01-2026 10:11:57</t>
+  </si>
+  <si>
+    <t>775872.00</t>
+  </si>
+  <si>
+    <t>903088</t>
+  </si>
+  <si>
+    <t>13-01-2026 20:13:54</t>
+  </si>
+  <si>
+    <t>903529</t>
+  </si>
+  <si>
+    <t>13-01-2026 07:56:43</t>
+  </si>
+  <si>
+    <t>13-01-2026 16:40:26</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:23:36</t>
+  </si>
+  <si>
+    <t>901359.20</t>
+  </si>
+  <si>
+    <t>2339269</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:11:05</t>
+  </si>
+  <si>
+    <t>2291414</t>
+  </si>
+  <si>
+    <t>13-01-2026 17:16:57</t>
+  </si>
+  <si>
+    <t>233280.00</t>
+  </si>
+  <si>
+    <t>338866</t>
+  </si>
+  <si>
+    <t>13-01-2026 06:02:34</t>
+  </si>
+  <si>
+    <t>264023.60</t>
+  </si>
+  <si>
+    <t>317164</t>
+  </si>
+  <si>
+    <t>13-01-2026 02:46:27</t>
+  </si>
+  <si>
+    <t>851904.00</t>
+  </si>
+  <si>
+    <t>641705</t>
+  </si>
+  <si>
+    <t>13-01-2026 02:32:54</t>
+  </si>
+  <si>
+    <t>696350</t>
+  </si>
+  <si>
+    <t>13-01-2026 17:54:14</t>
+  </si>
+  <si>
+    <t>285642.00</t>
+  </si>
+  <si>
+    <t>696780</t>
+  </si>
+  <si>
+    <t>13-01-2026 19:54:24</t>
+  </si>
+  <si>
+    <t>328488.30</t>
+  </si>
+  <si>
+    <t>441934</t>
+  </si>
+  <si>
+    <t>13-01-2026 20:00:43</t>
+  </si>
+  <si>
+    <t>1415742</t>
+  </si>
+  <si>
+    <t>13-01-2026 13:40:40</t>
+  </si>
+  <si>
+    <t>943034</t>
+  </si>
+  <si>
+    <t>13-01-2026 21:59:54</t>
+  </si>
+  <si>
+    <t>421632.00</t>
+  </si>
+  <si>
+    <t>586300</t>
+  </si>
+  <si>
+    <t>13-01-2026 12:40:48</t>
+  </si>
+  <si>
+    <t>919296.00</t>
+  </si>
+  <si>
+    <t>462280</t>
+  </si>
+  <si>
+    <t>13-01-2026 12:45:12</t>
+  </si>
+  <si>
+    <t>191813</t>
+  </si>
+  <si>
+    <t>13-01-2026 06:44:40</t>
+  </si>
+  <si>
+    <t>314206.20</t>
+  </si>
+  <si>
+    <t>232239</t>
+  </si>
+  <si>
+    <t>13-01-2026 12:44:01</t>
+  </si>
+  <si>
+    <t>501120.00</t>
+  </si>
+  <si>
+    <t>232668</t>
+  </si>
+  <si>
+    <t>13-01-2026 00:22:51</t>
+  </si>
+  <si>
+    <t>641088.00</t>
+  </si>
+  <si>
+    <t>885807</t>
+  </si>
+  <si>
+    <t>13-01-2026 17:21:26</t>
+  </si>
+  <si>
+    <t>886227</t>
+  </si>
+  <si>
+    <t>13-01-2026 18:58:33</t>
+  </si>
+  <si>
+    <t>381888.00</t>
+  </si>
+  <si>
+    <t>886326</t>
   </si>
 </sst>
 </file>
@@ -8122,7 +8818,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8478,10 +9184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O894"/>
+  <dimension ref="A1:O980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="K715" sqref="K715"/>
+    <sheetView tabSelected="1" topLeftCell="A956" workbookViewId="0">
+      <selection activeCell="H974" sqref="H974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -49036,7 +49742,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>436</v>
       </c>
@@ -49074,7 +49780,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1125</v>
       </c>
@@ -49112,7 +49818,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>956</v>
       </c>
@@ -49150,7 +49856,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>956</v>
       </c>
@@ -49188,7 +49894,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1658</v>
       </c>
@@ -49226,7 +49932,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1665</v>
       </c>
@@ -49264,7 +49970,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>125</v>
       </c>
@@ -49302,7 +50008,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>125</v>
       </c>
@@ -49340,7 +50046,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>307</v>
       </c>
@@ -49378,7 +50084,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>307</v>
       </c>
@@ -49416,7 +50122,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>397</v>
       </c>
@@ -49454,7 +50160,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1362</v>
       </c>
@@ -49492,7 +50198,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1028</v>
       </c>
@@ -49530,7 +50236,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>63</v>
       </c>
@@ -49568,12 +50274,4057 @@
         <v>2685</v>
       </c>
     </row>
+    <row r="895" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>87</v>
+      </c>
+      <c r="B895" t="s">
+        <v>88</v>
+      </c>
+      <c r="C895" t="s">
+        <v>17</v>
+      </c>
+      <c r="D895" t="s">
+        <v>18</v>
+      </c>
+      <c r="E895" t="s">
+        <v>2686</v>
+      </c>
+      <c r="F895" t="s">
+        <v>172</v>
+      </c>
+      <c r="G895" t="s">
+        <v>21</v>
+      </c>
+      <c r="H895" t="s">
+        <v>173</v>
+      </c>
+      <c r="I895">
+        <v>194</v>
+      </c>
+      <c r="J895" t="s">
+        <v>2687</v>
+      </c>
+      <c r="K895" t="s">
+        <v>24</v>
+      </c>
+      <c r="L895" t="s">
+        <v>2688</v>
+      </c>
+      <c r="M895" t="s">
+        <v>26</v>
+      </c>
+      <c r="N895" t="s">
+        <v>26</v>
+      </c>
+      <c r="O895" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="896" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>194</v>
+      </c>
+      <c r="B896" t="s">
+        <v>195</v>
+      </c>
+      <c r="C896" t="s">
+        <v>17</v>
+      </c>
+      <c r="D896" t="s">
+        <v>18</v>
+      </c>
+      <c r="E896" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F896" t="s">
+        <v>20</v>
+      </c>
+      <c r="G896" t="s">
+        <v>21</v>
+      </c>
+      <c r="H896" t="s">
+        <v>719</v>
+      </c>
+      <c r="I896">
+        <v>322</v>
+      </c>
+      <c r="J896" t="s">
+        <v>2690</v>
+      </c>
+      <c r="K896" t="s">
+        <v>24</v>
+      </c>
+      <c r="L896" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M896" t="s">
+        <v>26</v>
+      </c>
+      <c r="N896" t="s">
+        <v>26</v>
+      </c>
+      <c r="O896" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="897" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>858</v>
+      </c>
+      <c r="B897" t="s">
+        <v>859</v>
+      </c>
+      <c r="C897" t="s">
+        <v>17</v>
+      </c>
+      <c r="D897" t="s">
+        <v>18</v>
+      </c>
+      <c r="E897" t="s">
+        <v>2692</v>
+      </c>
+      <c r="F897" t="s">
+        <v>39</v>
+      </c>
+      <c r="G897" t="s">
+        <v>21</v>
+      </c>
+      <c r="H897" t="s">
+        <v>31</v>
+      </c>
+      <c r="I897">
+        <v>550</v>
+      </c>
+      <c r="J897" t="s">
+        <v>104</v>
+      </c>
+      <c r="K897" t="s">
+        <v>24</v>
+      </c>
+      <c r="L897" t="s">
+        <v>2693</v>
+      </c>
+      <c r="M897" t="s">
+        <v>26</v>
+      </c>
+      <c r="N897" t="s">
+        <v>26</v>
+      </c>
+      <c r="O897" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="898" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B898" t="s">
+        <v>185</v>
+      </c>
+      <c r="C898" t="s">
+        <v>17</v>
+      </c>
+      <c r="D898" t="s">
+        <v>18</v>
+      </c>
+      <c r="E898" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F898" t="s">
+        <v>172</v>
+      </c>
+      <c r="G898" t="s">
+        <v>21</v>
+      </c>
+      <c r="H898" t="s">
+        <v>173</v>
+      </c>
+      <c r="I898">
+        <v>391</v>
+      </c>
+      <c r="J898" t="s">
+        <v>2695</v>
+      </c>
+      <c r="K898" t="s">
+        <v>24</v>
+      </c>
+      <c r="L898" t="s">
+        <v>2696</v>
+      </c>
+      <c r="M898" t="s">
+        <v>26</v>
+      </c>
+      <c r="N898" t="s">
+        <v>26</v>
+      </c>
+      <c r="O898" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="899" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C899" t="s">
+        <v>17</v>
+      </c>
+      <c r="D899" t="s">
+        <v>18</v>
+      </c>
+      <c r="E899" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F899" t="s">
+        <v>172</v>
+      </c>
+      <c r="G899" t="s">
+        <v>21</v>
+      </c>
+      <c r="H899" t="s">
+        <v>173</v>
+      </c>
+      <c r="I899">
+        <v>476</v>
+      </c>
+      <c r="J899" t="s">
+        <v>2698</v>
+      </c>
+      <c r="K899" t="s">
+        <v>24</v>
+      </c>
+      <c r="L899" t="s">
+        <v>2699</v>
+      </c>
+      <c r="M899" t="s">
+        <v>26</v>
+      </c>
+      <c r="N899" t="s">
+        <v>26</v>
+      </c>
+      <c r="O899" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="900" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C900" t="s">
+        <v>17</v>
+      </c>
+      <c r="D900" t="s">
+        <v>18</v>
+      </c>
+      <c r="E900" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F900" t="s">
+        <v>30</v>
+      </c>
+      <c r="G900" t="s">
+        <v>21</v>
+      </c>
+      <c r="H900" t="s">
+        <v>31</v>
+      </c>
+      <c r="I900">
+        <v>192</v>
+      </c>
+      <c r="J900" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K900" t="s">
+        <v>24</v>
+      </c>
+      <c r="L900" t="s">
+        <v>2702</v>
+      </c>
+      <c r="M900" t="s">
+        <v>26</v>
+      </c>
+      <c r="N900" t="s">
+        <v>26</v>
+      </c>
+      <c r="O900" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="901" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C901" t="s">
+        <v>17</v>
+      </c>
+      <c r="D901" t="s">
+        <v>18</v>
+      </c>
+      <c r="E901" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F901" t="s">
+        <v>172</v>
+      </c>
+      <c r="G901" t="s">
+        <v>21</v>
+      </c>
+      <c r="H901" t="s">
+        <v>173</v>
+      </c>
+      <c r="I901">
+        <v>196</v>
+      </c>
+      <c r="J901" t="s">
+        <v>349</v>
+      </c>
+      <c r="K901" t="s">
+        <v>24</v>
+      </c>
+      <c r="L901" t="s">
+        <v>2704</v>
+      </c>
+      <c r="M901" t="s">
+        <v>26</v>
+      </c>
+      <c r="N901" t="s">
+        <v>26</v>
+      </c>
+      <c r="O901" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="902" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>68</v>
+      </c>
+      <c r="B902" t="s">
+        <v>69</v>
+      </c>
+      <c r="C902" t="s">
+        <v>17</v>
+      </c>
+      <c r="D902" t="s">
+        <v>18</v>
+      </c>
+      <c r="E902" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F902" t="s">
+        <v>20</v>
+      </c>
+      <c r="G902" t="s">
+        <v>21</v>
+      </c>
+      <c r="H902" t="s">
+        <v>719</v>
+      </c>
+      <c r="I902">
+        <v>200</v>
+      </c>
+      <c r="J902" t="s">
+        <v>745</v>
+      </c>
+      <c r="K902" t="s">
+        <v>24</v>
+      </c>
+      <c r="L902" t="s">
+        <v>2706</v>
+      </c>
+      <c r="M902" t="s">
+        <v>26</v>
+      </c>
+      <c r="N902" t="s">
+        <v>26</v>
+      </c>
+      <c r="O902" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="903" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C903" t="s">
+        <v>17</v>
+      </c>
+      <c r="D903" t="s">
+        <v>18</v>
+      </c>
+      <c r="E903" t="s">
+        <v>2707</v>
+      </c>
+      <c r="F903" t="s">
+        <v>39</v>
+      </c>
+      <c r="G903" t="s">
+        <v>21</v>
+      </c>
+      <c r="H903" t="s">
+        <v>31</v>
+      </c>
+      <c r="I903">
+        <v>514</v>
+      </c>
+      <c r="J903" t="s">
+        <v>2708</v>
+      </c>
+      <c r="K903" t="s">
+        <v>24</v>
+      </c>
+      <c r="L903" t="s">
+        <v>2709</v>
+      </c>
+      <c r="M903" t="s">
+        <v>26</v>
+      </c>
+      <c r="N903" t="s">
+        <v>26</v>
+      </c>
+      <c r="O903" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="904" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>63</v>
+      </c>
+      <c r="B904" t="s">
+        <v>64</v>
+      </c>
+      <c r="C904" t="s">
+        <v>17</v>
+      </c>
+      <c r="D904" t="s">
+        <v>18</v>
+      </c>
+      <c r="E904" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F904" t="s">
+        <v>39</v>
+      </c>
+      <c r="G904" t="s">
+        <v>21</v>
+      </c>
+      <c r="H904" t="s">
+        <v>31</v>
+      </c>
+      <c r="I904">
+        <v>550</v>
+      </c>
+      <c r="J904" t="s">
+        <v>104</v>
+      </c>
+      <c r="K904" t="s">
+        <v>24</v>
+      </c>
+      <c r="L904" t="s">
+        <v>2711</v>
+      </c>
+      <c r="M904" t="s">
+        <v>26</v>
+      </c>
+      <c r="N904" t="s">
+        <v>26</v>
+      </c>
+      <c r="O904" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="905" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>166</v>
+      </c>
+      <c r="B905" t="s">
+        <v>167</v>
+      </c>
+      <c r="C905" t="s">
+        <v>17</v>
+      </c>
+      <c r="D905" t="s">
+        <v>18</v>
+      </c>
+      <c r="E905" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F905" t="s">
+        <v>39</v>
+      </c>
+      <c r="G905" t="s">
+        <v>21</v>
+      </c>
+      <c r="H905" t="s">
+        <v>31</v>
+      </c>
+      <c r="I905">
+        <v>225</v>
+      </c>
+      <c r="J905" t="s">
+        <v>66</v>
+      </c>
+      <c r="K905" t="s">
+        <v>24</v>
+      </c>
+      <c r="L905" t="s">
+        <v>2713</v>
+      </c>
+      <c r="M905" t="s">
+        <v>26</v>
+      </c>
+      <c r="N905" t="s">
+        <v>26</v>
+      </c>
+      <c r="O905" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="906" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>287</v>
+      </c>
+      <c r="B906" t="s">
+        <v>288</v>
+      </c>
+      <c r="C906" t="s">
+        <v>36</v>
+      </c>
+      <c r="D906" t="s">
+        <v>342</v>
+      </c>
+      <c r="E906" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F906" t="s">
+        <v>39</v>
+      </c>
+      <c r="G906" t="s">
+        <v>21</v>
+      </c>
+      <c r="H906" t="s">
+        <v>31</v>
+      </c>
+      <c r="I906">
+        <v>258</v>
+      </c>
+      <c r="J906" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K906" t="s">
+        <v>24</v>
+      </c>
+      <c r="L906" t="s">
+        <v>2716</v>
+      </c>
+      <c r="M906" t="s">
+        <v>26</v>
+      </c>
+      <c r="N906" t="s">
+        <v>26</v>
+      </c>
+      <c r="O906" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="907" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>287</v>
+      </c>
+      <c r="B907" t="s">
+        <v>288</v>
+      </c>
+      <c r="C907" t="s">
+        <v>36</v>
+      </c>
+      <c r="D907" t="s">
+        <v>342</v>
+      </c>
+      <c r="E907" t="s">
+        <v>2717</v>
+      </c>
+      <c r="F907" t="s">
+        <v>172</v>
+      </c>
+      <c r="G907" t="s">
+        <v>21</v>
+      </c>
+      <c r="H907" t="s">
+        <v>173</v>
+      </c>
+      <c r="I907">
+        <v>199</v>
+      </c>
+      <c r="J907" t="s">
+        <v>2718</v>
+      </c>
+      <c r="K907" t="s">
+        <v>24</v>
+      </c>
+      <c r="L907" t="s">
+        <v>2719</v>
+      </c>
+      <c r="M907" t="s">
+        <v>26</v>
+      </c>
+      <c r="N907" t="s">
+        <v>26</v>
+      </c>
+      <c r="O907" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="908" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C908" t="s">
+        <v>17</v>
+      </c>
+      <c r="D908" t="s">
+        <v>18</v>
+      </c>
+      <c r="E908" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F908" t="s">
+        <v>39</v>
+      </c>
+      <c r="G908" t="s">
+        <v>21</v>
+      </c>
+      <c r="H908" t="s">
+        <v>31</v>
+      </c>
+      <c r="I908">
+        <v>250</v>
+      </c>
+      <c r="J908" t="s">
+        <v>2721</v>
+      </c>
+      <c r="K908" t="s">
+        <v>24</v>
+      </c>
+      <c r="L908" t="s">
+        <v>2722</v>
+      </c>
+      <c r="M908" t="s">
+        <v>26</v>
+      </c>
+      <c r="N908" t="s">
+        <v>26</v>
+      </c>
+      <c r="O908" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="909" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>110</v>
+      </c>
+      <c r="B909" t="s">
+        <v>111</v>
+      </c>
+      <c r="C909" t="s">
+        <v>17</v>
+      </c>
+      <c r="D909" t="s">
+        <v>18</v>
+      </c>
+      <c r="E909" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F909" t="s">
+        <v>20</v>
+      </c>
+      <c r="G909" t="s">
+        <v>21</v>
+      </c>
+      <c r="H909" t="s">
+        <v>719</v>
+      </c>
+      <c r="I909">
+        <v>200</v>
+      </c>
+      <c r="J909" t="s">
+        <v>745</v>
+      </c>
+      <c r="K909" t="s">
+        <v>24</v>
+      </c>
+      <c r="L909" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M909" t="s">
+        <v>26</v>
+      </c>
+      <c r="N909" t="s">
+        <v>26</v>
+      </c>
+      <c r="O909" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="910" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>110</v>
+      </c>
+      <c r="B910" t="s">
+        <v>111</v>
+      </c>
+      <c r="C910" t="s">
+        <v>17</v>
+      </c>
+      <c r="D910" t="s">
+        <v>18</v>
+      </c>
+      <c r="E910" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F910" t="s">
+        <v>172</v>
+      </c>
+      <c r="G910" t="s">
+        <v>21</v>
+      </c>
+      <c r="H910" t="s">
+        <v>173</v>
+      </c>
+      <c r="I910">
+        <v>362</v>
+      </c>
+      <c r="J910" t="s">
+        <v>2726</v>
+      </c>
+      <c r="K910" t="s">
+        <v>24</v>
+      </c>
+      <c r="L910" t="s">
+        <v>2727</v>
+      </c>
+      <c r="M910" t="s">
+        <v>26</v>
+      </c>
+      <c r="N910" t="s">
+        <v>26</v>
+      </c>
+      <c r="O910" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="911" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C911" t="s">
+        <v>17</v>
+      </c>
+      <c r="D911" t="s">
+        <v>18</v>
+      </c>
+      <c r="E911" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F911" t="s">
+        <v>39</v>
+      </c>
+      <c r="G911" t="s">
+        <v>21</v>
+      </c>
+      <c r="H911" t="s">
+        <v>31</v>
+      </c>
+      <c r="I911">
+        <v>465</v>
+      </c>
+      <c r="J911" t="s">
+        <v>2729</v>
+      </c>
+      <c r="K911" t="s">
+        <v>24</v>
+      </c>
+      <c r="L911" t="s">
+        <v>2730</v>
+      </c>
+      <c r="M911" t="s">
+        <v>26</v>
+      </c>
+      <c r="N911" t="s">
+        <v>26</v>
+      </c>
+      <c r="O911" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="912" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C912" t="s">
+        <v>36</v>
+      </c>
+      <c r="D912" t="s">
+        <v>37</v>
+      </c>
+      <c r="E912" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F912" t="s">
+        <v>172</v>
+      </c>
+      <c r="G912" t="s">
+        <v>21</v>
+      </c>
+      <c r="H912" t="s">
+        <v>173</v>
+      </c>
+      <c r="I912">
+        <v>261</v>
+      </c>
+      <c r="J912" t="s">
+        <v>2732</v>
+      </c>
+      <c r="K912" t="s">
+        <v>24</v>
+      </c>
+      <c r="L912" t="s">
+        <v>2733</v>
+      </c>
+      <c r="M912" t="s">
+        <v>26</v>
+      </c>
+      <c r="N912" t="s">
+        <v>26</v>
+      </c>
+      <c r="O912" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="913" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>180</v>
+      </c>
+      <c r="B913" t="s">
+        <v>181</v>
+      </c>
+      <c r="C913" t="s">
+        <v>17</v>
+      </c>
+      <c r="D913" t="s">
+        <v>18</v>
+      </c>
+      <c r="E913" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F913" t="s">
+        <v>39</v>
+      </c>
+      <c r="G913" t="s">
+        <v>21</v>
+      </c>
+      <c r="H913" t="s">
+        <v>31</v>
+      </c>
+      <c r="I913">
+        <v>251</v>
+      </c>
+      <c r="J913" t="s">
+        <v>90</v>
+      </c>
+      <c r="K913" t="s">
+        <v>24</v>
+      </c>
+      <c r="L913" t="s">
+        <v>2735</v>
+      </c>
+      <c r="M913" t="s">
+        <v>26</v>
+      </c>
+      <c r="N913" t="s">
+        <v>26</v>
+      </c>
+      <c r="O913" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="914" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>436</v>
+      </c>
+      <c r="B914" t="s">
+        <v>437</v>
+      </c>
+      <c r="C914" t="s">
+        <v>17</v>
+      </c>
+      <c r="D914" t="s">
+        <v>18</v>
+      </c>
+      <c r="E914" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F914" t="s">
+        <v>172</v>
+      </c>
+      <c r="G914" t="s">
+        <v>21</v>
+      </c>
+      <c r="H914" t="s">
+        <v>173</v>
+      </c>
+      <c r="I914">
+        <v>377</v>
+      </c>
+      <c r="J914" t="s">
+        <v>2737</v>
+      </c>
+      <c r="K914" t="s">
+        <v>24</v>
+      </c>
+      <c r="L914" t="s">
+        <v>2738</v>
+      </c>
+      <c r="M914" t="s">
+        <v>26</v>
+      </c>
+      <c r="N914" t="s">
+        <v>26</v>
+      </c>
+      <c r="O914" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="915" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>227</v>
+      </c>
+      <c r="B915" t="s">
+        <v>228</v>
+      </c>
+      <c r="C915" t="s">
+        <v>17</v>
+      </c>
+      <c r="D915" t="s">
+        <v>18</v>
+      </c>
+      <c r="E915" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F915" t="s">
+        <v>20</v>
+      </c>
+      <c r="G915" t="s">
+        <v>21</v>
+      </c>
+      <c r="H915" t="s">
+        <v>719</v>
+      </c>
+      <c r="I915">
+        <v>200</v>
+      </c>
+      <c r="J915" t="s">
+        <v>745</v>
+      </c>
+      <c r="K915" t="s">
+        <v>24</v>
+      </c>
+      <c r="L915" t="s">
+        <v>2740</v>
+      </c>
+      <c r="M915" t="s">
+        <v>26</v>
+      </c>
+      <c r="N915" t="s">
+        <v>26</v>
+      </c>
+      <c r="O915" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="916" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>354</v>
+      </c>
+      <c r="B916" t="s">
+        <v>355</v>
+      </c>
+      <c r="C916" t="s">
+        <v>36</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E916" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F916" t="s">
+        <v>39</v>
+      </c>
+      <c r="G916" t="s">
+        <v>21</v>
+      </c>
+      <c r="H916" t="s">
+        <v>31</v>
+      </c>
+      <c r="I916">
+        <v>629</v>
+      </c>
+      <c r="J916" t="s">
+        <v>2742</v>
+      </c>
+      <c r="K916" t="s">
+        <v>24</v>
+      </c>
+      <c r="L916" t="s">
+        <v>2743</v>
+      </c>
+      <c r="M916" t="s">
+        <v>26</v>
+      </c>
+      <c r="N916" t="s">
+        <v>26</v>
+      </c>
+      <c r="O916" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="917" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>482</v>
+      </c>
+      <c r="B917" t="s">
+        <v>483</v>
+      </c>
+      <c r="C917" t="s">
+        <v>17</v>
+      </c>
+      <c r="D917" t="s">
+        <v>18</v>
+      </c>
+      <c r="E917" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F917" t="s">
+        <v>172</v>
+      </c>
+      <c r="G917" t="s">
+        <v>21</v>
+      </c>
+      <c r="H917" t="s">
+        <v>173</v>
+      </c>
+      <c r="I917">
+        <v>380</v>
+      </c>
+      <c r="J917" t="s">
+        <v>2745</v>
+      </c>
+      <c r="K917" t="s">
+        <v>24</v>
+      </c>
+      <c r="L917" t="s">
+        <v>2746</v>
+      </c>
+      <c r="M917" t="s">
+        <v>26</v>
+      </c>
+      <c r="N917" t="s">
+        <v>26</v>
+      </c>
+      <c r="O917" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="918" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B918" t="s">
+        <v>121</v>
+      </c>
+      <c r="C918" t="s">
+        <v>17</v>
+      </c>
+      <c r="D918" t="s">
+        <v>18</v>
+      </c>
+      <c r="E918" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F918" t="s">
+        <v>39</v>
+      </c>
+      <c r="G918" t="s">
+        <v>21</v>
+      </c>
+      <c r="H918" t="s">
+        <v>31</v>
+      </c>
+      <c r="I918">
+        <v>494</v>
+      </c>
+      <c r="J918" t="s">
+        <v>2748</v>
+      </c>
+      <c r="K918" t="s">
+        <v>24</v>
+      </c>
+      <c r="L918" t="s">
+        <v>2749</v>
+      </c>
+      <c r="M918" t="s">
+        <v>26</v>
+      </c>
+      <c r="N918" t="s">
+        <v>26</v>
+      </c>
+      <c r="O918" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="919" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>824</v>
+      </c>
+      <c r="B919" t="s">
+        <v>825</v>
+      </c>
+      <c r="C919" t="s">
+        <v>17</v>
+      </c>
+      <c r="D919" t="s">
+        <v>18</v>
+      </c>
+      <c r="E919" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F919" t="s">
+        <v>172</v>
+      </c>
+      <c r="G919" t="s">
+        <v>21</v>
+      </c>
+      <c r="H919" t="s">
+        <v>173</v>
+      </c>
+      <c r="I919">
+        <v>174</v>
+      </c>
+      <c r="J919" t="s">
+        <v>2751</v>
+      </c>
+      <c r="K919" t="s">
+        <v>24</v>
+      </c>
+      <c r="L919" t="s">
+        <v>2752</v>
+      </c>
+      <c r="M919" t="s">
+        <v>26</v>
+      </c>
+      <c r="N919" t="s">
+        <v>26</v>
+      </c>
+      <c r="O919" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="920" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B920" t="s">
+        <v>28</v>
+      </c>
+      <c r="C920" t="s">
+        <v>17</v>
+      </c>
+      <c r="D920" t="s">
+        <v>18</v>
+      </c>
+      <c r="E920" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F920" t="s">
+        <v>39</v>
+      </c>
+      <c r="G920" t="s">
+        <v>21</v>
+      </c>
+      <c r="H920" t="s">
+        <v>31</v>
+      </c>
+      <c r="I920">
+        <v>410</v>
+      </c>
+      <c r="J920" t="s">
+        <v>2754</v>
+      </c>
+      <c r="K920" t="s">
+        <v>24</v>
+      </c>
+      <c r="L920" t="s">
+        <v>2755</v>
+      </c>
+      <c r="M920" t="s">
+        <v>26</v>
+      </c>
+      <c r="N920" t="s">
+        <v>26</v>
+      </c>
+      <c r="O920" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="921" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B921" t="s">
+        <v>200</v>
+      </c>
+      <c r="C921" t="s">
+        <v>36</v>
+      </c>
+      <c r="D921" t="s">
+        <v>37</v>
+      </c>
+      <c r="E921" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F921" t="s">
+        <v>39</v>
+      </c>
+      <c r="G921" t="s">
+        <v>21</v>
+      </c>
+      <c r="H921" t="s">
+        <v>31</v>
+      </c>
+      <c r="I921">
+        <v>465</v>
+      </c>
+      <c r="J921" t="s">
+        <v>2729</v>
+      </c>
+      <c r="K921" t="s">
+        <v>24</v>
+      </c>
+      <c r="L921" t="s">
+        <v>2757</v>
+      </c>
+      <c r="M921" t="s">
+        <v>26</v>
+      </c>
+      <c r="N921" t="s">
+        <v>26</v>
+      </c>
+      <c r="O921" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="922" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B922" t="s">
+        <v>200</v>
+      </c>
+      <c r="C922" t="s">
+        <v>36</v>
+      </c>
+      <c r="D922" t="s">
+        <v>49</v>
+      </c>
+      <c r="E922" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F922" t="s">
+        <v>172</v>
+      </c>
+      <c r="G922" t="s">
+        <v>21</v>
+      </c>
+      <c r="H922" t="s">
+        <v>173</v>
+      </c>
+      <c r="I922">
+        <v>158</v>
+      </c>
+      <c r="J922" t="s">
+        <v>2759</v>
+      </c>
+      <c r="K922" t="s">
+        <v>24</v>
+      </c>
+      <c r="L922" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M922" t="s">
+        <v>26</v>
+      </c>
+      <c r="N922" t="s">
+        <v>26</v>
+      </c>
+      <c r="O922" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="923" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B923" t="s">
+        <v>223</v>
+      </c>
+      <c r="C923" t="s">
+        <v>17</v>
+      </c>
+      <c r="D923" t="s">
+        <v>18</v>
+      </c>
+      <c r="E923" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F923" t="s">
+        <v>39</v>
+      </c>
+      <c r="G923" t="s">
+        <v>21</v>
+      </c>
+      <c r="H923" t="s">
+        <v>31</v>
+      </c>
+      <c r="I923">
+        <v>237</v>
+      </c>
+      <c r="J923" t="s">
+        <v>123</v>
+      </c>
+      <c r="K923" t="s">
+        <v>24</v>
+      </c>
+      <c r="L923" t="s">
+        <v>2762</v>
+      </c>
+      <c r="M923" t="s">
+        <v>26</v>
+      </c>
+      <c r="N923" t="s">
+        <v>26</v>
+      </c>
+      <c r="O923" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="924" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>137</v>
+      </c>
+      <c r="B924" t="s">
+        <v>138</v>
+      </c>
+      <c r="C924" t="s">
+        <v>17</v>
+      </c>
+      <c r="D924" t="s">
+        <v>18</v>
+      </c>
+      <c r="E924" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F924" t="s">
+        <v>272</v>
+      </c>
+      <c r="G924" t="s">
+        <v>21</v>
+      </c>
+      <c r="H924" t="s">
+        <v>265</v>
+      </c>
+      <c r="I924">
+        <v>159</v>
+      </c>
+      <c r="J924" t="s">
+        <v>273</v>
+      </c>
+      <c r="K924" t="s">
+        <v>24</v>
+      </c>
+      <c r="L924" t="s">
+        <v>2764</v>
+      </c>
+      <c r="M924" t="s">
+        <v>26</v>
+      </c>
+      <c r="N924" t="s">
+        <v>26</v>
+      </c>
+      <c r="O924" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="925" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>137</v>
+      </c>
+      <c r="B925" t="s">
+        <v>138</v>
+      </c>
+      <c r="C925" t="s">
+        <v>36</v>
+      </c>
+      <c r="D925" t="s">
+        <v>37</v>
+      </c>
+      <c r="E925" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F925" t="s">
+        <v>20</v>
+      </c>
+      <c r="G925" t="s">
+        <v>21</v>
+      </c>
+      <c r="H925" t="s">
+        <v>719</v>
+      </c>
+      <c r="I925">
+        <v>198</v>
+      </c>
+      <c r="J925" t="s">
+        <v>2766</v>
+      </c>
+      <c r="K925" t="s">
+        <v>24</v>
+      </c>
+      <c r="L925" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M925" t="s">
+        <v>26</v>
+      </c>
+      <c r="N925" t="s">
+        <v>26</v>
+      </c>
+      <c r="O925" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="926" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C926" t="s">
+        <v>17</v>
+      </c>
+      <c r="D926" t="s">
+        <v>18</v>
+      </c>
+      <c r="E926" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F926" t="s">
+        <v>20</v>
+      </c>
+      <c r="G926" t="s">
+        <v>21</v>
+      </c>
+      <c r="H926" t="s">
+        <v>719</v>
+      </c>
+      <c r="I926">
+        <v>149</v>
+      </c>
+      <c r="J926" t="s">
+        <v>2769</v>
+      </c>
+      <c r="K926" t="s">
+        <v>24</v>
+      </c>
+      <c r="L926" t="s">
+        <v>2770</v>
+      </c>
+      <c r="M926" t="s">
+        <v>26</v>
+      </c>
+      <c r="N926" t="s">
+        <v>26</v>
+      </c>
+      <c r="O926" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="927" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C927" t="s">
+        <v>17</v>
+      </c>
+      <c r="D927" t="s">
+        <v>18</v>
+      </c>
+      <c r="E927" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F927" t="s">
+        <v>20</v>
+      </c>
+      <c r="G927" t="s">
+        <v>21</v>
+      </c>
+      <c r="H927" t="s">
+        <v>719</v>
+      </c>
+      <c r="I927">
+        <v>140</v>
+      </c>
+      <c r="J927" t="s">
+        <v>2772</v>
+      </c>
+      <c r="K927" t="s">
+        <v>24</v>
+      </c>
+      <c r="L927" t="s">
+        <v>2773</v>
+      </c>
+      <c r="M927" t="s">
+        <v>26</v>
+      </c>
+      <c r="N927" t="s">
+        <v>26</v>
+      </c>
+      <c r="O927" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="928" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B928" t="s">
+        <v>16</v>
+      </c>
+      <c r="C928" t="s">
+        <v>17</v>
+      </c>
+      <c r="D928" t="s">
+        <v>18</v>
+      </c>
+      <c r="E928" t="s">
+        <v>2774</v>
+      </c>
+      <c r="F928" t="s">
+        <v>172</v>
+      </c>
+      <c r="G928" t="s">
+        <v>21</v>
+      </c>
+      <c r="H928" t="s">
+        <v>173</v>
+      </c>
+      <c r="I928">
+        <v>131</v>
+      </c>
+      <c r="J928" t="s">
+        <v>2775</v>
+      </c>
+      <c r="K928" t="s">
+        <v>24</v>
+      </c>
+      <c r="L928" t="s">
+        <v>2776</v>
+      </c>
+      <c r="M928" t="s">
+        <v>26</v>
+      </c>
+      <c r="N928" t="s">
+        <v>26</v>
+      </c>
+      <c r="O928" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="929" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B929" t="s">
+        <v>16</v>
+      </c>
+      <c r="C929" t="s">
+        <v>17</v>
+      </c>
+      <c r="D929" t="s">
+        <v>18</v>
+      </c>
+      <c r="E929" t="s">
+        <v>2777</v>
+      </c>
+      <c r="F929" t="s">
+        <v>30</v>
+      </c>
+      <c r="G929" t="s">
+        <v>21</v>
+      </c>
+      <c r="H929" t="s">
+        <v>31</v>
+      </c>
+      <c r="I929">
+        <v>106</v>
+      </c>
+      <c r="J929" t="s">
+        <v>2778</v>
+      </c>
+      <c r="K929" t="s">
+        <v>24</v>
+      </c>
+      <c r="L929" t="s">
+        <v>2779</v>
+      </c>
+      <c r="M929" t="s">
+        <v>26</v>
+      </c>
+      <c r="N929" t="s">
+        <v>26</v>
+      </c>
+      <c r="O929" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="930" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C930" t="s">
+        <v>17</v>
+      </c>
+      <c r="D930" t="s">
+        <v>18</v>
+      </c>
+      <c r="E930" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F930" t="s">
+        <v>39</v>
+      </c>
+      <c r="G930" t="s">
+        <v>21</v>
+      </c>
+      <c r="H930" t="s">
+        <v>31</v>
+      </c>
+      <c r="I930">
+        <v>230</v>
+      </c>
+      <c r="J930" t="s">
+        <v>2782</v>
+      </c>
+      <c r="K930" t="s">
+        <v>24</v>
+      </c>
+      <c r="L930" t="s">
+        <v>2783</v>
+      </c>
+      <c r="M930" t="s">
+        <v>26</v>
+      </c>
+      <c r="N930" t="s">
+        <v>26</v>
+      </c>
+      <c r="O930" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="931" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>240</v>
+      </c>
+      <c r="B931" t="s">
+        <v>241</v>
+      </c>
+      <c r="C931" t="s">
+        <v>17</v>
+      </c>
+      <c r="D931" t="s">
+        <v>18</v>
+      </c>
+      <c r="E931" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F931" t="s">
+        <v>20</v>
+      </c>
+      <c r="G931" t="s">
+        <v>21</v>
+      </c>
+      <c r="H931" t="s">
+        <v>719</v>
+      </c>
+      <c r="I931">
+        <v>158</v>
+      </c>
+      <c r="J931" t="s">
+        <v>2785</v>
+      </c>
+      <c r="K931" t="s">
+        <v>24</v>
+      </c>
+      <c r="L931" t="s">
+        <v>2786</v>
+      </c>
+      <c r="M931" t="s">
+        <v>26</v>
+      </c>
+      <c r="N931" t="s">
+        <v>26</v>
+      </c>
+      <c r="O931" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="932" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>240</v>
+      </c>
+      <c r="B932" t="s">
+        <v>241</v>
+      </c>
+      <c r="C932" t="s">
+        <v>17</v>
+      </c>
+      <c r="D932" t="s">
+        <v>18</v>
+      </c>
+      <c r="E932" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F932" t="s">
+        <v>20</v>
+      </c>
+      <c r="G932" t="s">
+        <v>21</v>
+      </c>
+      <c r="H932" t="s">
+        <v>719</v>
+      </c>
+      <c r="I932">
+        <v>138</v>
+      </c>
+      <c r="J932" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K932" t="s">
+        <v>24</v>
+      </c>
+      <c r="L932" t="s">
+        <v>2788</v>
+      </c>
+      <c r="M932" t="s">
+        <v>26</v>
+      </c>
+      <c r="N932" t="s">
+        <v>26</v>
+      </c>
+      <c r="O932" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="933" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>240</v>
+      </c>
+      <c r="B933" t="s">
+        <v>241</v>
+      </c>
+      <c r="C933" t="s">
+        <v>17</v>
+      </c>
+      <c r="D933" t="s">
+        <v>18</v>
+      </c>
+      <c r="E933" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F933" t="s">
+        <v>39</v>
+      </c>
+      <c r="G933" t="s">
+        <v>21</v>
+      </c>
+      <c r="H933" t="s">
+        <v>31</v>
+      </c>
+      <c r="I933">
+        <v>206</v>
+      </c>
+      <c r="J933" t="s">
+        <v>2790</v>
+      </c>
+      <c r="K933" t="s">
+        <v>24</v>
+      </c>
+      <c r="L933" t="s">
+        <v>2791</v>
+      </c>
+      <c r="M933" t="s">
+        <v>26</v>
+      </c>
+      <c r="N933" t="s">
+        <v>26</v>
+      </c>
+      <c r="O933" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="934" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>280</v>
+      </c>
+      <c r="B934" t="s">
+        <v>281</v>
+      </c>
+      <c r="C934" t="s">
+        <v>17</v>
+      </c>
+      <c r="D934" t="s">
+        <v>18</v>
+      </c>
+      <c r="E934" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F934" t="s">
+        <v>39</v>
+      </c>
+      <c r="G934" t="s">
+        <v>21</v>
+      </c>
+      <c r="H934" t="s">
+        <v>31</v>
+      </c>
+      <c r="I934">
+        <v>197</v>
+      </c>
+      <c r="J934" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K934" t="s">
+        <v>24</v>
+      </c>
+      <c r="L934" t="s">
+        <v>2794</v>
+      </c>
+      <c r="M934" t="s">
+        <v>26</v>
+      </c>
+      <c r="N934" t="s">
+        <v>26</v>
+      </c>
+      <c r="O934" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="935" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>280</v>
+      </c>
+      <c r="B935" t="s">
+        <v>281</v>
+      </c>
+      <c r="C935" t="s">
+        <v>17</v>
+      </c>
+      <c r="D935" t="s">
+        <v>18</v>
+      </c>
+      <c r="E935" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F935" t="s">
+        <v>39</v>
+      </c>
+      <c r="G935" t="s">
+        <v>21</v>
+      </c>
+      <c r="H935" t="s">
+        <v>31</v>
+      </c>
+      <c r="I935">
+        <v>243</v>
+      </c>
+      <c r="J935" t="s">
+        <v>95</v>
+      </c>
+      <c r="K935" t="s">
+        <v>24</v>
+      </c>
+      <c r="L935" t="s">
+        <v>2796</v>
+      </c>
+      <c r="M935" t="s">
+        <v>26</v>
+      </c>
+      <c r="N935" t="s">
+        <v>26</v>
+      </c>
+      <c r="O935" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="936" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>204</v>
+      </c>
+      <c r="B936" t="s">
+        <v>205</v>
+      </c>
+      <c r="C936" t="s">
+        <v>17</v>
+      </c>
+      <c r="D936" t="s">
+        <v>18</v>
+      </c>
+      <c r="E936" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F936" t="s">
+        <v>20</v>
+      </c>
+      <c r="G936" t="s">
+        <v>21</v>
+      </c>
+      <c r="H936" t="s">
+        <v>719</v>
+      </c>
+      <c r="I936">
+        <v>100</v>
+      </c>
+      <c r="J936" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K936" t="s">
+        <v>24</v>
+      </c>
+      <c r="L936" t="s">
+        <v>2798</v>
+      </c>
+      <c r="M936" t="s">
+        <v>26</v>
+      </c>
+      <c r="N936" t="s">
+        <v>26</v>
+      </c>
+      <c r="O936" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="937" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>204</v>
+      </c>
+      <c r="B937" t="s">
+        <v>205</v>
+      </c>
+      <c r="C937" t="s">
+        <v>17</v>
+      </c>
+      <c r="D937" t="s">
+        <v>18</v>
+      </c>
+      <c r="E937" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F937" t="s">
+        <v>172</v>
+      </c>
+      <c r="G937" t="s">
+        <v>21</v>
+      </c>
+      <c r="H937" t="s">
+        <v>173</v>
+      </c>
+      <c r="I937">
+        <v>250</v>
+      </c>
+      <c r="J937" t="s">
+        <v>2800</v>
+      </c>
+      <c r="K937" t="s">
+        <v>24</v>
+      </c>
+      <c r="L937" t="s">
+        <v>2801</v>
+      </c>
+      <c r="M937" t="s">
+        <v>26</v>
+      </c>
+      <c r="N937" t="s">
+        <v>26</v>
+      </c>
+      <c r="O937" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="938" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C938" t="s">
+        <v>17</v>
+      </c>
+      <c r="D938" t="s">
+        <v>18</v>
+      </c>
+      <c r="E938" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F938" t="s">
+        <v>39</v>
+      </c>
+      <c r="G938" t="s">
+        <v>21</v>
+      </c>
+      <c r="H938" t="s">
+        <v>31</v>
+      </c>
+      <c r="I938">
+        <v>306</v>
+      </c>
+      <c r="J938" t="s">
+        <v>2803</v>
+      </c>
+      <c r="K938" t="s">
+        <v>24</v>
+      </c>
+      <c r="L938" t="s">
+        <v>2804</v>
+      </c>
+      <c r="M938" t="s">
+        <v>26</v>
+      </c>
+      <c r="N938" t="s">
+        <v>26</v>
+      </c>
+      <c r="O938" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="939" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>132</v>
+      </c>
+      <c r="B939" t="s">
+        <v>133</v>
+      </c>
+      <c r="C939" t="s">
+        <v>17</v>
+      </c>
+      <c r="D939" t="s">
+        <v>18</v>
+      </c>
+      <c r="E939" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F939" t="s">
+        <v>39</v>
+      </c>
+      <c r="G939" t="s">
+        <v>21</v>
+      </c>
+      <c r="H939" t="s">
+        <v>31</v>
+      </c>
+      <c r="I939">
+        <v>620</v>
+      </c>
+      <c r="J939" t="s">
+        <v>2806</v>
+      </c>
+      <c r="K939" t="s">
+        <v>24</v>
+      </c>
+      <c r="L939" t="s">
+        <v>2807</v>
+      </c>
+      <c r="M939" t="s">
+        <v>26</v>
+      </c>
+      <c r="N939" t="s">
+        <v>26</v>
+      </c>
+      <c r="O939" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="940" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>97</v>
+      </c>
+      <c r="B940" t="s">
+        <v>98</v>
+      </c>
+      <c r="C940" t="s">
+        <v>17</v>
+      </c>
+      <c r="D940" t="s">
+        <v>18</v>
+      </c>
+      <c r="E940" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F940" t="s">
+        <v>20</v>
+      </c>
+      <c r="G940" t="s">
+        <v>21</v>
+      </c>
+      <c r="H940" t="s">
+        <v>719</v>
+      </c>
+      <c r="I940">
+        <v>195</v>
+      </c>
+      <c r="J940" t="s">
+        <v>2809</v>
+      </c>
+      <c r="K940" t="s">
+        <v>24</v>
+      </c>
+      <c r="L940" t="s">
+        <v>2810</v>
+      </c>
+      <c r="M940" t="s">
+        <v>26</v>
+      </c>
+      <c r="N940" t="s">
+        <v>26</v>
+      </c>
+      <c r="O940" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="941" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B941" t="s">
+        <v>102</v>
+      </c>
+      <c r="C941" t="s">
+        <v>17</v>
+      </c>
+      <c r="D941" t="s">
+        <v>18</v>
+      </c>
+      <c r="E941" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F941" t="s">
+        <v>172</v>
+      </c>
+      <c r="G941" t="s">
+        <v>21</v>
+      </c>
+      <c r="H941" t="s">
+        <v>173</v>
+      </c>
+      <c r="I941">
+        <v>252</v>
+      </c>
+      <c r="J941" t="s">
+        <v>2812</v>
+      </c>
+      <c r="K941" t="s">
+        <v>24</v>
+      </c>
+      <c r="L941" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M941" t="s">
+        <v>26</v>
+      </c>
+      <c r="N941" t="s">
+        <v>26</v>
+      </c>
+      <c r="O941" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="942" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>258</v>
+      </c>
+      <c r="B942" t="s">
+        <v>259</v>
+      </c>
+      <c r="C942" t="s">
+        <v>17</v>
+      </c>
+      <c r="D942" t="s">
+        <v>18</v>
+      </c>
+      <c r="E942" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F942" t="s">
+        <v>39</v>
+      </c>
+      <c r="G942" t="s">
+        <v>21</v>
+      </c>
+      <c r="H942" t="s">
+        <v>31</v>
+      </c>
+      <c r="I942">
+        <v>550</v>
+      </c>
+      <c r="J942" t="s">
+        <v>104</v>
+      </c>
+      <c r="K942" t="s">
+        <v>24</v>
+      </c>
+      <c r="L942" t="s">
+        <v>2815</v>
+      </c>
+      <c r="M942" t="s">
+        <v>26</v>
+      </c>
+      <c r="N942" t="s">
+        <v>26</v>
+      </c>
+      <c r="O942" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="943" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>258</v>
+      </c>
+      <c r="B943" t="s">
+        <v>259</v>
+      </c>
+      <c r="C943" t="s">
+        <v>36</v>
+      </c>
+      <c r="D943" t="s">
+        <v>37</v>
+      </c>
+      <c r="E943" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F943" t="s">
+        <v>39</v>
+      </c>
+      <c r="G943" t="s">
+        <v>21</v>
+      </c>
+      <c r="H943" t="s">
+        <v>31</v>
+      </c>
+      <c r="I943">
+        <v>378</v>
+      </c>
+      <c r="J943" t="s">
+        <v>145</v>
+      </c>
+      <c r="K943" t="s">
+        <v>24</v>
+      </c>
+      <c r="L943" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M943" t="s">
+        <v>26</v>
+      </c>
+      <c r="N943" t="s">
+        <v>26</v>
+      </c>
+      <c r="O943" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="944" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B944" t="s">
+        <v>43</v>
+      </c>
+      <c r="C944" t="s">
+        <v>17</v>
+      </c>
+      <c r="D944" t="s">
+        <v>18</v>
+      </c>
+      <c r="E944" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F944" t="s">
+        <v>172</v>
+      </c>
+      <c r="G944" t="s">
+        <v>21</v>
+      </c>
+      <c r="H944" t="s">
+        <v>173</v>
+      </c>
+      <c r="I944">
+        <v>184</v>
+      </c>
+      <c r="J944" t="s">
+        <v>2819</v>
+      </c>
+      <c r="K944" t="s">
+        <v>24</v>
+      </c>
+      <c r="L944" t="s">
+        <v>2820</v>
+      </c>
+      <c r="M944" t="s">
+        <v>26</v>
+      </c>
+      <c r="N944" t="s">
+        <v>26</v>
+      </c>
+      <c r="O944" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="945" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B945" t="s">
+        <v>74</v>
+      </c>
+      <c r="C945" t="s">
+        <v>36</v>
+      </c>
+      <c r="D945" t="s">
+        <v>37</v>
+      </c>
+      <c r="E945" t="s">
+        <v>2822</v>
+      </c>
+      <c r="F945" t="s">
+        <v>172</v>
+      </c>
+      <c r="G945" t="s">
+        <v>21</v>
+      </c>
+      <c r="H945" t="s">
+        <v>173</v>
+      </c>
+      <c r="I945">
+        <v>369</v>
+      </c>
+      <c r="J945" t="s">
+        <v>2823</v>
+      </c>
+      <c r="K945" t="s">
+        <v>24</v>
+      </c>
+      <c r="L945" t="s">
+        <v>2824</v>
+      </c>
+      <c r="M945" t="s">
+        <v>26</v>
+      </c>
+      <c r="N945" t="s">
+        <v>26</v>
+      </c>
+      <c r="O945" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="946" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>147</v>
+      </c>
+      <c r="B946" t="s">
+        <v>148</v>
+      </c>
+      <c r="C946" t="s">
+        <v>17</v>
+      </c>
+      <c r="D946" t="s">
+        <v>18</v>
+      </c>
+      <c r="E946" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F946" t="s">
+        <v>20</v>
+      </c>
+      <c r="G946" t="s">
+        <v>21</v>
+      </c>
+      <c r="H946" t="s">
+        <v>719</v>
+      </c>
+      <c r="I946">
+        <v>306</v>
+      </c>
+      <c r="J946" t="s">
+        <v>2826</v>
+      </c>
+      <c r="K946" t="s">
+        <v>24</v>
+      </c>
+      <c r="L946" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M946" t="s">
+        <v>26</v>
+      </c>
+      <c r="N946" t="s">
+        <v>26</v>
+      </c>
+      <c r="O946" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="947" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B947" t="s">
+        <v>432</v>
+      </c>
+      <c r="C947" t="s">
+        <v>36</v>
+      </c>
+      <c r="D947" t="s">
+        <v>37</v>
+      </c>
+      <c r="E947" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F947" t="s">
+        <v>172</v>
+      </c>
+      <c r="G947" t="s">
+        <v>21</v>
+      </c>
+      <c r="H947" t="s">
+        <v>173</v>
+      </c>
+      <c r="I947">
+        <v>152</v>
+      </c>
+      <c r="J947" t="s">
+        <v>2829</v>
+      </c>
+      <c r="K947" t="s">
+        <v>24</v>
+      </c>
+      <c r="L947" t="s">
+        <v>2830</v>
+      </c>
+      <c r="M947" t="s">
+        <v>26</v>
+      </c>
+      <c r="N947" t="s">
+        <v>26</v>
+      </c>
+      <c r="O947" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="948" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C948" t="s">
+        <v>17</v>
+      </c>
+      <c r="D948" t="s">
+        <v>18</v>
+      </c>
+      <c r="E948" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F948" t="s">
+        <v>39</v>
+      </c>
+      <c r="G948" t="s">
+        <v>21</v>
+      </c>
+      <c r="H948" t="s">
+        <v>31</v>
+      </c>
+      <c r="I948">
+        <v>391</v>
+      </c>
+      <c r="J948" t="s">
+        <v>2832</v>
+      </c>
+      <c r="K948" t="s">
+        <v>24</v>
+      </c>
+      <c r="L948" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M948" t="s">
+        <v>26</v>
+      </c>
+      <c r="N948" t="s">
+        <v>26</v>
+      </c>
+      <c r="O948" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="949" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C949" t="s">
+        <v>36</v>
+      </c>
+      <c r="D949" t="s">
+        <v>37</v>
+      </c>
+      <c r="E949" t="s">
+        <v>2834</v>
+      </c>
+      <c r="F949" t="s">
+        <v>39</v>
+      </c>
+      <c r="G949" t="s">
+        <v>21</v>
+      </c>
+      <c r="H949" t="s">
+        <v>31</v>
+      </c>
+      <c r="I949">
+        <v>184</v>
+      </c>
+      <c r="J949" t="s">
+        <v>2835</v>
+      </c>
+      <c r="K949" t="s">
+        <v>24</v>
+      </c>
+      <c r="L949" t="s">
+        <v>2836</v>
+      </c>
+      <c r="M949" t="s">
+        <v>26</v>
+      </c>
+      <c r="N949" t="s">
+        <v>26</v>
+      </c>
+      <c r="O949" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="950" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B950" t="s">
+        <v>116</v>
+      </c>
+      <c r="C950" t="s">
+        <v>17</v>
+      </c>
+      <c r="D950" t="s">
+        <v>18</v>
+      </c>
+      <c r="E950" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F950" t="s">
+        <v>39</v>
+      </c>
+      <c r="G950" t="s">
+        <v>21</v>
+      </c>
+      <c r="H950" t="s">
+        <v>31</v>
+      </c>
+      <c r="I950">
+        <v>340</v>
+      </c>
+      <c r="J950" t="s">
+        <v>2839</v>
+      </c>
+      <c r="K950" t="s">
+        <v>24</v>
+      </c>
+      <c r="L950" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M950" t="s">
+        <v>26</v>
+      </c>
+      <c r="N950" t="s">
+        <v>26</v>
+      </c>
+      <c r="O950" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="951" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>53</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C951" t="s">
+        <v>17</v>
+      </c>
+      <c r="D951" t="s">
+        <v>18</v>
+      </c>
+      <c r="E951" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F951" t="s">
+        <v>39</v>
+      </c>
+      <c r="G951" t="s">
+        <v>21</v>
+      </c>
+      <c r="H951" t="s">
+        <v>31</v>
+      </c>
+      <c r="I951">
+        <v>247</v>
+      </c>
+      <c r="J951" t="s">
+        <v>192</v>
+      </c>
+      <c r="K951" t="s">
+        <v>24</v>
+      </c>
+      <c r="L951" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M951" t="s">
+        <v>26</v>
+      </c>
+      <c r="N951" t="s">
+        <v>26</v>
+      </c>
+      <c r="O951" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="952" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>53</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C952" t="s">
+        <v>17</v>
+      </c>
+      <c r="D952" t="s">
+        <v>18</v>
+      </c>
+      <c r="E952" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F952" t="s">
+        <v>172</v>
+      </c>
+      <c r="G952" t="s">
+        <v>21</v>
+      </c>
+      <c r="H952" t="s">
+        <v>173</v>
+      </c>
+      <c r="I952">
+        <v>175</v>
+      </c>
+      <c r="J952" t="s">
+        <v>2844</v>
+      </c>
+      <c r="K952" t="s">
+        <v>24</v>
+      </c>
+      <c r="L952" t="s">
+        <v>2845</v>
+      </c>
+      <c r="M952" t="s">
+        <v>26</v>
+      </c>
+      <c r="N952" t="s">
+        <v>26</v>
+      </c>
+      <c r="O952" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="953" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B953" t="s">
+        <v>54</v>
+      </c>
+      <c r="C953" t="s">
+        <v>17</v>
+      </c>
+      <c r="D953" t="s">
+        <v>18</v>
+      </c>
+      <c r="E953" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F953" t="s">
+        <v>39</v>
+      </c>
+      <c r="G953" t="s">
+        <v>21</v>
+      </c>
+      <c r="H953" t="s">
+        <v>31</v>
+      </c>
+      <c r="I953">
+        <v>385</v>
+      </c>
+      <c r="J953" t="s">
+        <v>2847</v>
+      </c>
+      <c r="K953" t="s">
+        <v>24</v>
+      </c>
+      <c r="L953" t="s">
+        <v>2848</v>
+      </c>
+      <c r="M953" t="s">
+        <v>26</v>
+      </c>
+      <c r="N953" t="s">
+        <v>26</v>
+      </c>
+      <c r="O953" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="954" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B954" t="s">
+        <v>532</v>
+      </c>
+      <c r="C954" t="s">
+        <v>17</v>
+      </c>
+      <c r="D954" t="s">
+        <v>18</v>
+      </c>
+      <c r="E954" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F954" t="s">
+        <v>172</v>
+      </c>
+      <c r="G954" t="s">
+        <v>21</v>
+      </c>
+      <c r="H954" t="s">
+        <v>173</v>
+      </c>
+      <c r="I954">
+        <v>401</v>
+      </c>
+      <c r="J954" t="s">
+        <v>2850</v>
+      </c>
+      <c r="K954" t="s">
+        <v>24</v>
+      </c>
+      <c r="L954" t="s">
+        <v>2851</v>
+      </c>
+      <c r="M954" t="s">
+        <v>26</v>
+      </c>
+      <c r="N954" t="s">
+        <v>26</v>
+      </c>
+      <c r="O954" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="955" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>78</v>
+      </c>
+      <c r="B955" t="s">
+        <v>79</v>
+      </c>
+      <c r="C955" t="s">
+        <v>17</v>
+      </c>
+      <c r="D955" t="s">
+        <v>18</v>
+      </c>
+      <c r="E955" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F955" t="s">
+        <v>172</v>
+      </c>
+      <c r="G955" t="s">
+        <v>21</v>
+      </c>
+      <c r="H955" t="s">
+        <v>173</v>
+      </c>
+      <c r="I955">
+        <v>194</v>
+      </c>
+      <c r="J955" t="s">
+        <v>2687</v>
+      </c>
+      <c r="K955" t="s">
+        <v>24</v>
+      </c>
+      <c r="L955" t="s">
+        <v>2853</v>
+      </c>
+      <c r="M955" t="s">
+        <v>26</v>
+      </c>
+      <c r="N955" t="s">
+        <v>26</v>
+      </c>
+      <c r="O955" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="956" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>946</v>
+      </c>
+      <c r="B956" t="s">
+        <v>947</v>
+      </c>
+      <c r="C956" t="s">
+        <v>17</v>
+      </c>
+      <c r="D956" t="s">
+        <v>18</v>
+      </c>
+      <c r="E956" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F956" t="s">
+        <v>20</v>
+      </c>
+      <c r="G956" t="s">
+        <v>21</v>
+      </c>
+      <c r="H956" t="s">
+        <v>719</v>
+      </c>
+      <c r="I956">
+        <v>280</v>
+      </c>
+      <c r="J956" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K956" t="s">
+        <v>24</v>
+      </c>
+      <c r="L956" t="s">
+        <v>950</v>
+      </c>
+      <c r="M956" t="s">
+        <v>26</v>
+      </c>
+      <c r="N956" t="s">
+        <v>26</v>
+      </c>
+      <c r="O956" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="957" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>218</v>
+      </c>
+      <c r="B957" t="s">
+        <v>219</v>
+      </c>
+      <c r="C957" t="s">
+        <v>17</v>
+      </c>
+      <c r="D957" t="s">
+        <v>18</v>
+      </c>
+      <c r="E957" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F957" t="s">
+        <v>39</v>
+      </c>
+      <c r="G957" t="s">
+        <v>21</v>
+      </c>
+      <c r="H957" t="s">
+        <v>31</v>
+      </c>
+      <c r="I957">
+        <v>215</v>
+      </c>
+      <c r="J957" t="s">
+        <v>290</v>
+      </c>
+      <c r="K957" t="s">
+        <v>24</v>
+      </c>
+      <c r="L957" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M957" t="s">
+        <v>26</v>
+      </c>
+      <c r="N957" t="s">
+        <v>26</v>
+      </c>
+      <c r="O957" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="958" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>253</v>
+      </c>
+      <c r="B958" t="s">
+        <v>254</v>
+      </c>
+      <c r="C958" t="s">
+        <v>17</v>
+      </c>
+      <c r="D958" t="s">
+        <v>18</v>
+      </c>
+      <c r="E958" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F958" t="s">
+        <v>39</v>
+      </c>
+      <c r="G958" t="s">
+        <v>21</v>
+      </c>
+      <c r="H958" t="s">
+        <v>31</v>
+      </c>
+      <c r="I958">
+        <v>291</v>
+      </c>
+      <c r="J958" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K958" t="s">
+        <v>24</v>
+      </c>
+      <c r="L958" t="s">
+        <v>2860</v>
+      </c>
+      <c r="M958" t="s">
+        <v>26</v>
+      </c>
+      <c r="N958" t="s">
+        <v>26</v>
+      </c>
+      <c r="O958" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="959" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C959" t="s">
+        <v>17</v>
+      </c>
+      <c r="D959" t="s">
+        <v>18</v>
+      </c>
+      <c r="E959" t="s">
+        <v>2863</v>
+      </c>
+      <c r="F959" t="s">
+        <v>30</v>
+      </c>
+      <c r="G959" t="s">
+        <v>21</v>
+      </c>
+      <c r="H959" t="s">
+        <v>31</v>
+      </c>
+      <c r="I959">
+        <v>449</v>
+      </c>
+      <c r="J959" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K959" t="s">
+        <v>24</v>
+      </c>
+      <c r="L959" t="s">
+        <v>2865</v>
+      </c>
+      <c r="M959" t="s">
+        <v>26</v>
+      </c>
+      <c r="N959" t="s">
+        <v>26</v>
+      </c>
+      <c r="O959" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="960" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C960" t="s">
+        <v>17</v>
+      </c>
+      <c r="D960" t="s">
+        <v>18</v>
+      </c>
+      <c r="E960" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F960" t="s">
+        <v>172</v>
+      </c>
+      <c r="G960" t="s">
+        <v>21</v>
+      </c>
+      <c r="H960" t="s">
+        <v>173</v>
+      </c>
+      <c r="I960">
+        <v>188</v>
+      </c>
+      <c r="J960" t="s">
+        <v>352</v>
+      </c>
+      <c r="K960" t="s">
+        <v>24</v>
+      </c>
+      <c r="L960" t="s">
+        <v>2867</v>
+      </c>
+      <c r="M960" t="s">
+        <v>26</v>
+      </c>
+      <c r="N960" t="s">
+        <v>26</v>
+      </c>
+      <c r="O960" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="961" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>963</v>
+      </c>
+      <c r="B961" t="s">
+        <v>964</v>
+      </c>
+      <c r="C961" t="s">
+        <v>17</v>
+      </c>
+      <c r="D961" t="s">
+        <v>18</v>
+      </c>
+      <c r="E961" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F961" t="s">
+        <v>30</v>
+      </c>
+      <c r="G961" t="s">
+        <v>21</v>
+      </c>
+      <c r="H961" t="s">
+        <v>31</v>
+      </c>
+      <c r="I961">
+        <v>258</v>
+      </c>
+      <c r="J961" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K961" t="s">
+        <v>24</v>
+      </c>
+      <c r="L961" t="s">
+        <v>969</v>
+      </c>
+      <c r="M961" t="s">
+        <v>26</v>
+      </c>
+      <c r="N961" t="s">
+        <v>26</v>
+      </c>
+      <c r="O961" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="962" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>963</v>
+      </c>
+      <c r="B962" t="s">
+        <v>964</v>
+      </c>
+      <c r="C962" t="s">
+        <v>17</v>
+      </c>
+      <c r="D962" t="s">
+        <v>18</v>
+      </c>
+      <c r="E962" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F962" t="s">
+        <v>172</v>
+      </c>
+      <c r="G962" t="s">
+        <v>21</v>
+      </c>
+      <c r="H962" t="s">
+        <v>173</v>
+      </c>
+      <c r="I962">
+        <v>199</v>
+      </c>
+      <c r="J962" t="s">
+        <v>2718</v>
+      </c>
+      <c r="K962" t="s">
+        <v>24</v>
+      </c>
+      <c r="L962" t="s">
+        <v>969</v>
+      </c>
+      <c r="M962" t="s">
+        <v>26</v>
+      </c>
+      <c r="N962" t="s">
+        <v>26</v>
+      </c>
+      <c r="O962" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="963" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>34</v>
+      </c>
+      <c r="B963" t="s">
+        <v>35</v>
+      </c>
+      <c r="C963" t="s">
+        <v>36</v>
+      </c>
+      <c r="D963" t="s">
+        <v>37</v>
+      </c>
+      <c r="E963" t="s">
+        <v>2870</v>
+      </c>
+      <c r="F963" t="s">
+        <v>172</v>
+      </c>
+      <c r="G963" t="s">
+        <v>21</v>
+      </c>
+      <c r="H963" t="s">
+        <v>173</v>
+      </c>
+      <c r="I963">
+        <v>568</v>
+      </c>
+      <c r="J963" t="s">
+        <v>2871</v>
+      </c>
+      <c r="K963" t="s">
+        <v>24</v>
+      </c>
+      <c r="L963" t="s">
+        <v>2872</v>
+      </c>
+      <c r="M963" t="s">
+        <v>26</v>
+      </c>
+      <c r="N963" t="s">
+        <v>26</v>
+      </c>
+      <c r="O963" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="964" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>842</v>
+      </c>
+      <c r="B964" t="s">
+        <v>843</v>
+      </c>
+      <c r="C964" t="s">
+        <v>17</v>
+      </c>
+      <c r="D964" t="s">
+        <v>18</v>
+      </c>
+      <c r="E964" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F964" t="s">
+        <v>39</v>
+      </c>
+      <c r="G964" t="s">
+        <v>21</v>
+      </c>
+      <c r="H964" t="s">
+        <v>31</v>
+      </c>
+      <c r="I964">
+        <v>550</v>
+      </c>
+      <c r="J964" t="s">
+        <v>104</v>
+      </c>
+      <c r="K964" t="s">
+        <v>24</v>
+      </c>
+      <c r="L964" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M964" t="s">
+        <v>26</v>
+      </c>
+      <c r="N964" t="s">
+        <v>26</v>
+      </c>
+      <c r="O964" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="965" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>142</v>
+      </c>
+      <c r="B965" t="s">
+        <v>143</v>
+      </c>
+      <c r="C965" t="s">
+        <v>36</v>
+      </c>
+      <c r="D965" t="s">
+        <v>49</v>
+      </c>
+      <c r="E965" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F965" t="s">
+        <v>261</v>
+      </c>
+      <c r="G965" t="s">
+        <v>21</v>
+      </c>
+      <c r="H965" t="s">
+        <v>31</v>
+      </c>
+      <c r="I965">
+        <v>135</v>
+      </c>
+      <c r="J965" t="s">
+        <v>2876</v>
+      </c>
+      <c r="K965" t="s">
+        <v>24</v>
+      </c>
+      <c r="L965" t="s">
+        <v>2877</v>
+      </c>
+      <c r="M965" t="s">
+        <v>26</v>
+      </c>
+      <c r="N965" t="s">
+        <v>26</v>
+      </c>
+      <c r="O965" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="966" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C966" t="s">
+        <v>17</v>
+      </c>
+      <c r="D966" t="s">
+        <v>18</v>
+      </c>
+      <c r="E966" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F966" t="s">
+        <v>272</v>
+      </c>
+      <c r="G966" t="s">
+        <v>21</v>
+      </c>
+      <c r="H966" t="s">
+        <v>265</v>
+      </c>
+      <c r="I966">
+        <v>164</v>
+      </c>
+      <c r="J966" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K966" t="s">
+        <v>24</v>
+      </c>
+      <c r="L966" t="s">
+        <v>2880</v>
+      </c>
+      <c r="M966" t="s">
+        <v>26</v>
+      </c>
+      <c r="N966" t="s">
+        <v>26</v>
+      </c>
+      <c r="O966" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="967" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>657</v>
+      </c>
+      <c r="B967" t="s">
+        <v>658</v>
+      </c>
+      <c r="C967" t="s">
+        <v>17</v>
+      </c>
+      <c r="D967" t="s">
+        <v>18</v>
+      </c>
+      <c r="E967" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F967" t="s">
+        <v>39</v>
+      </c>
+      <c r="G967" t="s">
+        <v>21</v>
+      </c>
+      <c r="H967" t="s">
+        <v>31</v>
+      </c>
+      <c r="I967">
+        <v>493</v>
+      </c>
+      <c r="J967" t="s">
+        <v>2882</v>
+      </c>
+      <c r="K967" t="s">
+        <v>24</v>
+      </c>
+      <c r="L967" t="s">
+        <v>2883</v>
+      </c>
+      <c r="M967" t="s">
+        <v>26</v>
+      </c>
+      <c r="N967" t="s">
+        <v>26</v>
+      </c>
+      <c r="O967" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="968" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C968" t="s">
+        <v>17</v>
+      </c>
+      <c r="D968" t="s">
+        <v>18</v>
+      </c>
+      <c r="E968" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F968" t="s">
+        <v>39</v>
+      </c>
+      <c r="G968" t="s">
+        <v>21</v>
+      </c>
+      <c r="H968" t="s">
+        <v>31</v>
+      </c>
+      <c r="I968">
+        <v>224</v>
+      </c>
+      <c r="J968" t="s">
+        <v>135</v>
+      </c>
+      <c r="K968" t="s">
+        <v>24</v>
+      </c>
+      <c r="L968" t="s">
+        <v>2885</v>
+      </c>
+      <c r="M968" t="s">
+        <v>26</v>
+      </c>
+      <c r="N968" t="s">
+        <v>26</v>
+      </c>
+      <c r="O968" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="969" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C969" t="s">
+        <v>17</v>
+      </c>
+      <c r="D969" t="s">
+        <v>18</v>
+      </c>
+      <c r="E969" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F969" t="s">
+        <v>172</v>
+      </c>
+      <c r="G969" t="s">
+        <v>21</v>
+      </c>
+      <c r="H969" t="s">
+        <v>173</v>
+      </c>
+      <c r="I969">
+        <v>180</v>
+      </c>
+      <c r="J969" t="s">
+        <v>2887</v>
+      </c>
+      <c r="K969" t="s">
+        <v>24</v>
+      </c>
+      <c r="L969" t="s">
+        <v>2888</v>
+      </c>
+      <c r="M969" t="s">
+        <v>26</v>
+      </c>
+      <c r="N969" t="s">
+        <v>26</v>
+      </c>
+      <c r="O969" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="970" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>125</v>
+      </c>
+      <c r="B970" t="s">
+        <v>126</v>
+      </c>
+      <c r="C970" t="s">
+        <v>17</v>
+      </c>
+      <c r="D970" t="s">
+        <v>18</v>
+      </c>
+      <c r="E970" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F970" t="s">
+        <v>172</v>
+      </c>
+      <c r="G970" t="s">
+        <v>21</v>
+      </c>
+      <c r="H970" t="s">
+        <v>173</v>
+      </c>
+      <c r="I970">
+        <v>207</v>
+      </c>
+      <c r="J970" t="s">
+        <v>2890</v>
+      </c>
+      <c r="K970" t="s">
+        <v>24</v>
+      </c>
+      <c r="L970" t="s">
+        <v>2891</v>
+      </c>
+      <c r="M970" t="s">
+        <v>26</v>
+      </c>
+      <c r="N970" t="s">
+        <v>26</v>
+      </c>
+      <c r="O970" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="971" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>419</v>
+      </c>
+      <c r="B971" t="s">
+        <v>420</v>
+      </c>
+      <c r="C971" t="s">
+        <v>17</v>
+      </c>
+      <c r="D971" t="s">
+        <v>18</v>
+      </c>
+      <c r="E971" t="s">
+        <v>2892</v>
+      </c>
+      <c r="F971" t="s">
+        <v>39</v>
+      </c>
+      <c r="G971" t="s">
+        <v>21</v>
+      </c>
+      <c r="H971" t="s">
+        <v>31</v>
+      </c>
+      <c r="I971">
+        <v>258</v>
+      </c>
+      <c r="J971" t="s">
+        <v>2715</v>
+      </c>
+      <c r="K971" t="s">
+        <v>24</v>
+      </c>
+      <c r="L971" t="s">
+        <v>2893</v>
+      </c>
+      <c r="M971" t="s">
+        <v>26</v>
+      </c>
+      <c r="N971" t="s">
+        <v>26</v>
+      </c>
+      <c r="O971" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="972" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B972" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C972" t="s">
+        <v>17</v>
+      </c>
+      <c r="D972" t="s">
+        <v>18</v>
+      </c>
+      <c r="E972" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F972" t="s">
+        <v>172</v>
+      </c>
+      <c r="G972" t="s">
+        <v>21</v>
+      </c>
+      <c r="H972" t="s">
+        <v>173</v>
+      </c>
+      <c r="I972">
+        <v>233</v>
+      </c>
+      <c r="J972" t="s">
+        <v>327</v>
+      </c>
+      <c r="K972" t="s">
+        <v>24</v>
+      </c>
+      <c r="L972" t="s">
+        <v>2895</v>
+      </c>
+      <c r="M972" t="s">
+        <v>26</v>
+      </c>
+      <c r="N972" t="s">
+        <v>26</v>
+      </c>
+      <c r="O972" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="973" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C973" t="s">
+        <v>17</v>
+      </c>
+      <c r="D973" t="s">
+        <v>18</v>
+      </c>
+      <c r="E973" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F973" t="s">
+        <v>39</v>
+      </c>
+      <c r="G973" t="s">
+        <v>21</v>
+      </c>
+      <c r="H973" t="s">
+        <v>31</v>
+      </c>
+      <c r="I973">
+        <v>244</v>
+      </c>
+      <c r="J973" t="s">
+        <v>2897</v>
+      </c>
+      <c r="K973" t="s">
+        <v>24</v>
+      </c>
+      <c r="L973" t="s">
+        <v>2898</v>
+      </c>
+      <c r="M973" t="s">
+        <v>26</v>
+      </c>
+      <c r="N973" t="s">
+        <v>26</v>
+      </c>
+      <c r="O973" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="974" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C974" t="s">
+        <v>17</v>
+      </c>
+      <c r="D974" t="s">
+        <v>18</v>
+      </c>
+      <c r="E974" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F974" t="s">
+        <v>39</v>
+      </c>
+      <c r="G974" t="s">
+        <v>21</v>
+      </c>
+      <c r="H974" t="s">
+        <v>31</v>
+      </c>
+      <c r="I974">
+        <v>532</v>
+      </c>
+      <c r="J974" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K974" t="s">
+        <v>24</v>
+      </c>
+      <c r="L974" t="s">
+        <v>2901</v>
+      </c>
+      <c r="M974" t="s">
+        <v>26</v>
+      </c>
+      <c r="N974" t="s">
+        <v>26</v>
+      </c>
+      <c r="O974" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="975" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>611</v>
+      </c>
+      <c r="B975" t="s">
+        <v>612</v>
+      </c>
+      <c r="C975" t="s">
+        <v>17</v>
+      </c>
+      <c r="D975" t="s">
+        <v>18</v>
+      </c>
+      <c r="E975" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F975" t="s">
+        <v>39</v>
+      </c>
+      <c r="G975" t="s">
+        <v>21</v>
+      </c>
+      <c r="H975" t="s">
+        <v>31</v>
+      </c>
+      <c r="I975">
+        <v>264</v>
+      </c>
+      <c r="J975" t="s">
+        <v>169</v>
+      </c>
+      <c r="K975" t="s">
+        <v>24</v>
+      </c>
+      <c r="L975" t="s">
+        <v>2903</v>
+      </c>
+      <c r="M975" t="s">
+        <v>26</v>
+      </c>
+      <c r="N975" t="s">
+        <v>26</v>
+      </c>
+      <c r="O975" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="976" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>106</v>
+      </c>
+      <c r="B976" t="s">
+        <v>107</v>
+      </c>
+      <c r="C976" t="s">
+        <v>17</v>
+      </c>
+      <c r="D976" t="s">
+        <v>18</v>
+      </c>
+      <c r="E976" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F976" t="s">
+        <v>172</v>
+      </c>
+      <c r="G976" t="s">
+        <v>21</v>
+      </c>
+      <c r="H976" t="s">
+        <v>173</v>
+      </c>
+      <c r="I976">
+        <v>198</v>
+      </c>
+      <c r="J976" t="s">
+        <v>2905</v>
+      </c>
+      <c r="K976" t="s">
+        <v>24</v>
+      </c>
+      <c r="L976" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M976" t="s">
+        <v>26</v>
+      </c>
+      <c r="N976" t="s">
+        <v>26</v>
+      </c>
+      <c r="O976" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="977" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>106</v>
+      </c>
+      <c r="B977" t="s">
+        <v>107</v>
+      </c>
+      <c r="C977" t="s">
+        <v>17</v>
+      </c>
+      <c r="D977" t="s">
+        <v>18</v>
+      </c>
+      <c r="E977" t="s">
+        <v>2907</v>
+      </c>
+      <c r="F977" t="s">
+        <v>39</v>
+      </c>
+      <c r="G977" t="s">
+        <v>21</v>
+      </c>
+      <c r="H977" t="s">
+        <v>31</v>
+      </c>
+      <c r="I977">
+        <v>290</v>
+      </c>
+      <c r="J977" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K977" t="s">
+        <v>24</v>
+      </c>
+      <c r="L977" t="s">
+        <v>2909</v>
+      </c>
+      <c r="M977" t="s">
+        <v>26</v>
+      </c>
+      <c r="N977" t="s">
+        <v>26</v>
+      </c>
+      <c r="O977" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="978" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C978" t="s">
+        <v>36</v>
+      </c>
+      <c r="D978" t="s">
+        <v>49</v>
+      </c>
+      <c r="E978" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F978" t="s">
+        <v>261</v>
+      </c>
+      <c r="G978" t="s">
+        <v>21</v>
+      </c>
+      <c r="H978" t="s">
+        <v>31</v>
+      </c>
+      <c r="I978">
+        <v>371</v>
+      </c>
+      <c r="J978" t="s">
+        <v>2911</v>
+      </c>
+      <c r="K978" t="s">
+        <v>24</v>
+      </c>
+      <c r="L978" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M978" t="s">
+        <v>26</v>
+      </c>
+      <c r="N978" t="s">
+        <v>26</v>
+      </c>
+      <c r="O978" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="979" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C979" t="s">
+        <v>36</v>
+      </c>
+      <c r="D979" t="s">
+        <v>49</v>
+      </c>
+      <c r="E979" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F979" t="s">
+        <v>261</v>
+      </c>
+      <c r="G979" t="s">
+        <v>21</v>
+      </c>
+      <c r="H979" t="s">
+        <v>31</v>
+      </c>
+      <c r="I979">
+        <v>371</v>
+      </c>
+      <c r="J979" t="s">
+        <v>2911</v>
+      </c>
+      <c r="K979" t="s">
+        <v>24</v>
+      </c>
+      <c r="L979" t="s">
+        <v>2914</v>
+      </c>
+      <c r="M979" t="s">
+        <v>26</v>
+      </c>
+      <c r="N979" t="s">
+        <v>26</v>
+      </c>
+      <c r="O979" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="980" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C980" t="s">
+        <v>17</v>
+      </c>
+      <c r="D980" t="s">
+        <v>18</v>
+      </c>
+      <c r="E980" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F980" t="s">
+        <v>39</v>
+      </c>
+      <c r="G980" t="s">
+        <v>21</v>
+      </c>
+      <c r="H980" t="s">
+        <v>31</v>
+      </c>
+      <c r="I980">
+        <v>221</v>
+      </c>
+      <c r="J980" t="s">
+        <v>2916</v>
+      </c>
+      <c r="K980" t="s">
+        <v>24</v>
+      </c>
+      <c r="L980" t="s">
+        <v>2917</v>
+      </c>
+      <c r="M980" t="s">
+        <v>26</v>
+      </c>
+      <c r="N980" t="s">
+        <v>26</v>
+      </c>
+      <c r="O980" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B895:B1048576 B1:B790">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B791:B894">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B791:B894">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B895:B980">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B981:B1048576 B1:B790">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47D24D-5A8F-4A4C-8627-B1880574243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA90751-93C1-4F22-A13B-10980096F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="My Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'My Data'!$A$1:$P$1392</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'My Data'!$A$1:$P$1391</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19342" uniqueCount="4160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19328" uniqueCount="4155">
   <si>
     <t>Alias</t>
   </si>
@@ -11660,21 +11660,6 @@
   </si>
   <si>
     <t>433252</t>
-  </si>
-  <si>
-    <t>AG031SO</t>
-  </si>
-  <si>
-    <t>19-01-2026 22:31:03</t>
-  </si>
-  <si>
-    <t>1915.20</t>
-  </si>
-  <si>
-    <t>67032.00</t>
-  </si>
-  <si>
-    <t>116691</t>
   </si>
   <si>
     <t>19-01-2026 09:50:58</t>
@@ -12979,10 +12964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1453"/>
+  <dimension ref="A1:P1452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1438" workbookViewId="0">
-      <selection activeCell="A1398" sqref="A1398"/>
+    <sheetView tabSelected="1" topLeftCell="A1341" workbookViewId="0">
+      <selection activeCell="D1348" sqref="D1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -74731,40 +74716,40 @@
     </row>
     <row r="1354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1354" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1354" t="s">
         <v>3879</v>
       </c>
-      <c r="B1354" s="5" t="s">
-        <v>3879</v>
-      </c>
-      <c r="C1354" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1354" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1354" t="s">
+      <c r="F1354" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1354" s="6">
+        <v>143</v>
+      </c>
+      <c r="J1354" t="s">
+        <v>2613</v>
+      </c>
+      <c r="K1354" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1354" t="s">
         <v>3880</v>
-      </c>
-      <c r="F1354" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1354" t="s">
-        <v>3265</v>
-      </c>
-      <c r="H1354" t="s">
-        <v>3881</v>
-      </c>
-      <c r="I1354" s="6">
-        <v>35</v>
-      </c>
-      <c r="J1354" t="s">
-        <v>3882</v>
-      </c>
-      <c r="K1354" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1354" t="s">
-        <v>3883</v>
       </c>
       <c r="M1354" t="s">
         <v>26</v>
@@ -74784,34 +74769,34 @@
         <v>138</v>
       </c>
       <c r="C1355" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1355" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1355" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="F1355" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="G1355" t="s">
         <v>21</v>
       </c>
       <c r="H1355" t="s">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="I1355" s="6">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="J1355" t="s">
-        <v>2613</v>
+        <v>3882</v>
       </c>
       <c r="K1355" t="s">
         <v>24</v>
       </c>
       <c r="L1355" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="M1355" t="s">
         <v>26</v>
@@ -74825,40 +74810,40 @@
     </row>
     <row r="1356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>137</v>
+        <v>1587</v>
       </c>
       <c r="B1356" s="5" t="s">
-        <v>138</v>
+        <v>1588</v>
       </c>
       <c r="C1356" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1356" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1356" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1356" s="6">
+        <v>178</v>
+      </c>
+      <c r="J1356" t="s">
+        <v>3885</v>
+      </c>
+      <c r="K1356" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1356" t="s">
         <v>3886</v>
-      </c>
-      <c r="F1356" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1356" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1356" t="s">
-        <v>719</v>
-      </c>
-      <c r="I1356" s="6">
-        <v>193</v>
-      </c>
-      <c r="J1356" t="s">
-        <v>3887</v>
-      </c>
-      <c r="K1356" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1356" t="s">
-        <v>3888</v>
       </c>
       <c r="M1356" t="s">
         <v>26</v>
@@ -74872,10 +74857,10 @@
     </row>
     <row r="1357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>1587</v>
+        <v>1125</v>
       </c>
       <c r="B1357" s="5" t="s">
-        <v>1588</v>
+        <v>16</v>
       </c>
       <c r="C1357" t="s">
         <v>17</v>
@@ -74884,7 +74869,7 @@
         <v>18</v>
       </c>
       <c r="E1357" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="F1357" t="s">
         <v>172</v>
@@ -74896,16 +74881,16 @@
         <v>496</v>
       </c>
       <c r="I1357" s="6">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="J1357" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="K1357" t="s">
         <v>24</v>
       </c>
       <c r="L1357" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="M1357" t="s">
         <v>26</v>
@@ -74919,10 +74904,10 @@
     </row>
     <row r="1358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>1125</v>
+        <v>296</v>
       </c>
       <c r="B1358" s="5" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="C1358" t="s">
         <v>17</v>
@@ -74931,28 +74916,28 @@
         <v>18</v>
       </c>
       <c r="E1358" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1358" s="6">
+        <v>140</v>
+      </c>
+      <c r="J1358" t="s">
+        <v>3891</v>
+      </c>
+      <c r="K1358" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1358" t="s">
         <v>3892</v>
-      </c>
-      <c r="F1358" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1358" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1358" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1358" s="6">
-        <v>262</v>
-      </c>
-      <c r="J1358" t="s">
-        <v>3893</v>
-      </c>
-      <c r="K1358" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1358" t="s">
-        <v>3894</v>
       </c>
       <c r="M1358" t="s">
         <v>26</v>
@@ -74966,40 +74951,40 @@
     </row>
     <row r="1359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>296</v>
+        <v>2780</v>
       </c>
       <c r="B1359" s="5" t="s">
-        <v>297</v>
+        <v>1618</v>
       </c>
       <c r="C1359" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1359" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="E1359" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1359" s="6">
+        <v>258</v>
+      </c>
+      <c r="J1359" t="s">
+        <v>3894</v>
+      </c>
+      <c r="K1359" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1359" t="s">
         <v>3895</v>
-      </c>
-      <c r="F1359" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1359" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1359" t="s">
-        <v>500</v>
-      </c>
-      <c r="I1359" s="6">
-        <v>140</v>
-      </c>
-      <c r="J1359" t="s">
-        <v>3896</v>
-      </c>
-      <c r="K1359" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1359" t="s">
-        <v>3897</v>
       </c>
       <c r="M1359" t="s">
         <v>26</v>
@@ -75013,19 +74998,19 @@
     </row>
     <row r="1360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>2780</v>
+        <v>240</v>
       </c>
       <c r="B1360" s="5" t="s">
-        <v>1618</v>
+        <v>241</v>
       </c>
       <c r="C1360" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1360" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="E1360" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F1360" t="s">
         <v>39</v>
@@ -75037,16 +75022,16 @@
         <v>2929</v>
       </c>
       <c r="I1360" s="6">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="J1360" t="s">
-        <v>3899</v>
+        <v>3828</v>
       </c>
       <c r="K1360" t="s">
         <v>24</v>
       </c>
       <c r="L1360" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="M1360" t="s">
         <v>26</v>
@@ -75072,28 +75057,28 @@
         <v>18</v>
       </c>
       <c r="E1361" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="F1361" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1361" t="s">
         <v>21</v>
       </c>
       <c r="H1361" t="s">
-        <v>2929</v>
+        <v>496</v>
       </c>
       <c r="I1361" s="6">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="J1361" t="s">
-        <v>3828</v>
+        <v>647</v>
       </c>
       <c r="K1361" t="s">
         <v>24</v>
       </c>
       <c r="L1361" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="M1361" t="s">
         <v>26</v>
@@ -75107,10 +75092,10 @@
     </row>
     <row r="1362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B1362" s="5" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="C1362" t="s">
         <v>17</v>
@@ -75119,28 +75104,28 @@
         <v>18</v>
       </c>
       <c r="E1362" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="F1362" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G1362" t="s">
         <v>21</v>
       </c>
       <c r="H1362" t="s">
-        <v>496</v>
+        <v>2929</v>
       </c>
       <c r="I1362" s="6">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="J1362" t="s">
-        <v>647</v>
+        <v>3901</v>
       </c>
       <c r="K1362" t="s">
         <v>24</v>
       </c>
       <c r="L1362" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="M1362" t="s">
         <v>26</v>
@@ -75166,28 +75151,28 @@
         <v>18</v>
       </c>
       <c r="E1363" t="s">
+        <v>3903</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1363" s="6">
+        <v>126</v>
+      </c>
+      <c r="J1363" t="s">
+        <v>3904</v>
+      </c>
+      <c r="K1363" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1363" t="s">
         <v>3905</v>
-      </c>
-      <c r="F1363" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1363" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1363" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1363" s="6">
-        <v>244</v>
-      </c>
-      <c r="J1363" t="s">
-        <v>3906</v>
-      </c>
-      <c r="K1363" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1363" t="s">
-        <v>3907</v>
       </c>
       <c r="M1363" t="s">
         <v>26</v>
@@ -75201,10 +75186,10 @@
     </row>
     <row r="1364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>280</v>
+        <v>2972</v>
       </c>
       <c r="B1364" s="5" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="C1364" t="s">
         <v>17</v>
@@ -75213,28 +75198,28 @@
         <v>18</v>
       </c>
       <c r="E1364" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="F1364" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="G1364" t="s">
         <v>21</v>
       </c>
       <c r="H1364" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I1364" s="6">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="J1364" t="s">
-        <v>3909</v>
+        <v>2583</v>
       </c>
       <c r="K1364" t="s">
         <v>24</v>
       </c>
       <c r="L1364" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="M1364" t="s">
         <v>26</v>
@@ -75248,10 +75233,10 @@
     </row>
     <row r="1365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>2972</v>
+        <v>1665</v>
       </c>
       <c r="B1365" s="5" t="s">
-        <v>205</v>
+        <v>1037</v>
       </c>
       <c r="C1365" t="s">
         <v>17</v>
@@ -75260,22 +75245,22 @@
         <v>18</v>
       </c>
       <c r="E1365" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>3909</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>3910</v>
+      </c>
+      <c r="I1365" s="6">
+        <v>166</v>
+      </c>
+      <c r="J1365" t="s">
         <v>3911</v>
-      </c>
-      <c r="F1365" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1365" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1365" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1365" s="6">
-        <v>172</v>
-      </c>
-      <c r="J1365" t="s">
-        <v>2583</v>
       </c>
       <c r="K1365" t="s">
         <v>24</v>
@@ -75301,34 +75286,34 @@
         <v>1037</v>
       </c>
       <c r="C1366" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1366" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E1366" t="s">
         <v>3913</v>
       </c>
       <c r="F1366" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1366" s="6">
+        <v>552</v>
+      </c>
+      <c r="J1366" t="s">
         <v>3914</v>
       </c>
-      <c r="G1366" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1366" t="s">
+      <c r="K1366" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1366" t="s">
         <v>3915</v>
-      </c>
-      <c r="I1366" s="6">
-        <v>166</v>
-      </c>
-      <c r="J1366" t="s">
-        <v>3916</v>
-      </c>
-      <c r="K1366" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1366" t="s">
-        <v>3917</v>
       </c>
       <c r="M1366" t="s">
         <v>26</v>
@@ -75342,40 +75327,40 @@
     </row>
     <row r="1367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>1665</v>
+        <v>97</v>
       </c>
       <c r="B1367" s="5" t="s">
-        <v>1037</v>
+        <v>98</v>
       </c>
       <c r="C1367" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1367" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1367" t="s">
+        <v>3916</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1367" s="6">
+        <v>235</v>
+      </c>
+      <c r="J1367" t="s">
+        <v>3917</v>
+      </c>
+      <c r="K1367" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1367" t="s">
         <v>3918</v>
-      </c>
-      <c r="F1367" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1367" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1367" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1367" s="6">
-        <v>552</v>
-      </c>
-      <c r="J1367" t="s">
-        <v>3919</v>
-      </c>
-      <c r="K1367" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1367" t="s">
-        <v>3920</v>
       </c>
       <c r="M1367" t="s">
         <v>26</v>
@@ -75389,10 +75374,10 @@
     </row>
     <row r="1368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>97</v>
+        <v>1036</v>
       </c>
       <c r="B1368" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1368" t="s">
         <v>17</v>
@@ -75401,28 +75386,28 @@
         <v>18</v>
       </c>
       <c r="E1368" t="s">
+        <v>3919</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1368" s="6">
+        <v>238</v>
+      </c>
+      <c r="J1368" t="s">
+        <v>3920</v>
+      </c>
+      <c r="K1368" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1368" t="s">
         <v>3921</v>
-      </c>
-      <c r="F1368" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1368" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1368" t="s">
-        <v>719</v>
-      </c>
-      <c r="I1368" s="6">
-        <v>235</v>
-      </c>
-      <c r="J1368" t="s">
-        <v>3922</v>
-      </c>
-      <c r="K1368" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1368" t="s">
-        <v>3923</v>
       </c>
       <c r="M1368" t="s">
         <v>26</v>
@@ -75436,22 +75421,22 @@
     </row>
     <row r="1369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>1036</v>
+        <v>1298</v>
       </c>
       <c r="B1369" s="5" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C1369" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1369" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E1369" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="F1369" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G1369" t="s">
         <v>21</v>
@@ -75460,16 +75445,16 @@
         <v>2929</v>
       </c>
       <c r="I1369" s="6">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="J1369" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="K1369" t="s">
         <v>24</v>
       </c>
       <c r="L1369" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="M1369" t="s">
         <v>26</v>
@@ -75489,34 +75474,34 @@
         <v>43</v>
       </c>
       <c r="C1370" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1370" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1370" t="s">
+        <v>3925</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1370" s="6">
+        <v>162</v>
+      </c>
+      <c r="J1370" t="s">
+        <v>3926</v>
+      </c>
+      <c r="K1370" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1370" t="s">
         <v>3927</v>
-      </c>
-      <c r="F1370" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1370" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1370" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1370" s="6">
-        <v>26</v>
-      </c>
-      <c r="J1370" t="s">
-        <v>3928</v>
-      </c>
-      <c r="K1370" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1370" t="s">
-        <v>3929</v>
       </c>
       <c r="M1370" t="s">
         <v>26</v>
@@ -75530,40 +75515,40 @@
     </row>
     <row r="1371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>1298</v>
+        <v>2821</v>
       </c>
       <c r="B1371" s="5" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C1371" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1371" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1371" t="s">
+        <v>3928</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1371" s="6">
+        <v>335</v>
+      </c>
+      <c r="J1371" t="s">
+        <v>3929</v>
+      </c>
+      <c r="K1371" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1371" t="s">
         <v>3930</v>
-      </c>
-      <c r="F1371" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1371" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1371" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1371" s="6">
-        <v>162</v>
-      </c>
-      <c r="J1371" t="s">
-        <v>3931</v>
-      </c>
-      <c r="K1371" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1371" t="s">
-        <v>3932</v>
       </c>
       <c r="M1371" t="s">
         <v>26</v>
@@ -75586,10 +75571,10 @@
         <v>36</v>
       </c>
       <c r="D1372" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E1372" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="F1372" t="s">
         <v>261</v>
@@ -75601,16 +75586,16 @@
         <v>2929</v>
       </c>
       <c r="I1372" s="6">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="J1372" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="K1372" t="s">
         <v>24</v>
       </c>
       <c r="L1372" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="M1372" t="s">
         <v>26</v>
@@ -75624,40 +75609,40 @@
     </row>
     <row r="1373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>2821</v>
+        <v>1049</v>
       </c>
       <c r="B1373" s="5" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="C1373" t="s">
         <v>36</v>
       </c>
       <c r="D1373" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E1373" t="s">
+        <v>3934</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1373" s="6">
+        <v>158</v>
+      </c>
+      <c r="J1373" t="s">
+        <v>3935</v>
+      </c>
+      <c r="K1373" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1373" t="s">
         <v>3936</v>
-      </c>
-      <c r="F1373" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1373" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1373" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1373" s="6">
-        <v>180</v>
-      </c>
-      <c r="J1373" t="s">
-        <v>3937</v>
-      </c>
-      <c r="K1373" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1373" t="s">
-        <v>3938</v>
       </c>
       <c r="M1373" t="s">
         <v>26</v>
@@ -75671,40 +75656,40 @@
     </row>
     <row r="1374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>1049</v>
+        <v>2837</v>
       </c>
       <c r="B1374" s="5" t="s">
-        <v>432</v>
+        <v>116</v>
       </c>
       <c r="C1374" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1374" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1374" t="s">
+        <v>3937</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1374" s="6">
+        <v>243</v>
+      </c>
+      <c r="J1374" t="s">
+        <v>3938</v>
+      </c>
+      <c r="K1374" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1374" t="s">
         <v>3939</v>
-      </c>
-      <c r="F1374" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1374" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1374" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1374" s="6">
-        <v>158</v>
-      </c>
-      <c r="J1374" t="s">
-        <v>3940</v>
-      </c>
-      <c r="K1374" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1374" t="s">
-        <v>3941</v>
       </c>
       <c r="M1374" t="s">
         <v>26</v>
@@ -75718,10 +75703,10 @@
     </row>
     <row r="1375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>2837</v>
+        <v>956</v>
       </c>
       <c r="B1375" s="5" t="s">
-        <v>116</v>
+        <v>1050</v>
       </c>
       <c r="C1375" t="s">
         <v>17</v>
@@ -75730,28 +75715,28 @@
         <v>18</v>
       </c>
       <c r="E1375" t="s">
+        <v>3940</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>3725</v>
+      </c>
+      <c r="I1375" s="6">
+        <v>313</v>
+      </c>
+      <c r="J1375" t="s">
+        <v>3941</v>
+      </c>
+      <c r="K1375" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1375" t="s">
         <v>3942</v>
-      </c>
-      <c r="F1375" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1375" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1375" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1375" s="6">
-        <v>243</v>
-      </c>
-      <c r="J1375" t="s">
-        <v>3943</v>
-      </c>
-      <c r="K1375" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1375" t="s">
-        <v>3944</v>
       </c>
       <c r="M1375" t="s">
         <v>26</v>
@@ -75765,10 +75750,10 @@
     </row>
     <row r="1376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>956</v>
+        <v>53</v>
       </c>
       <c r="B1376" s="5" t="s">
-        <v>1050</v>
+        <v>1342</v>
       </c>
       <c r="C1376" t="s">
         <v>17</v>
@@ -75777,28 +75762,28 @@
         <v>18</v>
       </c>
       <c r="E1376" t="s">
+        <v>3943</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1376" s="6">
+        <v>231</v>
+      </c>
+      <c r="J1376" t="s">
+        <v>3944</v>
+      </c>
+      <c r="K1376" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1376" t="s">
         <v>3945</v>
-      </c>
-      <c r="F1376" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1376" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1376" t="s">
-        <v>3725</v>
-      </c>
-      <c r="I1376" s="6">
-        <v>313</v>
-      </c>
-      <c r="J1376" t="s">
-        <v>3946</v>
-      </c>
-      <c r="K1376" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1376" t="s">
-        <v>3947</v>
       </c>
       <c r="M1376" t="s">
         <v>26</v>
@@ -75818,34 +75803,34 @@
         <v>1342</v>
       </c>
       <c r="C1377" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1377" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1377" t="s">
+        <v>3946</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1377" s="6">
+        <v>61</v>
+      </c>
+      <c r="J1377" t="s">
+        <v>3947</v>
+      </c>
+      <c r="K1377" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1377" t="s">
         <v>3948</v>
-      </c>
-      <c r="F1377" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1377" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1377" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1377" s="6">
-        <v>231</v>
-      </c>
-      <c r="J1377" t="s">
-        <v>3949</v>
-      </c>
-      <c r="K1377" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1377" t="s">
-        <v>3950</v>
       </c>
       <c r="M1377" t="s">
         <v>26</v>
@@ -75865,34 +75850,34 @@
         <v>1342</v>
       </c>
       <c r="C1378" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1378" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1378" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1378" s="6">
+        <v>272</v>
+      </c>
+      <c r="J1378" t="s">
+        <v>3950</v>
+      </c>
+      <c r="K1378" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1378" t="s">
         <v>3951</v>
-      </c>
-      <c r="F1378" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1378" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1378" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1378" s="6">
-        <v>61</v>
-      </c>
-      <c r="J1378" t="s">
-        <v>3952</v>
-      </c>
-      <c r="K1378" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1378" t="s">
-        <v>3953</v>
       </c>
       <c r="M1378" t="s">
         <v>26</v>
@@ -75906,10 +75891,10 @@
     </row>
     <row r="1379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
-        <v>53</v>
+        <v>1392</v>
       </c>
       <c r="B1379" s="5" t="s">
-        <v>1342</v>
+        <v>532</v>
       </c>
       <c r="C1379" t="s">
         <v>17</v>
@@ -75918,28 +75903,28 @@
         <v>18</v>
       </c>
       <c r="E1379" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="F1379" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G1379" t="s">
         <v>21</v>
       </c>
       <c r="H1379" t="s">
-        <v>719</v>
+        <v>496</v>
       </c>
       <c r="I1379" s="6">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="J1379" t="s">
-        <v>3955</v>
+        <v>523</v>
       </c>
       <c r="K1379" t="s">
         <v>24</v>
       </c>
       <c r="L1379" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="M1379" t="s">
         <v>26</v>
@@ -75959,13 +75944,13 @@
         <v>532</v>
       </c>
       <c r="C1380" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1380" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E1380" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="F1380" t="s">
         <v>172</v>
@@ -75977,16 +75962,16 @@
         <v>496</v>
       </c>
       <c r="I1380" s="6">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J1380" t="s">
-        <v>523</v>
+        <v>2603</v>
       </c>
       <c r="K1380" t="s">
         <v>24</v>
       </c>
       <c r="L1380" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="M1380" t="s">
         <v>26</v>
@@ -76000,40 +75985,40 @@
     </row>
     <row r="1381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
-        <v>1392</v>
+        <v>78</v>
       </c>
       <c r="B1381" s="5" t="s">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="C1381" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1381" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1381" t="s">
-        <v>3959</v>
+        <v>3956</v>
       </c>
       <c r="F1381" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G1381" t="s">
         <v>21</v>
       </c>
       <c r="H1381" t="s">
-        <v>496</v>
+        <v>2929</v>
       </c>
       <c r="I1381" s="6">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="J1381" t="s">
-        <v>2603</v>
+        <v>3957</v>
       </c>
       <c r="K1381" t="s">
         <v>24</v>
       </c>
       <c r="L1381" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="M1381" t="s">
         <v>26</v>
@@ -76059,28 +76044,28 @@
         <v>18</v>
       </c>
       <c r="E1382" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="F1382" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G1382" t="s">
         <v>21</v>
       </c>
       <c r="H1382" t="s">
-        <v>2929</v>
+        <v>496</v>
       </c>
       <c r="I1382" s="6">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="J1382" t="s">
-        <v>3962</v>
+        <v>609</v>
       </c>
       <c r="K1382" t="s">
         <v>24</v>
       </c>
       <c r="L1382" t="s">
-        <v>3963</v>
+        <v>3960</v>
       </c>
       <c r="M1382" t="s">
         <v>26</v>
@@ -76094,10 +76079,10 @@
     </row>
     <row r="1383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
-        <v>78</v>
+        <v>3961</v>
       </c>
       <c r="B1383" s="5" t="s">
-        <v>79</v>
+        <v>3962</v>
       </c>
       <c r="C1383" t="s">
         <v>17</v>
@@ -76106,28 +76091,28 @@
         <v>18</v>
       </c>
       <c r="E1383" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F1383" t="s">
         <v>3964</v>
       </c>
-      <c r="F1383" t="s">
-        <v>172</v>
-      </c>
       <c r="G1383" t="s">
         <v>21</v>
       </c>
       <c r="H1383" t="s">
-        <v>496</v>
+        <v>3965</v>
       </c>
       <c r="I1383" s="6">
-        <v>173</v>
+        <v>578</v>
       </c>
       <c r="J1383" t="s">
-        <v>609</v>
+        <v>3966</v>
       </c>
       <c r="K1383" t="s">
         <v>24</v>
       </c>
       <c r="L1383" t="s">
-        <v>3965</v>
+        <v>3967</v>
       </c>
       <c r="M1383" t="s">
         <v>26</v>
@@ -76139,83 +76124,83 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
-        <v>3966</v>
+        <v>3961</v>
       </c>
       <c r="B1384" s="5" t="s">
-        <v>3967</v>
+        <v>3962</v>
       </c>
       <c r="C1384" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1384" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1384" t="s">
         <v>3968</v>
       </c>
       <c r="F1384" t="s">
+        <v>3964</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>3965</v>
+      </c>
+      <c r="I1384" s="6">
+        <v>110</v>
+      </c>
+      <c r="J1384" t="s">
         <v>3969</v>
       </c>
-      <c r="G1384" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1384" t="s">
+      <c r="K1384" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1384" t="s">
+        <v>3967</v>
+      </c>
+      <c r="M1384" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1384" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1384" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1385" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1385" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1385" t="s">
         <v>3970</v>
       </c>
-      <c r="I1384" s="6">
-        <v>578</v>
-      </c>
-      <c r="J1384" t="s">
+      <c r="F1385" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1385" s="6">
+        <v>364</v>
+      </c>
+      <c r="J1385" t="s">
         <v>3971</v>
-      </c>
-      <c r="K1384" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1384" t="s">
-        <v>3972</v>
-      </c>
-      <c r="M1384" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1384" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1384" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1385" t="s">
-        <v>3966</v>
-      </c>
-      <c r="B1385" s="5" t="s">
-        <v>3967</v>
-      </c>
-      <c r="C1385" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1385" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1385" t="s">
-        <v>3973</v>
-      </c>
-      <c r="F1385" t="s">
-        <v>3969</v>
-      </c>
-      <c r="G1385" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1385" t="s">
-        <v>3970</v>
-      </c>
-      <c r="I1385" s="6">
-        <v>110</v>
-      </c>
-      <c r="J1385" t="s">
-        <v>3974</v>
       </c>
       <c r="K1385" t="s">
         <v>24</v>
@@ -76235,40 +76220,40 @@
     </row>
     <row r="1386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
-        <v>253</v>
+        <v>34</v>
       </c>
       <c r="B1386" s="5" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="C1386" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1386" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1386" t="s">
+        <v>3973</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1386" s="6">
+        <v>430</v>
+      </c>
+      <c r="J1386" t="s">
+        <v>3974</v>
+      </c>
+      <c r="K1386" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1386" t="s">
         <v>3975</v>
-      </c>
-      <c r="F1386" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1386" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1386" t="s">
-        <v>719</v>
-      </c>
-      <c r="I1386" s="6">
-        <v>364</v>
-      </c>
-      <c r="J1386" t="s">
-        <v>3976</v>
-      </c>
-      <c r="K1386" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1386" t="s">
-        <v>3977</v>
       </c>
       <c r="M1386" t="s">
         <v>26</v>
@@ -76282,19 +76267,19 @@
     </row>
     <row r="1387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="B1387" s="5" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="C1387" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1387" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1387" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="F1387" t="s">
         <v>172</v>
@@ -76306,16 +76291,16 @@
         <v>496</v>
       </c>
       <c r="I1387" s="6">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="J1387" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="K1387" t="s">
         <v>24</v>
       </c>
       <c r="L1387" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="M1387" t="s">
         <v>26</v>
@@ -76329,10 +76314,10 @@
     </row>
     <row r="1388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
-        <v>419</v>
+        <v>2042</v>
       </c>
       <c r="B1388" s="5" t="s">
-        <v>420</v>
+        <v>2043</v>
       </c>
       <c r="C1388" t="s">
         <v>17</v>
@@ -76341,7 +76326,7 @@
         <v>18</v>
       </c>
       <c r="E1388" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="F1388" t="s">
         <v>172</v>
@@ -76353,16 +76338,16 @@
         <v>496</v>
       </c>
       <c r="I1388" s="6">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="J1388" t="s">
-        <v>3982</v>
+        <v>867</v>
       </c>
       <c r="K1388" t="s">
         <v>24</v>
       </c>
       <c r="L1388" t="s">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="M1388" t="s">
         <v>26</v>
@@ -76376,10 +76361,10 @@
     </row>
     <row r="1389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
-        <v>2042</v>
+        <v>1372</v>
       </c>
       <c r="B1389" s="5" t="s">
-        <v>2043</v>
+        <v>1373</v>
       </c>
       <c r="C1389" t="s">
         <v>17</v>
@@ -76388,7 +76373,7 @@
         <v>18</v>
       </c>
       <c r="E1389" t="s">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="F1389" t="s">
         <v>172</v>
@@ -76400,16 +76385,16 @@
         <v>496</v>
       </c>
       <c r="I1389" s="6">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J1389" t="s">
-        <v>867</v>
+        <v>2093</v>
       </c>
       <c r="K1389" t="s">
         <v>24</v>
       </c>
       <c r="L1389" t="s">
-        <v>3985</v>
+        <v>3982</v>
       </c>
       <c r="M1389" t="s">
         <v>26</v>
@@ -76423,10 +76408,10 @@
     </row>
     <row r="1390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
-        <v>1372</v>
+        <v>611</v>
       </c>
       <c r="B1390" s="5" t="s">
-        <v>1373</v>
+        <v>612</v>
       </c>
       <c r="C1390" t="s">
         <v>17</v>
@@ -76435,28 +76420,28 @@
         <v>18</v>
       </c>
       <c r="E1390" t="s">
-        <v>3986</v>
+        <v>3983</v>
       </c>
       <c r="F1390" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1390" t="s">
         <v>21</v>
       </c>
       <c r="H1390" t="s">
-        <v>496</v>
+        <v>719</v>
       </c>
       <c r="I1390" s="6">
-        <v>186</v>
+        <v>459</v>
       </c>
       <c r="J1390" t="s">
-        <v>2093</v>
+        <v>3984</v>
       </c>
       <c r="K1390" t="s">
         <v>24</v>
       </c>
       <c r="L1390" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="M1390" t="s">
         <v>26</v>
@@ -76470,10 +76455,10 @@
     </row>
     <row r="1391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
-        <v>611</v>
+        <v>106</v>
       </c>
       <c r="B1391" s="5" t="s">
-        <v>612</v>
+        <v>107</v>
       </c>
       <c r="C1391" t="s">
         <v>17</v>
@@ -76482,19 +76467,19 @@
         <v>18</v>
       </c>
       <c r="E1391" t="s">
+        <v>3986</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>3987</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1391" t="s">
         <v>3988</v>
       </c>
-      <c r="F1391" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1391" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1391" t="s">
-        <v>719</v>
-      </c>
       <c r="I1391" s="6">
-        <v>459</v>
+        <v>100</v>
       </c>
       <c r="J1391" t="s">
         <v>3989</v>
@@ -76517,40 +76502,40 @@
     </row>
     <row r="1392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1392" s="5" t="s">
-        <v>107</v>
+        <v>157</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>158</v>
       </c>
       <c r="C1392" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1392" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1392" t="s">
         <v>3991</v>
       </c>
       <c r="F1392" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1392">
+        <v>246</v>
+      </c>
+      <c r="J1392" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K1392" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1392" t="s">
         <v>3992</v>
-      </c>
-      <c r="G1392" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1392" t="s">
-        <v>3993</v>
-      </c>
-      <c r="I1392" s="6">
-        <v>100</v>
-      </c>
-      <c r="J1392" t="s">
-        <v>3994</v>
-      </c>
-      <c r="K1392" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1392" t="s">
-        <v>3995</v>
       </c>
       <c r="M1392" t="s">
         <v>26</v>
@@ -76564,19 +76549,19 @@
     </row>
     <row r="1393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
-        <v>157</v>
+        <v>1303</v>
       </c>
       <c r="B1393" t="s">
-        <v>158</v>
+        <v>1304</v>
       </c>
       <c r="C1393" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1393" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1393" t="s">
-        <v>3996</v>
+        <v>3993</v>
       </c>
       <c r="F1393" t="s">
         <v>39</v>
@@ -76588,16 +76573,16 @@
         <v>2929</v>
       </c>
       <c r="I1393">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="J1393" t="s">
-        <v>3032</v>
+        <v>3994</v>
       </c>
       <c r="K1393" t="s">
         <v>24</v>
       </c>
       <c r="L1393" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="M1393" t="s">
         <v>26</v>
@@ -76611,10 +76596,10 @@
     </row>
     <row r="1394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>1303</v>
+        <v>2042</v>
       </c>
       <c r="B1394" t="s">
-        <v>1304</v>
+        <v>2043</v>
       </c>
       <c r="C1394" t="s">
         <v>17</v>
@@ -76623,28 +76608,28 @@
         <v>18</v>
       </c>
       <c r="E1394" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="F1394" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1394" t="s">
         <v>21</v>
       </c>
       <c r="H1394" t="s">
-        <v>2929</v>
+        <v>496</v>
       </c>
       <c r="I1394">
-        <v>208</v>
+        <v>394</v>
       </c>
       <c r="J1394" t="s">
-        <v>3999</v>
+        <v>2624</v>
       </c>
       <c r="K1394" t="s">
         <v>24</v>
       </c>
       <c r="L1394" t="s">
-        <v>4000</v>
+        <v>3997</v>
       </c>
       <c r="M1394" t="s">
         <v>26</v>
@@ -76670,28 +76655,28 @@
         <v>18</v>
       </c>
       <c r="E1395" t="s">
-        <v>4001</v>
+        <v>3998</v>
       </c>
       <c r="F1395" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1395" t="s">
         <v>21</v>
       </c>
       <c r="H1395" t="s">
-        <v>496</v>
+        <v>2929</v>
       </c>
       <c r="I1395">
-        <v>394</v>
+        <v>129</v>
       </c>
       <c r="J1395" t="s">
-        <v>2624</v>
+        <v>3999</v>
       </c>
       <c r="K1395" t="s">
         <v>24</v>
       </c>
       <c r="L1395" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="M1395" t="s">
         <v>26</v>
@@ -76705,10 +76690,10 @@
     </row>
     <row r="1396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
-        <v>2042</v>
+        <v>1420</v>
       </c>
       <c r="B1396" t="s">
-        <v>2043</v>
+        <v>1421</v>
       </c>
       <c r="C1396" t="s">
         <v>17</v>
@@ -76717,28 +76702,28 @@
         <v>18</v>
       </c>
       <c r="E1396" t="s">
+        <v>4001</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1396">
+        <v>161</v>
+      </c>
+      <c r="J1396" t="s">
+        <v>4002</v>
+      </c>
+      <c r="K1396" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1396" t="s">
         <v>4003</v>
-      </c>
-      <c r="F1396" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1396" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1396" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1396">
-        <v>129</v>
-      </c>
-      <c r="J1396" t="s">
-        <v>4004</v>
-      </c>
-      <c r="K1396" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1396" t="s">
-        <v>4005</v>
       </c>
       <c r="M1396" t="s">
         <v>26</v>
@@ -76752,10 +76737,10 @@
     </row>
     <row r="1397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
-        <v>1420</v>
+        <v>4004</v>
       </c>
       <c r="B1397" t="s">
-        <v>1421</v>
+        <v>111</v>
       </c>
       <c r="C1397" t="s">
         <v>17</v>
@@ -76764,28 +76749,28 @@
         <v>18</v>
       </c>
       <c r="E1397" t="s">
+        <v>4005</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1397">
+        <v>262</v>
+      </c>
+      <c r="J1397" t="s">
         <v>4006</v>
       </c>
-      <c r="F1397" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1397" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1397" t="s">
-        <v>500</v>
-      </c>
-      <c r="I1397">
-        <v>161</v>
-      </c>
-      <c r="J1397" t="s">
+      <c r="K1397" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1397" t="s">
         <v>4007</v>
-      </c>
-      <c r="K1397" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1397" t="s">
-        <v>4008</v>
       </c>
       <c r="M1397" t="s">
         <v>26</v>
@@ -76799,40 +76784,40 @@
     </row>
     <row r="1398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>4008</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1398">
+        <v>200</v>
+      </c>
+      <c r="J1398" t="s">
+        <v>745</v>
+      </c>
+      <c r="K1398" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1398" t="s">
         <v>4009</v>
-      </c>
-      <c r="B1398" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1398" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1398" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1398" t="s">
-        <v>4010</v>
-      </c>
-      <c r="F1398" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1398" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1398" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1398">
-        <v>262</v>
-      </c>
-      <c r="J1398" t="s">
-        <v>4011</v>
-      </c>
-      <c r="K1398" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1398" t="s">
-        <v>4012</v>
       </c>
       <c r="M1398" t="s">
         <v>26</v>
@@ -76846,19 +76831,19 @@
     </row>
     <row r="1399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
-        <v>3551</v>
+        <v>137</v>
       </c>
       <c r="B1399" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="C1399" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1399" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1399" t="s">
-        <v>4013</v>
+        <v>4010</v>
       </c>
       <c r="F1399" t="s">
         <v>20</v>
@@ -76870,16 +76855,16 @@
         <v>719</v>
       </c>
       <c r="I1399">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="J1399" t="s">
-        <v>745</v>
+        <v>2772</v>
       </c>
       <c r="K1399" t="s">
         <v>24</v>
       </c>
       <c r="L1399" t="s">
-        <v>4014</v>
+        <v>4011</v>
       </c>
       <c r="M1399" t="s">
         <v>26</v>
@@ -76899,34 +76884,34 @@
         <v>138</v>
       </c>
       <c r="C1400" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1400" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1400" t="s">
-        <v>4015</v>
+        <v>4012</v>
       </c>
       <c r="F1400" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1400" t="s">
         <v>21</v>
       </c>
       <c r="H1400" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1400">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="J1400" t="s">
-        <v>2772</v>
+        <v>4013</v>
       </c>
       <c r="K1400" t="s">
         <v>24</v>
       </c>
       <c r="L1400" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="M1400" t="s">
         <v>26</v>
@@ -76940,40 +76925,40 @@
     </row>
     <row r="1401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
-        <v>137</v>
+        <v>1834</v>
       </c>
       <c r="B1401" t="s">
-        <v>138</v>
+        <v>2926</v>
       </c>
       <c r="C1401" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1401" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1401" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="F1401" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1401" t="s">
         <v>21</v>
       </c>
       <c r="H1401" t="s">
-        <v>2929</v>
+        <v>496</v>
       </c>
       <c r="I1401">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="J1401" t="s">
-        <v>4018</v>
+        <v>735</v>
       </c>
       <c r="K1401" t="s">
         <v>24</v>
       </c>
       <c r="L1401" t="s">
-        <v>4019</v>
+        <v>4016</v>
       </c>
       <c r="M1401" t="s">
         <v>26</v>
@@ -76987,10 +76972,10 @@
     </row>
     <row r="1402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
-        <v>1834</v>
+        <v>657</v>
       </c>
       <c r="B1402" t="s">
-        <v>2926</v>
+        <v>658</v>
       </c>
       <c r="C1402" t="s">
         <v>17</v>
@@ -76999,7 +76984,7 @@
         <v>18</v>
       </c>
       <c r="E1402" t="s">
-        <v>4020</v>
+        <v>4017</v>
       </c>
       <c r="F1402" t="s">
         <v>172</v>
@@ -77011,16 +76996,16 @@
         <v>496</v>
       </c>
       <c r="I1402">
-        <v>190</v>
+        <v>428</v>
       </c>
       <c r="J1402" t="s">
-        <v>735</v>
+        <v>4018</v>
       </c>
       <c r="K1402" t="s">
         <v>24</v>
       </c>
       <c r="L1402" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="M1402" t="s">
         <v>26</v>
@@ -77034,10 +77019,10 @@
     </row>
     <row r="1403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
-        <v>657</v>
+        <v>280</v>
       </c>
       <c r="B1403" t="s">
-        <v>658</v>
+        <v>281</v>
       </c>
       <c r="C1403" t="s">
         <v>17</v>
@@ -77046,28 +77031,28 @@
         <v>18</v>
       </c>
       <c r="E1403" t="s">
+        <v>4020</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1403">
+        <v>182</v>
+      </c>
+      <c r="J1403" t="s">
+        <v>4021</v>
+      </c>
+      <c r="K1403" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1403" t="s">
         <v>4022</v>
-      </c>
-      <c r="F1403" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1403" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1403" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1403">
-        <v>428</v>
-      </c>
-      <c r="J1403" t="s">
-        <v>4023</v>
-      </c>
-      <c r="K1403" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1403" t="s">
-        <v>4024</v>
       </c>
       <c r="M1403" t="s">
         <v>26</v>
@@ -77093,7 +77078,7 @@
         <v>18</v>
       </c>
       <c r="E1404" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="F1404" t="s">
         <v>20</v>
@@ -77105,16 +77090,16 @@
         <v>719</v>
       </c>
       <c r="I1404">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="J1404" t="s">
-        <v>4026</v>
+        <v>1282</v>
       </c>
       <c r="K1404" t="s">
         <v>24</v>
       </c>
       <c r="L1404" t="s">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="M1404" t="s">
         <v>26</v>
@@ -77128,19 +77113,19 @@
     </row>
     <row r="1405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
-        <v>280</v>
+        <v>2821</v>
       </c>
       <c r="B1405" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="C1405" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1405" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1405" t="s">
-        <v>4028</v>
+        <v>4025</v>
       </c>
       <c r="F1405" t="s">
         <v>20</v>
@@ -77152,16 +77137,16 @@
         <v>719</v>
       </c>
       <c r="I1405">
-        <v>145</v>
+        <v>300</v>
       </c>
       <c r="J1405" t="s">
-        <v>1282</v>
+        <v>1595</v>
       </c>
       <c r="K1405" t="s">
         <v>24</v>
       </c>
       <c r="L1405" t="s">
-        <v>4029</v>
+        <v>4026</v>
       </c>
       <c r="M1405" t="s">
         <v>26</v>
@@ -77175,40 +77160,40 @@
     </row>
     <row r="1406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
-        <v>2821</v>
+        <v>624</v>
       </c>
       <c r="B1406" t="s">
-        <v>74</v>
+        <v>625</v>
       </c>
       <c r="C1406" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1406" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1406" t="s">
-        <v>4030</v>
+        <v>4027</v>
       </c>
       <c r="F1406" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G1406" t="s">
         <v>21</v>
       </c>
       <c r="H1406" t="s">
-        <v>719</v>
+        <v>496</v>
       </c>
       <c r="I1406">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="J1406" t="s">
-        <v>1595</v>
+        <v>4028</v>
       </c>
       <c r="K1406" t="s">
         <v>24</v>
       </c>
       <c r="L1406" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="M1406" t="s">
         <v>26</v>
@@ -77222,10 +77207,10 @@
     </row>
     <row r="1407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
-        <v>624</v>
+        <v>946</v>
       </c>
       <c r="B1407" t="s">
-        <v>625</v>
+        <v>947</v>
       </c>
       <c r="C1407" t="s">
         <v>17</v>
@@ -77234,28 +77219,28 @@
         <v>18</v>
       </c>
       <c r="E1407" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="F1407" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1407" t="s">
         <v>21</v>
       </c>
       <c r="H1407" t="s">
-        <v>496</v>
+        <v>719</v>
       </c>
       <c r="I1407">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="J1407" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="K1407" t="s">
         <v>24</v>
       </c>
       <c r="L1407" t="s">
-        <v>4034</v>
+        <v>950</v>
       </c>
       <c r="M1407" t="s">
         <v>26</v>
@@ -77281,22 +77266,22 @@
         <v>18</v>
       </c>
       <c r="E1408" t="s">
-        <v>4035</v>
+        <v>4032</v>
       </c>
       <c r="F1408" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1408" t="s">
         <v>21</v>
       </c>
       <c r="H1408" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1408">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="J1408" t="s">
-        <v>4036</v>
+        <v>4033</v>
       </c>
       <c r="K1408" t="s">
         <v>24</v>
@@ -77316,10 +77301,10 @@
     </row>
     <row r="1409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
-        <v>946</v>
+        <v>1118</v>
       </c>
       <c r="B1409" t="s">
-        <v>947</v>
+        <v>1119</v>
       </c>
       <c r="C1409" t="s">
         <v>17</v>
@@ -77328,28 +77313,28 @@
         <v>18</v>
       </c>
       <c r="E1409" t="s">
-        <v>4037</v>
+        <v>4034</v>
       </c>
       <c r="F1409" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1409" t="s">
         <v>21</v>
       </c>
       <c r="H1409" t="s">
-        <v>2929</v>
+        <v>719</v>
       </c>
       <c r="I1409">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="J1409" t="s">
-        <v>4038</v>
+        <v>4035</v>
       </c>
       <c r="K1409" t="s">
         <v>24</v>
       </c>
       <c r="L1409" t="s">
-        <v>950</v>
+        <v>4036</v>
       </c>
       <c r="M1409" t="s">
         <v>26</v>
@@ -77363,10 +77348,10 @@
     </row>
     <row r="1410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
-        <v>1118</v>
+        <v>189</v>
       </c>
       <c r="B1410" t="s">
-        <v>1119</v>
+        <v>1378</v>
       </c>
       <c r="C1410" t="s">
         <v>17</v>
@@ -77375,28 +77360,28 @@
         <v>18</v>
       </c>
       <c r="E1410" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="F1410" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1410" t="s">
         <v>21</v>
       </c>
       <c r="H1410" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1410">
-        <v>302</v>
+        <v>651</v>
       </c>
       <c r="J1410" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="K1410" t="s">
         <v>24</v>
       </c>
       <c r="L1410" t="s">
-        <v>4041</v>
+        <v>1381</v>
       </c>
       <c r="M1410" t="s">
         <v>26</v>
@@ -77410,10 +77395,10 @@
     </row>
     <row r="1411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B1411" t="s">
-        <v>1378</v>
+        <v>219</v>
       </c>
       <c r="C1411" t="s">
         <v>17</v>
@@ -77422,7 +77407,7 @@
         <v>18</v>
       </c>
       <c r="E1411" t="s">
-        <v>4042</v>
+        <v>4039</v>
       </c>
       <c r="F1411" t="s">
         <v>39</v>
@@ -77434,16 +77419,16 @@
         <v>2929</v>
       </c>
       <c r="I1411">
-        <v>651</v>
+        <v>229</v>
       </c>
       <c r="J1411" t="s">
-        <v>4043</v>
+        <v>4040</v>
       </c>
       <c r="K1411" t="s">
         <v>24</v>
       </c>
       <c r="L1411" t="s">
-        <v>1381</v>
+        <v>4041</v>
       </c>
       <c r="M1411" t="s">
         <v>26</v>
@@ -77457,10 +77442,10 @@
     </row>
     <row r="1412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
-        <v>218</v>
+        <v>675</v>
       </c>
       <c r="B1412" t="s">
-        <v>219</v>
+        <v>676</v>
       </c>
       <c r="C1412" t="s">
         <v>17</v>
@@ -77469,7 +77454,7 @@
         <v>18</v>
       </c>
       <c r="E1412" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="F1412" t="s">
         <v>39</v>
@@ -77481,16 +77466,16 @@
         <v>2929</v>
       </c>
       <c r="I1412">
-        <v>229</v>
+        <v>512</v>
       </c>
       <c r="J1412" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="K1412" t="s">
         <v>24</v>
       </c>
       <c r="L1412" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="M1412" t="s">
         <v>26</v>
@@ -77504,10 +77489,10 @@
     </row>
     <row r="1413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
-        <v>675</v>
+        <v>1484</v>
       </c>
       <c r="B1413" t="s">
-        <v>676</v>
+        <v>1485</v>
       </c>
       <c r="C1413" t="s">
         <v>17</v>
@@ -77516,28 +77501,28 @@
         <v>18</v>
       </c>
       <c r="E1413" t="s">
+        <v>4045</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1413">
+        <v>545</v>
+      </c>
+      <c r="J1413" t="s">
+        <v>4046</v>
+      </c>
+      <c r="K1413" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1413" t="s">
         <v>4047</v>
-      </c>
-      <c r="F1413" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1413" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1413" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1413">
-        <v>512</v>
-      </c>
-      <c r="J1413" t="s">
-        <v>4048</v>
-      </c>
-      <c r="K1413" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1413" t="s">
-        <v>4049</v>
       </c>
       <c r="M1413" t="s">
         <v>26</v>
@@ -77551,46 +77536,46 @@
     </row>
     <row r="1414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
-        <v>1484</v>
+        <v>858</v>
       </c>
       <c r="B1414" t="s">
-        <v>1485</v>
+        <v>859</v>
       </c>
       <c r="C1414" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1414" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1414" t="s">
+        <v>4048</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1414">
+        <v>219</v>
+      </c>
+      <c r="J1414" t="s">
+        <v>3304</v>
+      </c>
+      <c r="K1414" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1414" t="s">
+        <v>4049</v>
+      </c>
+      <c r="M1414" t="s">
         <v>4050</v>
       </c>
-      <c r="F1414" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1414" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1414" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1414">
-        <v>545</v>
-      </c>
-      <c r="J1414" t="s">
+      <c r="N1414" t="s">
         <v>4051</v>
-      </c>
-      <c r="K1414" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1414" t="s">
-        <v>4052</v>
-      </c>
-      <c r="M1414" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1414" t="s">
-        <v>26</v>
       </c>
       <c r="O1414" t="s">
         <v>26</v>
@@ -77598,46 +77583,46 @@
     </row>
     <row r="1415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
-        <v>858</v>
+        <v>235</v>
       </c>
       <c r="B1415" t="s">
-        <v>859</v>
+        <v>236</v>
       </c>
       <c r="C1415" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1415" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1415" t="s">
+        <v>4052</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1415">
+        <v>250</v>
+      </c>
+      <c r="J1415" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K1415" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1415" t="s">
         <v>4053</v>
       </c>
-      <c r="F1415" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1415" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1415" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1415">
-        <v>219</v>
-      </c>
-      <c r="J1415" t="s">
-        <v>3304</v>
-      </c>
-      <c r="K1415" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1415" t="s">
-        <v>4054</v>
-      </c>
       <c r="M1415" t="s">
-        <v>4055</v>
+        <v>26</v>
       </c>
       <c r="N1415" t="s">
-        <v>4056</v>
+        <v>26</v>
       </c>
       <c r="O1415" t="s">
         <v>26</v>
@@ -77645,10 +77630,10 @@
     </row>
     <row r="1416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
-        <v>235</v>
+        <v>1353</v>
       </c>
       <c r="B1416" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="C1416" t="s">
         <v>17</v>
@@ -77657,28 +77642,28 @@
         <v>18</v>
       </c>
       <c r="E1416" t="s">
+        <v>4054</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>4055</v>
+      </c>
+      <c r="I1416">
+        <v>200</v>
+      </c>
+      <c r="J1416" t="s">
+        <v>4056</v>
+      </c>
+      <c r="K1416" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1416" t="s">
         <v>4057</v>
-      </c>
-      <c r="F1416" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1416" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1416" t="s">
-        <v>719</v>
-      </c>
-      <c r="I1416">
-        <v>250</v>
-      </c>
-      <c r="J1416" t="s">
-        <v>1261</v>
-      </c>
-      <c r="K1416" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1416" t="s">
-        <v>4058</v>
       </c>
       <c r="M1416" t="s">
         <v>26</v>
@@ -77692,10 +77677,10 @@
     </row>
     <row r="1417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
-        <v>1353</v>
+        <v>354</v>
       </c>
       <c r="B1417" t="s">
-        <v>28</v>
+        <v>355</v>
       </c>
       <c r="C1417" t="s">
         <v>17</v>
@@ -77704,28 +77689,28 @@
         <v>18</v>
       </c>
       <c r="E1417" t="s">
+        <v>4058</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1417">
+        <v>206</v>
+      </c>
+      <c r="J1417" t="s">
         <v>4059</v>
       </c>
-      <c r="F1417" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G1417" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1417" t="s">
+      <c r="K1417" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1417" t="s">
         <v>4060</v>
-      </c>
-      <c r="I1417">
-        <v>200</v>
-      </c>
-      <c r="J1417" t="s">
-        <v>4061</v>
-      </c>
-      <c r="K1417" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1417" t="s">
-        <v>4062</v>
       </c>
       <c r="M1417" t="s">
         <v>26</v>
@@ -77739,10 +77724,10 @@
     </row>
     <row r="1418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
-        <v>354</v>
+        <v>824</v>
       </c>
       <c r="B1418" t="s">
-        <v>355</v>
+        <v>825</v>
       </c>
       <c r="C1418" t="s">
         <v>17</v>
@@ -77751,28 +77736,28 @@
         <v>18</v>
       </c>
       <c r="E1418" t="s">
+        <v>4061</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1418">
+        <v>136</v>
+      </c>
+      <c r="J1418" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K1418" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1418" t="s">
         <v>4063</v>
-      </c>
-      <c r="F1418" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1418" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1418" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1418">
-        <v>206</v>
-      </c>
-      <c r="J1418" t="s">
-        <v>4064</v>
-      </c>
-      <c r="K1418" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1418" t="s">
-        <v>4065</v>
       </c>
       <c r="M1418" t="s">
         <v>26</v>
@@ -77798,28 +77783,28 @@
         <v>18</v>
       </c>
       <c r="E1419" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="F1419" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1419" t="s">
         <v>21</v>
       </c>
       <c r="H1419" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1419">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="J1419" t="s">
-        <v>4067</v>
+        <v>3005</v>
       </c>
       <c r="K1419" t="s">
         <v>24</v>
       </c>
       <c r="L1419" t="s">
-        <v>4068</v>
+        <v>4065</v>
       </c>
       <c r="M1419" t="s">
         <v>26</v>
@@ -77833,10 +77818,10 @@
     </row>
     <row r="1420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
-        <v>824</v>
+        <v>932</v>
       </c>
       <c r="B1420" t="s">
-        <v>825</v>
+        <v>933</v>
       </c>
       <c r="C1420" t="s">
         <v>17</v>
@@ -77845,7 +77830,7 @@
         <v>18</v>
       </c>
       <c r="E1420" t="s">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="F1420" t="s">
         <v>39</v>
@@ -77857,16 +77842,16 @@
         <v>2929</v>
       </c>
       <c r="I1420">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="J1420" t="s">
-        <v>3005</v>
+        <v>4067</v>
       </c>
       <c r="K1420" t="s">
         <v>24</v>
       </c>
       <c r="L1420" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="M1420" t="s">
         <v>26</v>
@@ -77880,10 +77865,10 @@
     </row>
     <row r="1421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>932</v>
+        <v>78</v>
       </c>
       <c r="B1421" t="s">
-        <v>933</v>
+        <v>79</v>
       </c>
       <c r="C1421" t="s">
         <v>17</v>
@@ -77892,28 +77877,28 @@
         <v>18</v>
       </c>
       <c r="E1421" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="F1421" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1421" t="s">
         <v>21</v>
       </c>
       <c r="H1421" t="s">
-        <v>2929</v>
+        <v>719</v>
       </c>
       <c r="I1421">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="J1421" t="s">
-        <v>4072</v>
+        <v>2855</v>
       </c>
       <c r="K1421" t="s">
         <v>24</v>
       </c>
       <c r="L1421" t="s">
-        <v>4073</v>
+        <v>4070</v>
       </c>
       <c r="M1421" t="s">
         <v>26</v>
@@ -77927,10 +77912,10 @@
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
-        <v>78</v>
+        <v>3171</v>
       </c>
       <c r="B1422" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C1422" t="s">
         <v>17</v>
@@ -77939,28 +77924,28 @@
         <v>18</v>
       </c>
       <c r="E1422" t="s">
-        <v>4074</v>
+        <v>4071</v>
       </c>
       <c r="F1422" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1422" t="s">
         <v>21</v>
       </c>
       <c r="H1422" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1422">
-        <v>280</v>
+        <v>522</v>
       </c>
       <c r="J1422" t="s">
-        <v>2855</v>
+        <v>4072</v>
       </c>
       <c r="K1422" t="s">
         <v>24</v>
       </c>
       <c r="L1422" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="M1422" t="s">
         <v>26</v>
@@ -77974,10 +77959,10 @@
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
-        <v>3171</v>
+        <v>1904</v>
       </c>
       <c r="B1423" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="C1423" t="s">
         <v>17</v>
@@ -77986,10 +77971,10 @@
         <v>18</v>
       </c>
       <c r="E1423" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="F1423" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="G1423" t="s">
         <v>21</v>
@@ -77998,16 +77983,16 @@
         <v>2929</v>
       </c>
       <c r="I1423">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="J1423" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="K1423" t="s">
         <v>24</v>
       </c>
       <c r="L1423" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="M1423" t="s">
         <v>26</v>
@@ -78021,10 +78006,10 @@
     </row>
     <row r="1424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
-        <v>1904</v>
+        <v>53</v>
       </c>
       <c r="B1424" t="s">
-        <v>185</v>
+        <v>1342</v>
       </c>
       <c r="C1424" t="s">
         <v>17</v>
@@ -78033,28 +78018,28 @@
         <v>18</v>
       </c>
       <c r="E1424" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1424">
+        <v>241</v>
+      </c>
+      <c r="J1424" t="s">
+        <v>4078</v>
+      </c>
+      <c r="K1424" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1424" t="s">
         <v>4079</v>
-      </c>
-      <c r="F1424" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1424" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1424" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1424">
-        <v>500</v>
-      </c>
-      <c r="J1424" t="s">
-        <v>4080</v>
-      </c>
-      <c r="K1424" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1424" t="s">
-        <v>4081</v>
       </c>
       <c r="M1424" t="s">
         <v>26</v>
@@ -78068,10 +78053,10 @@
     </row>
     <row r="1425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="B1425" t="s">
-        <v>1342</v>
+        <v>297</v>
       </c>
       <c r="C1425" t="s">
         <v>17</v>
@@ -78080,28 +78065,28 @@
         <v>18</v>
       </c>
       <c r="E1425" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>4055</v>
+      </c>
+      <c r="I1425">
+        <v>173</v>
+      </c>
+      <c r="J1425" t="s">
+        <v>4081</v>
+      </c>
+      <c r="K1425" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1425" t="s">
         <v>4082</v>
-      </c>
-      <c r="F1425" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1425" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1425" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1425">
-        <v>241</v>
-      </c>
-      <c r="J1425" t="s">
-        <v>4083</v>
-      </c>
-      <c r="K1425" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1425" t="s">
-        <v>4084</v>
       </c>
       <c r="M1425" t="s">
         <v>26</v>
@@ -78115,10 +78100,10 @@
     </row>
     <row r="1426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="B1426" t="s">
-        <v>297</v>
+        <v>1164</v>
       </c>
       <c r="C1426" t="s">
         <v>17</v>
@@ -78127,28 +78112,28 @@
         <v>18</v>
       </c>
       <c r="E1426" t="s">
+        <v>4083</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1426">
+        <v>216</v>
+      </c>
+      <c r="J1426" t="s">
+        <v>4084</v>
+      </c>
+      <c r="K1426" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1426" t="s">
         <v>4085</v>
-      </c>
-      <c r="F1426" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G1426" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1426" t="s">
-        <v>4060</v>
-      </c>
-      <c r="I1426">
-        <v>173</v>
-      </c>
-      <c r="J1426" t="s">
-        <v>4086</v>
-      </c>
-      <c r="K1426" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1426" t="s">
-        <v>4087</v>
       </c>
       <c r="M1426" t="s">
         <v>26</v>
@@ -78162,10 +78147,10 @@
     </row>
     <row r="1427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="B1427" t="s">
-        <v>1164</v>
+        <v>254</v>
       </c>
       <c r="C1427" t="s">
         <v>17</v>
@@ -78174,28 +78159,28 @@
         <v>18</v>
       </c>
       <c r="E1427" t="s">
+        <v>4086</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1427">
+        <v>382</v>
+      </c>
+      <c r="J1427" t="s">
+        <v>4087</v>
+      </c>
+      <c r="K1427" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1427" t="s">
         <v>4088</v>
-      </c>
-      <c r="F1427" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1427" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1427" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1427">
-        <v>216</v>
-      </c>
-      <c r="J1427" t="s">
-        <v>4089</v>
-      </c>
-      <c r="K1427" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1427" t="s">
-        <v>4090</v>
       </c>
       <c r="M1427" t="s">
         <v>26</v>
@@ -78209,10 +78194,10 @@
     </row>
     <row r="1428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B1428" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C1428" t="s">
         <v>17</v>
@@ -78221,28 +78206,28 @@
         <v>18</v>
       </c>
       <c r="E1428" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="F1428" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1428" t="s">
         <v>21</v>
       </c>
       <c r="H1428" t="s">
-        <v>2929</v>
+        <v>719</v>
       </c>
       <c r="I1428">
-        <v>382</v>
+        <v>145</v>
       </c>
       <c r="J1428" t="s">
-        <v>4092</v>
+        <v>1282</v>
       </c>
       <c r="K1428" t="s">
         <v>24</v>
       </c>
       <c r="L1428" t="s">
-        <v>4093</v>
+        <v>4090</v>
       </c>
       <c r="M1428" t="s">
         <v>26</v>
@@ -78268,7 +78253,7 @@
         <v>18</v>
       </c>
       <c r="E1429" t="s">
-        <v>4094</v>
+        <v>4091</v>
       </c>
       <c r="F1429" t="s">
         <v>20</v>
@@ -78280,16 +78265,16 @@
         <v>719</v>
       </c>
       <c r="I1429">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J1429" t="s">
-        <v>1282</v>
+        <v>1552</v>
       </c>
       <c r="K1429" t="s">
         <v>24</v>
       </c>
       <c r="L1429" t="s">
-        <v>4095</v>
+        <v>4092</v>
       </c>
       <c r="M1429" t="s">
         <v>26</v>
@@ -78303,10 +78288,10 @@
     </row>
     <row r="1430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
-        <v>240</v>
+        <v>1036</v>
       </c>
       <c r="B1430" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="C1430" t="s">
         <v>17</v>
@@ -78315,7 +78300,7 @@
         <v>18</v>
       </c>
       <c r="E1430" t="s">
-        <v>4096</v>
+        <v>4093</v>
       </c>
       <c r="F1430" t="s">
         <v>20</v>
@@ -78327,16 +78312,16 @@
         <v>719</v>
       </c>
       <c r="I1430">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="J1430" t="s">
-        <v>1552</v>
+        <v>4094</v>
       </c>
       <c r="K1430" t="s">
         <v>24</v>
       </c>
       <c r="L1430" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="M1430" t="s">
         <v>26</v>
@@ -78362,7 +78347,7 @@
         <v>18</v>
       </c>
       <c r="E1431" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="F1431" t="s">
         <v>20</v>
@@ -78374,16 +78359,16 @@
         <v>719</v>
       </c>
       <c r="I1431">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="J1431" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="K1431" t="s">
         <v>24</v>
       </c>
       <c r="L1431" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="M1431" t="s">
         <v>26</v>
@@ -78397,10 +78382,10 @@
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
-        <v>1036</v>
+        <v>1717</v>
       </c>
       <c r="B1432" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C1432" t="s">
         <v>17</v>
@@ -78409,28 +78394,28 @@
         <v>18</v>
       </c>
       <c r="E1432" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="F1432" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1432" t="s">
         <v>21</v>
       </c>
       <c r="H1432" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1432">
-        <v>307</v>
+        <v>521</v>
       </c>
       <c r="J1432" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="K1432" t="s">
         <v>24</v>
       </c>
       <c r="L1432" t="s">
-        <v>4103</v>
+        <v>193</v>
       </c>
       <c r="M1432" t="s">
         <v>26</v>
@@ -78444,10 +78429,10 @@
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1433" t="s">
-        <v>1717</v>
+        <v>2837</v>
       </c>
       <c r="B1433" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C1433" t="s">
         <v>17</v>
@@ -78456,28 +78441,28 @@
         <v>18</v>
       </c>
       <c r="E1433" t="s">
-        <v>4104</v>
+        <v>4101</v>
       </c>
       <c r="F1433" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1433" t="s">
         <v>21</v>
       </c>
       <c r="H1433" t="s">
-        <v>2929</v>
+        <v>719</v>
       </c>
       <c r="I1433">
-        <v>521</v>
+        <v>322</v>
       </c>
       <c r="J1433" t="s">
-        <v>4105</v>
+        <v>2690</v>
       </c>
       <c r="K1433" t="s">
         <v>24</v>
       </c>
       <c r="L1433" t="s">
-        <v>193</v>
+        <v>4102</v>
       </c>
       <c r="M1433" t="s">
         <v>26</v>
@@ -78503,7 +78488,7 @@
         <v>18</v>
       </c>
       <c r="E1434" t="s">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="F1434" t="s">
         <v>20</v>
@@ -78515,16 +78500,16 @@
         <v>719</v>
       </c>
       <c r="I1434">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="J1434" t="s">
-        <v>2690</v>
+        <v>4104</v>
       </c>
       <c r="K1434" t="s">
         <v>24</v>
       </c>
       <c r="L1434" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="M1434" t="s">
         <v>26</v>
@@ -78538,40 +78523,40 @@
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1435" t="s">
-        <v>2837</v>
+        <v>1587</v>
       </c>
       <c r="B1435" t="s">
-        <v>116</v>
+        <v>1588</v>
       </c>
       <c r="C1435" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1435" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E1435" t="s">
+        <v>4106</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>3725</v>
+      </c>
+      <c r="I1435">
+        <v>100</v>
+      </c>
+      <c r="J1435" t="s">
+        <v>4107</v>
+      </c>
+      <c r="K1435" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1435" t="s">
         <v>4108</v>
-      </c>
-      <c r="F1435" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1435" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1435" t="s">
-        <v>719</v>
-      </c>
-      <c r="I1435">
-        <v>124</v>
-      </c>
-      <c r="J1435" t="s">
-        <v>4109</v>
-      </c>
-      <c r="K1435" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1435" t="s">
-        <v>4110</v>
       </c>
       <c r="M1435" t="s">
         <v>26</v>
@@ -78585,40 +78570,40 @@
     </row>
     <row r="1436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1436" t="s">
-        <v>1587</v>
+        <v>402</v>
       </c>
       <c r="B1436" t="s">
-        <v>1588</v>
+        <v>2862</v>
       </c>
       <c r="C1436" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1436" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1436" t="s">
+        <v>4109</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1436">
+        <v>260</v>
+      </c>
+      <c r="J1436" t="s">
+        <v>4110</v>
+      </c>
+      <c r="K1436" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1436" t="s">
         <v>4111</v>
-      </c>
-      <c r="F1436" t="s">
-        <v>367</v>
-      </c>
-      <c r="G1436" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1436" t="s">
-        <v>3725</v>
-      </c>
-      <c r="I1436">
-        <v>100</v>
-      </c>
-      <c r="J1436" t="s">
-        <v>4112</v>
-      </c>
-      <c r="K1436" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1436" t="s">
-        <v>4113</v>
       </c>
       <c r="M1436" t="s">
         <v>26</v>
@@ -78632,10 +78617,10 @@
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1437" t="s">
-        <v>402</v>
+        <v>1204</v>
       </c>
       <c r="B1437" t="s">
-        <v>2862</v>
+        <v>1205</v>
       </c>
       <c r="C1437" t="s">
         <v>17</v>
@@ -78644,7 +78629,7 @@
         <v>18</v>
       </c>
       <c r="E1437" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="F1437" t="s">
         <v>39</v>
@@ -78656,16 +78641,16 @@
         <v>2929</v>
       </c>
       <c r="I1437">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="J1437" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="K1437" t="s">
         <v>24</v>
       </c>
       <c r="L1437" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="M1437" t="s">
         <v>26</v>
@@ -78679,10 +78664,10 @@
     </row>
     <row r="1438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
-        <v>1204</v>
+        <v>142</v>
       </c>
       <c r="B1438" t="s">
-        <v>1205</v>
+        <v>143</v>
       </c>
       <c r="C1438" t="s">
         <v>17</v>
@@ -78691,28 +78676,28 @@
         <v>18</v>
       </c>
       <c r="E1438" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="F1438" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1438" t="s">
         <v>21</v>
       </c>
       <c r="H1438" t="s">
-        <v>2929</v>
+        <v>719</v>
       </c>
       <c r="I1438">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="J1438" t="s">
-        <v>4118</v>
+        <v>745</v>
       </c>
       <c r="K1438" t="s">
         <v>24</v>
       </c>
       <c r="L1438" t="s">
-        <v>4119</v>
+        <v>4116</v>
       </c>
       <c r="M1438" t="s">
         <v>26</v>
@@ -78726,40 +78711,40 @@
     </row>
     <row r="1439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B1439" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C1439" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1439" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1439" t="s">
-        <v>4120</v>
+        <v>4117</v>
       </c>
       <c r="F1439" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G1439" t="s">
         <v>21</v>
       </c>
       <c r="H1439" t="s">
-        <v>719</v>
+        <v>496</v>
       </c>
       <c r="I1439">
-        <v>200</v>
+        <v>536</v>
       </c>
       <c r="J1439" t="s">
-        <v>745</v>
+        <v>4118</v>
       </c>
       <c r="K1439" t="s">
         <v>24</v>
       </c>
       <c r="L1439" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="M1439" t="s">
         <v>26</v>
@@ -78773,40 +78758,40 @@
     </row>
     <row r="1440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1440" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1440" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1440" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1440" t="s">
+        <v>4120</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1440">
+        <v>198</v>
+      </c>
+      <c r="J1440" t="s">
+        <v>4121</v>
+      </c>
+      <c r="K1440" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1440" t="s">
         <v>4122</v>
-      </c>
-      <c r="F1440" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1440" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1440" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1440">
-        <v>536</v>
-      </c>
-      <c r="J1440" t="s">
-        <v>4123</v>
-      </c>
-      <c r="K1440" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1440" t="s">
-        <v>4124</v>
       </c>
       <c r="M1440" t="s">
         <v>26</v>
@@ -78820,19 +78805,19 @@
     </row>
     <row r="1441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
-        <v>166</v>
+        <v>1313</v>
       </c>
       <c r="B1441" t="s">
-        <v>167</v>
+        <v>1314</v>
       </c>
       <c r="C1441" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1441" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="E1441" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="F1441" t="s">
         <v>39</v>
@@ -78844,16 +78829,16 @@
         <v>2929</v>
       </c>
       <c r="I1441">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="J1441" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="K1441" t="s">
         <v>24</v>
       </c>
       <c r="L1441" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="M1441" t="s">
         <v>26</v>
@@ -78867,19 +78852,19 @@
     </row>
     <row r="1442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
-        <v>1313</v>
+        <v>83</v>
       </c>
       <c r="B1442" t="s">
-        <v>1314</v>
+        <v>84</v>
       </c>
       <c r="C1442" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1442" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="E1442" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="F1442" t="s">
         <v>39</v>
@@ -78891,16 +78876,16 @@
         <v>2929</v>
       </c>
       <c r="I1442">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="J1442" t="s">
-        <v>4129</v>
+        <v>4059</v>
       </c>
       <c r="K1442" t="s">
         <v>24</v>
       </c>
       <c r="L1442" t="s">
-        <v>4130</v>
+        <v>4127</v>
       </c>
       <c r="M1442" t="s">
         <v>26</v>
@@ -78914,10 +78899,10 @@
     </row>
     <row r="1443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
-        <v>83</v>
+        <v>2780</v>
       </c>
       <c r="B1443" t="s">
-        <v>84</v>
+        <v>1618</v>
       </c>
       <c r="C1443" t="s">
         <v>17</v>
@@ -78926,28 +78911,28 @@
         <v>18</v>
       </c>
       <c r="E1443" t="s">
-        <v>4131</v>
+        <v>4128</v>
       </c>
       <c r="F1443" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1443" t="s">
         <v>21</v>
       </c>
       <c r="H1443" t="s">
-        <v>2929</v>
+        <v>496</v>
       </c>
       <c r="I1443">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="J1443" t="s">
-        <v>4064</v>
+        <v>647</v>
       </c>
       <c r="K1443" t="s">
         <v>24</v>
       </c>
       <c r="L1443" t="s">
-        <v>4132</v>
+        <v>4129</v>
       </c>
       <c r="M1443" t="s">
         <v>26</v>
@@ -78961,10 +78946,10 @@
     </row>
     <row r="1444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
-        <v>2780</v>
+        <v>1125</v>
       </c>
       <c r="B1444" t="s">
-        <v>1618</v>
+        <v>16</v>
       </c>
       <c r="C1444" t="s">
         <v>17</v>
@@ -78973,28 +78958,28 @@
         <v>18</v>
       </c>
       <c r="E1444" t="s">
-        <v>4133</v>
+        <v>4130</v>
       </c>
       <c r="F1444" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G1444" t="s">
         <v>21</v>
       </c>
       <c r="H1444" t="s">
-        <v>496</v>
+        <v>2929</v>
       </c>
       <c r="I1444">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="J1444" t="s">
-        <v>647</v>
+        <v>4131</v>
       </c>
       <c r="K1444" t="s">
         <v>24</v>
       </c>
       <c r="L1444" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="M1444" t="s">
         <v>26</v>
@@ -79008,10 +78993,10 @@
     </row>
     <row r="1445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
-        <v>1125</v>
+        <v>180</v>
       </c>
       <c r="B1445" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="C1445" t="s">
         <v>17</v>
@@ -79020,28 +79005,28 @@
         <v>18</v>
       </c>
       <c r="E1445" t="s">
+        <v>4133</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1445">
+        <v>185</v>
+      </c>
+      <c r="J1445" t="s">
+        <v>4134</v>
+      </c>
+      <c r="K1445" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1445" t="s">
         <v>4135</v>
-      </c>
-      <c r="F1445" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1445" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1445" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1445">
-        <v>118</v>
-      </c>
-      <c r="J1445" t="s">
-        <v>4136</v>
-      </c>
-      <c r="K1445" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1445" t="s">
-        <v>4137</v>
       </c>
       <c r="M1445" t="s">
         <v>26</v>
@@ -79055,10 +79040,10 @@
     </row>
     <row r="1446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
-        <v>180</v>
+        <v>3434</v>
       </c>
       <c r="B1446" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="C1446" t="s">
         <v>17</v>
@@ -79067,7 +79052,7 @@
         <v>18</v>
       </c>
       <c r="E1446" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="F1446" t="s">
         <v>20</v>
@@ -79079,16 +79064,16 @@
         <v>719</v>
       </c>
       <c r="I1446">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J1446" t="s">
-        <v>4139</v>
+        <v>745</v>
       </c>
       <c r="K1446" t="s">
         <v>24</v>
       </c>
       <c r="L1446" t="s">
-        <v>4140</v>
+        <v>4137</v>
       </c>
       <c r="M1446" t="s">
         <v>26</v>
@@ -79114,28 +79099,28 @@
         <v>18</v>
       </c>
       <c r="E1447" t="s">
-        <v>4141</v>
+        <v>4138</v>
       </c>
       <c r="F1447" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1447" t="s">
         <v>21</v>
       </c>
       <c r="H1447" t="s">
-        <v>719</v>
+        <v>2929</v>
       </c>
       <c r="I1447">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="J1447" t="s">
-        <v>745</v>
+        <v>4139</v>
       </c>
       <c r="K1447" t="s">
         <v>24</v>
       </c>
       <c r="L1447" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="M1447" t="s">
         <v>26</v>
@@ -79149,40 +79134,40 @@
     </row>
     <row r="1448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
-        <v>3434</v>
+        <v>2972</v>
       </c>
       <c r="B1448" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C1448" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1448" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E1448" t="s">
+        <v>4141</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>3725</v>
+      </c>
+      <c r="I1448">
+        <v>228</v>
+      </c>
+      <c r="J1448" t="s">
+        <v>4142</v>
+      </c>
+      <c r="K1448" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1448" t="s">
         <v>4143</v>
-      </c>
-      <c r="F1448" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1448" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1448" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1448">
-        <v>328</v>
-      </c>
-      <c r="J1448" t="s">
-        <v>4144</v>
-      </c>
-      <c r="K1448" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1448" t="s">
-        <v>4145</v>
       </c>
       <c r="M1448" t="s">
         <v>26</v>
@@ -79196,40 +79181,40 @@
     </row>
     <row r="1449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
-        <v>2972</v>
+        <v>397</v>
       </c>
       <c r="B1449" t="s">
-        <v>205</v>
+        <v>398</v>
       </c>
       <c r="C1449" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1449" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1449" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="F1449" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="G1449" t="s">
         <v>21</v>
       </c>
       <c r="H1449" t="s">
-        <v>3725</v>
+        <v>2929</v>
       </c>
       <c r="I1449">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="J1449" t="s">
-        <v>4147</v>
+        <v>3032</v>
       </c>
       <c r="K1449" t="s">
         <v>24</v>
       </c>
       <c r="L1449" t="s">
-        <v>4148</v>
+        <v>4145</v>
       </c>
       <c r="M1449" t="s">
         <v>26</v>
@@ -79243,10 +79228,10 @@
     </row>
     <row r="1450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
-        <v>397</v>
+        <v>27</v>
       </c>
       <c r="B1450" t="s">
-        <v>398</v>
+        <v>3408</v>
       </c>
       <c r="C1450" t="s">
         <v>17</v>
@@ -79255,28 +79240,28 @@
         <v>18</v>
       </c>
       <c r="E1450" t="s">
-        <v>4149</v>
+        <v>4146</v>
       </c>
       <c r="F1450" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1450" t="s">
         <v>21</v>
       </c>
       <c r="H1450" t="s">
-        <v>2929</v>
+        <v>496</v>
       </c>
       <c r="I1450">
-        <v>246</v>
+        <v>375</v>
       </c>
       <c r="J1450" t="s">
-        <v>3032</v>
+        <v>4147</v>
       </c>
       <c r="K1450" t="s">
         <v>24</v>
       </c>
       <c r="L1450" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="M1450" t="s">
         <v>26</v>
@@ -79302,28 +79287,28 @@
         <v>18</v>
       </c>
       <c r="E1451" t="s">
+        <v>4149</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1451" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1451">
+        <v>149</v>
+      </c>
+      <c r="J1451" t="s">
+        <v>4150</v>
+      </c>
+      <c r="K1451" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1451" t="s">
         <v>4151</v>
-      </c>
-      <c r="F1451" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1451" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1451" t="s">
-        <v>496</v>
-      </c>
-      <c r="I1451">
-        <v>375</v>
-      </c>
-      <c r="J1451" t="s">
-        <v>4152</v>
-      </c>
-      <c r="K1451" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1451" t="s">
-        <v>4153</v>
       </c>
       <c r="M1451" t="s">
         <v>26</v>
@@ -79337,10 +79322,10 @@
     </row>
     <row r="1452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
-        <v>27</v>
+        <v>1362</v>
       </c>
       <c r="B1452" t="s">
-        <v>3408</v>
+        <v>1363</v>
       </c>
       <c r="C1452" t="s">
         <v>17</v>
@@ -79349,10 +79334,10 @@
         <v>18</v>
       </c>
       <c r="E1452" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="F1452" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="G1452" t="s">
         <v>21</v>
@@ -79361,16 +79346,16 @@
         <v>2929</v>
       </c>
       <c r="I1452">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="J1452" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="K1452" t="s">
         <v>24</v>
       </c>
       <c r="L1452" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="M1452" t="s">
         <v>26</v>
@@ -79382,55 +79367,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1453" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1453" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B1453" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C1453" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1453" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1453" t="s">
-        <v>4157</v>
-      </c>
-      <c r="F1453" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1453" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1453" t="s">
-        <v>2929</v>
-      </c>
-      <c r="I1453">
-        <v>188</v>
-      </c>
-      <c r="J1453" t="s">
-        <v>4158</v>
-      </c>
-      <c r="K1453" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1453" t="s">
-        <v>4159</v>
-      </c>
-      <c r="M1453" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1453" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1453" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P1392" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P1391" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B797:B900">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700D6A6-DEAD-48BB-8232-969F5CD66E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57E8EBC-E39C-4AF4-A32F-9EB517D0F800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="My Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'My Data'!$A$1:$P$1805</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'My Data'!$A$1:$P$1800</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24300" uniqueCount="5229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24230" uniqueCount="5199">
   <si>
     <t>Alias</t>
   </si>
@@ -14459,96 +14459,6 @@
   </si>
   <si>
     <t>211503</t>
-  </si>
-  <si>
-    <t>SPRINTER / AH236OQ</t>
-  </si>
-  <si>
-    <t>AH236OQ</t>
-  </si>
-  <si>
-    <t>23-01-2026 12:15:28</t>
-  </si>
-  <si>
-    <t>CARDO MARIA DEL CARMEN E HIJO</t>
-  </si>
-  <si>
-    <t>1763.50</t>
-  </si>
-  <si>
-    <t>111100.50</t>
-  </si>
-  <si>
-    <t>83566</t>
-  </si>
-  <si>
-    <t>23-01-2026 15:36:43</t>
-  </si>
-  <si>
-    <t>1853.10</t>
-  </si>
-  <si>
-    <t>20384.10</t>
-  </si>
-  <si>
-    <t>83684</t>
-  </si>
-  <si>
-    <t>23-01-2026 22:57:45</t>
-  </si>
-  <si>
-    <t>GOMILA SRL</t>
-  </si>
-  <si>
-    <t>1804.80</t>
-  </si>
-  <si>
-    <t>75801.60</t>
-  </si>
-  <si>
-    <t>84092</t>
-  </si>
-  <si>
-    <t>25-01-2026 22:34:19</t>
-  </si>
-  <si>
-    <t>OPESSA FIGHIERA OESTE</t>
-  </si>
-  <si>
-    <t>40560.50</t>
-  </si>
-  <si>
-    <t>84305</t>
-  </si>
-  <si>
-    <t>AH373GQ JUAN PABLO</t>
-  </si>
-  <si>
-    <t>AH373GQ</t>
-  </si>
-  <si>
-    <t>23-01-2026 19:43:34</t>
-  </si>
-  <si>
-    <t>OPESSA AUSOL CAMPANA KM 72 DESCENDENTE</t>
-  </si>
-  <si>
-    <t>INFINIA</t>
-  </si>
-  <si>
-    <t>1799.40</t>
-  </si>
-  <si>
-    <t>80973.00</t>
-  </si>
-  <si>
-    <t>15970</t>
-  </si>
-  <si>
-    <t>Juan pablo Termite</t>
-  </si>
-  <si>
-    <t>27797813</t>
   </si>
   <si>
     <t>21-01-2026 08:48:24</t>
@@ -16203,10 +16113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P1805"/>
+  <dimension ref="A1:P1800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1811" sqref="A1811"/>
+      <selection activeCell="J1817" sqref="J1817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18826,7 +18736,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>379</v>
       </c>
@@ -18873,7 +18783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>379</v>
       </c>
@@ -92360,40 +92270,40 @@
     </row>
     <row r="1659" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1659" t="s">
         <v>4812</v>
       </c>
-      <c r="B1659" t="s">
+      <c r="F1659" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1659" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1659">
+        <v>389</v>
+      </c>
+      <c r="J1659" t="s">
         <v>4813</v>
       </c>
-      <c r="C1659" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1659" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1659" t="s">
+      <c r="K1659" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1659" t="s">
         <v>4814</v>
-      </c>
-      <c r="F1659" t="s">
-        <v>4815</v>
-      </c>
-      <c r="G1659" t="s">
-        <v>3190</v>
-      </c>
-      <c r="H1659" t="s">
-        <v>4816</v>
-      </c>
-      <c r="I1659">
-        <v>63</v>
-      </c>
-      <c r="J1659" t="s">
-        <v>4817</v>
-      </c>
-      <c r="K1659" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1659" t="s">
-        <v>4818</v>
       </c>
       <c r="M1659" t="s">
         <v>26</v>
@@ -92407,40 +92317,40 @@
     </row>
     <row r="1660" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1660" t="s">
-        <v>4812</v>
+        <v>1281</v>
       </c>
       <c r="B1660" t="s">
-        <v>4813</v>
+        <v>43</v>
       </c>
       <c r="C1660" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1660" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1660" t="s">
-        <v>4819</v>
+        <v>4815</v>
       </c>
       <c r="F1660" t="s">
-        <v>3876</v>
+        <v>39</v>
       </c>
       <c r="G1660" t="s">
-        <v>3190</v>
+        <v>21</v>
       </c>
       <c r="H1660" t="s">
-        <v>4820</v>
+        <v>3567</v>
       </c>
       <c r="I1660">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="J1660" t="s">
-        <v>4821</v>
+        <v>4816</v>
       </c>
       <c r="K1660" t="s">
         <v>24</v>
       </c>
       <c r="L1660" t="s">
-        <v>4822</v>
+        <v>4817</v>
       </c>
       <c r="M1660" t="s">
         <v>26</v>
@@ -92454,40 +92364,40 @@
     </row>
     <row r="1661" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
-        <v>4812</v>
+        <v>1281</v>
       </c>
       <c r="B1661" t="s">
-        <v>4813</v>
+        <v>43</v>
       </c>
       <c r="C1661" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1661" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="E1661" t="s">
-        <v>4823</v>
+        <v>4818</v>
       </c>
       <c r="F1661" t="s">
-        <v>4824</v>
+        <v>172</v>
       </c>
       <c r="G1661" t="s">
-        <v>3190</v>
+        <v>21</v>
       </c>
       <c r="H1661" t="s">
-        <v>4825</v>
+        <v>4070</v>
       </c>
       <c r="I1661">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="J1661" t="s">
-        <v>4826</v>
+        <v>4819</v>
       </c>
       <c r="K1661" t="s">
         <v>24</v>
       </c>
       <c r="L1661" t="s">
-        <v>4827</v>
+        <v>4820</v>
       </c>
       <c r="M1661" t="s">
         <v>26</v>
@@ -92501,10 +92411,10 @@
     </row>
     <row r="1662" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
-        <v>4812</v>
+        <v>1281</v>
       </c>
       <c r="B1662" t="s">
-        <v>4813</v>
+        <v>43</v>
       </c>
       <c r="C1662" t="s">
         <v>17</v>
@@ -92513,28 +92423,28 @@
         <v>18</v>
       </c>
       <c r="E1662" t="s">
-        <v>4828</v>
+        <v>4821</v>
       </c>
       <c r="F1662" t="s">
-        <v>4829</v>
+        <v>172</v>
       </c>
       <c r="G1662" t="s">
-        <v>3190</v>
+        <v>21</v>
       </c>
       <c r="H1662" t="s">
-        <v>4816</v>
+        <v>4132</v>
       </c>
       <c r="I1662">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="J1662" t="s">
-        <v>4830</v>
+        <v>4822</v>
       </c>
       <c r="K1662" t="s">
         <v>24</v>
       </c>
       <c r="L1662" t="s">
-        <v>4831</v>
+        <v>4823</v>
       </c>
       <c r="M1662" t="s">
         <v>26</v>
@@ -92548,10 +92458,10 @@
     </row>
     <row r="1663" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
-        <v>4832</v>
+        <v>1281</v>
       </c>
       <c r="B1663" t="s">
-        <v>4833</v>
+        <v>43</v>
       </c>
       <c r="C1663" t="s">
         <v>17</v>
@@ -92560,34 +92470,34 @@
         <v>18</v>
       </c>
       <c r="E1663" t="s">
-        <v>4834</v>
+        <v>4824</v>
       </c>
       <c r="F1663" t="s">
-        <v>4835</v>
+        <v>39</v>
       </c>
       <c r="G1663" t="s">
-        <v>4836</v>
+        <v>21</v>
       </c>
       <c r="H1663" t="s">
-        <v>4837</v>
+        <v>2863</v>
       </c>
       <c r="I1663">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="J1663" t="s">
-        <v>4838</v>
+        <v>4825</v>
       </c>
       <c r="K1663" t="s">
         <v>24</v>
       </c>
       <c r="L1663" t="s">
-        <v>4839</v>
+        <v>4826</v>
       </c>
       <c r="M1663" t="s">
-        <v>4840</v>
+        <v>26</v>
       </c>
       <c r="N1663" t="s">
-        <v>4841</v>
+        <v>26</v>
       </c>
       <c r="O1663" t="s">
         <v>26</v>
@@ -92607,7 +92517,7 @@
         <v>18</v>
       </c>
       <c r="E1664" t="s">
-        <v>4842</v>
+        <v>4827</v>
       </c>
       <c r="F1664" t="s">
         <v>172</v>
@@ -92616,19 +92526,19 @@
         <v>21</v>
       </c>
       <c r="H1664" t="s">
-        <v>173</v>
+        <v>4132</v>
       </c>
       <c r="I1664">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="J1664" t="s">
-        <v>4843</v>
+        <v>4828</v>
       </c>
       <c r="K1664" t="s">
         <v>24</v>
       </c>
       <c r="L1664" t="s">
-        <v>4844</v>
+        <v>4829</v>
       </c>
       <c r="M1664" t="s">
         <v>26</v>
@@ -92642,19 +92552,19 @@
     </row>
     <row r="1665" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1665" t="s">
-        <v>1281</v>
+        <v>2758</v>
       </c>
       <c r="B1665" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C1665" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1665" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1665" t="s">
-        <v>4845</v>
+        <v>4830</v>
       </c>
       <c r="F1665" t="s">
         <v>39</v>
@@ -92663,19 +92573,19 @@
         <v>21</v>
       </c>
       <c r="H1665" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1665">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="J1665" t="s">
-        <v>4846</v>
+        <v>4831</v>
       </c>
       <c r="K1665" t="s">
         <v>24</v>
       </c>
       <c r="L1665" t="s">
-        <v>4847</v>
+        <v>4832</v>
       </c>
       <c r="M1665" t="s">
         <v>26</v>
@@ -92689,40 +92599,40 @@
     </row>
     <row r="1666" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1666" t="s">
-        <v>1281</v>
+        <v>2758</v>
       </c>
       <c r="B1666" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C1666" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1666" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1666" t="s">
-        <v>4848</v>
+        <v>4833</v>
       </c>
       <c r="F1666" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="G1666" t="s">
         <v>21</v>
       </c>
       <c r="H1666" t="s">
-        <v>4070</v>
+        <v>3567</v>
       </c>
       <c r="I1666">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J1666" t="s">
-        <v>4849</v>
+        <v>4834</v>
       </c>
       <c r="K1666" t="s">
         <v>24</v>
       </c>
       <c r="L1666" t="s">
-        <v>4850</v>
+        <v>4835</v>
       </c>
       <c r="M1666" t="s">
         <v>26</v>
@@ -92736,40 +92646,40 @@
     </row>
     <row r="1667" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
-        <v>1281</v>
+        <v>2758</v>
       </c>
       <c r="B1667" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C1667" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1667" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1667" t="s">
-        <v>4851</v>
+        <v>4836</v>
       </c>
       <c r="F1667" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1667" t="s">
         <v>21</v>
       </c>
       <c r="H1667" t="s">
-        <v>4132</v>
+        <v>714</v>
       </c>
       <c r="I1667">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="J1667" t="s">
-        <v>4852</v>
+        <v>4837</v>
       </c>
       <c r="K1667" t="s">
         <v>24</v>
       </c>
       <c r="L1667" t="s">
-        <v>4853</v>
+        <v>4838</v>
       </c>
       <c r="M1667" t="s">
         <v>26</v>
@@ -92783,19 +92693,19 @@
     </row>
     <row r="1668" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1668" t="s">
-        <v>1281</v>
+        <v>2758</v>
       </c>
       <c r="B1668" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C1668" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1668" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1668" t="s">
-        <v>4854</v>
+        <v>4839</v>
       </c>
       <c r="F1668" t="s">
         <v>39</v>
@@ -92804,19 +92714,19 @@
         <v>21</v>
       </c>
       <c r="H1668" t="s">
-        <v>2863</v>
+        <v>896</v>
       </c>
       <c r="I1668">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="J1668" t="s">
-        <v>4855</v>
+        <v>1338</v>
       </c>
       <c r="K1668" t="s">
         <v>24</v>
       </c>
       <c r="L1668" t="s">
-        <v>4856</v>
+        <v>4840</v>
       </c>
       <c r="M1668" t="s">
         <v>26</v>
@@ -92830,40 +92740,40 @@
     </row>
     <row r="1669" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1669" t="s">
-        <v>1281</v>
+        <v>2758</v>
       </c>
       <c r="B1669" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C1669" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1669" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1669" t="s">
-        <v>4857</v>
+        <v>4841</v>
       </c>
       <c r="F1669" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1669" t="s">
         <v>21</v>
       </c>
       <c r="H1669" t="s">
-        <v>4132</v>
+        <v>896</v>
       </c>
       <c r="I1669">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="J1669" t="s">
-        <v>4858</v>
+        <v>4842</v>
       </c>
       <c r="K1669" t="s">
         <v>24</v>
       </c>
       <c r="L1669" t="s">
-        <v>4859</v>
+        <v>4843</v>
       </c>
       <c r="M1669" t="s">
         <v>26</v>
@@ -92877,10 +92787,10 @@
     </row>
     <row r="1670" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1670" t="s">
-        <v>2758</v>
+        <v>432</v>
       </c>
       <c r="B1670" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="C1670" t="s">
         <v>36</v>
@@ -92889,7 +92799,7 @@
         <v>37</v>
       </c>
       <c r="E1670" t="s">
-        <v>4860</v>
+        <v>4844</v>
       </c>
       <c r="F1670" t="s">
         <v>39</v>
@@ -92901,16 +92811,16 @@
         <v>2863</v>
       </c>
       <c r="I1670">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="J1670" t="s">
-        <v>4861</v>
+        <v>4845</v>
       </c>
       <c r="K1670" t="s">
         <v>24</v>
       </c>
       <c r="L1670" t="s">
-        <v>4862</v>
+        <v>4846</v>
       </c>
       <c r="M1670" t="s">
         <v>26</v>
@@ -92924,10 +92834,10 @@
     </row>
     <row r="1671" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1671" t="s">
-        <v>2758</v>
+        <v>4847</v>
       </c>
       <c r="B1671" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="C1671" t="s">
         <v>36</v>
@@ -92936,34 +92846,34 @@
         <v>37</v>
       </c>
       <c r="E1671" t="s">
-        <v>4863</v>
+        <v>4848</v>
       </c>
       <c r="F1671" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="G1671" t="s">
         <v>21</v>
       </c>
       <c r="H1671" t="s">
-        <v>3567</v>
+        <v>4070</v>
       </c>
       <c r="I1671">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J1671" t="s">
-        <v>4864</v>
+        <v>4849</v>
       </c>
       <c r="K1671" t="s">
         <v>24</v>
       </c>
       <c r="L1671" t="s">
-        <v>4865</v>
+        <v>4850</v>
       </c>
       <c r="M1671" t="s">
-        <v>26</v>
+        <v>4851</v>
       </c>
       <c r="N1671" t="s">
-        <v>26</v>
+        <v>4852</v>
       </c>
       <c r="O1671" t="s">
         <v>26</v>
@@ -92971,10 +92881,10 @@
     </row>
     <row r="1672" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
-        <v>2758</v>
+        <v>4847</v>
       </c>
       <c r="B1672" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="C1672" t="s">
         <v>36</v>
@@ -92983,34 +92893,34 @@
         <v>37</v>
       </c>
       <c r="E1672" t="s">
-        <v>4866</v>
+        <v>4853</v>
       </c>
       <c r="F1672" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1672" t="s">
         <v>21</v>
       </c>
       <c r="H1672" t="s">
-        <v>714</v>
+        <v>2863</v>
       </c>
       <c r="I1672">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="J1672" t="s">
-        <v>4867</v>
+        <v>4854</v>
       </c>
       <c r="K1672" t="s">
         <v>24</v>
       </c>
       <c r="L1672" t="s">
-        <v>4868</v>
+        <v>4855</v>
       </c>
       <c r="M1672" t="s">
-        <v>26</v>
+        <v>4851</v>
       </c>
       <c r="N1672" t="s">
-        <v>26</v>
+        <v>4852</v>
       </c>
       <c r="O1672" t="s">
         <v>26</v>
@@ -93018,10 +92928,10 @@
     </row>
     <row r="1673" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
-        <v>2758</v>
+        <v>4847</v>
       </c>
       <c r="B1673" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="C1673" t="s">
         <v>36</v>
@@ -93030,7 +92940,7 @@
         <v>37</v>
       </c>
       <c r="E1673" t="s">
-        <v>4869</v>
+        <v>4856</v>
       </c>
       <c r="F1673" t="s">
         <v>39</v>
@@ -93039,25 +92949,25 @@
         <v>21</v>
       </c>
       <c r="H1673" t="s">
-        <v>896</v>
+        <v>2863</v>
       </c>
       <c r="I1673">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="J1673" t="s">
-        <v>1338</v>
+        <v>4857</v>
       </c>
       <c r="K1673" t="s">
         <v>24</v>
       </c>
       <c r="L1673" t="s">
-        <v>4870</v>
+        <v>4858</v>
       </c>
       <c r="M1673" t="s">
-        <v>26</v>
+        <v>4851</v>
       </c>
       <c r="N1673" t="s">
-        <v>26</v>
+        <v>4852</v>
       </c>
       <c r="O1673" t="s">
         <v>26</v>
@@ -93065,40 +92975,40 @@
     </row>
     <row r="1674" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
-        <v>2758</v>
+        <v>1627</v>
       </c>
       <c r="B1674" t="s">
-        <v>74</v>
+        <v>1628</v>
       </c>
       <c r="C1674" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1674" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1674" t="s">
-        <v>4871</v>
+        <v>4859</v>
       </c>
       <c r="F1674" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="G1674" t="s">
         <v>21</v>
       </c>
       <c r="H1674" t="s">
-        <v>896</v>
+        <v>3638</v>
       </c>
       <c r="I1674">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="J1674" t="s">
-        <v>4872</v>
+        <v>4860</v>
       </c>
       <c r="K1674" t="s">
         <v>24</v>
       </c>
       <c r="L1674" t="s">
-        <v>4873</v>
+        <v>4861</v>
       </c>
       <c r="M1674" t="s">
         <v>26</v>
@@ -93112,19 +93022,19 @@
     </row>
     <row r="1675" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1675" t="s">
-        <v>432</v>
+        <v>1627</v>
       </c>
       <c r="B1675" t="s">
-        <v>432</v>
+        <v>1628</v>
       </c>
       <c r="C1675" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1675" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1675" t="s">
-        <v>4874</v>
+        <v>4862</v>
       </c>
       <c r="F1675" t="s">
         <v>39</v>
@@ -93133,19 +93043,19 @@
         <v>21</v>
       </c>
       <c r="H1675" t="s">
-        <v>2863</v>
+        <v>3567</v>
       </c>
       <c r="I1675">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="J1675" t="s">
-        <v>4875</v>
+        <v>4863</v>
       </c>
       <c r="K1675" t="s">
         <v>24</v>
       </c>
       <c r="L1675" t="s">
-        <v>4876</v>
+        <v>4864</v>
       </c>
       <c r="M1675" t="s">
         <v>26</v>
@@ -93159,10 +93069,10 @@
     </row>
     <row r="1676" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1676" t="s">
-        <v>4877</v>
+        <v>1627</v>
       </c>
       <c r="B1676" t="s">
-        <v>432</v>
+        <v>1628</v>
       </c>
       <c r="C1676" t="s">
         <v>36</v>
@@ -93171,34 +93081,34 @@
         <v>37</v>
       </c>
       <c r="E1676" t="s">
-        <v>4878</v>
+        <v>4865</v>
       </c>
       <c r="F1676" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1676" t="s">
         <v>21</v>
       </c>
       <c r="H1676" t="s">
-        <v>4070</v>
+        <v>3567</v>
       </c>
       <c r="I1676">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="J1676" t="s">
-        <v>4879</v>
+        <v>4706</v>
       </c>
       <c r="K1676" t="s">
         <v>24</v>
       </c>
       <c r="L1676" t="s">
-        <v>4880</v>
+        <v>4866</v>
       </c>
       <c r="M1676" t="s">
-        <v>4881</v>
+        <v>26</v>
       </c>
       <c r="N1676" t="s">
-        <v>4882</v>
+        <v>26</v>
       </c>
       <c r="O1676" t="s">
         <v>26</v>
@@ -93206,46 +93116,46 @@
     </row>
     <row r="1677" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1677" t="s">
-        <v>4877</v>
+        <v>1627</v>
       </c>
       <c r="B1677" t="s">
-        <v>432</v>
+        <v>1628</v>
       </c>
       <c r="C1677" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1677" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1677" t="s">
-        <v>4883</v>
+        <v>4867</v>
       </c>
       <c r="F1677" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1677" t="s">
         <v>21</v>
       </c>
       <c r="H1677" t="s">
-        <v>2863</v>
+        <v>4070</v>
       </c>
       <c r="I1677">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="J1677" t="s">
-        <v>4884</v>
+        <v>4868</v>
       </c>
       <c r="K1677" t="s">
         <v>24</v>
       </c>
       <c r="L1677" t="s">
-        <v>4885</v>
+        <v>4869</v>
       </c>
       <c r="M1677" t="s">
-        <v>4881</v>
+        <v>26</v>
       </c>
       <c r="N1677" t="s">
-        <v>4882</v>
+        <v>26</v>
       </c>
       <c r="O1677" t="s">
         <v>26</v>
@@ -93253,46 +93163,46 @@
     </row>
     <row r="1678" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
-        <v>4877</v>
+        <v>1627</v>
       </c>
       <c r="B1678" t="s">
-        <v>432</v>
+        <v>1628</v>
       </c>
       <c r="C1678" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1678" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1678" t="s">
-        <v>4886</v>
+        <v>4870</v>
       </c>
       <c r="F1678" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1678" t="s">
         <v>21</v>
       </c>
       <c r="H1678" t="s">
-        <v>2863</v>
+        <v>4132</v>
       </c>
       <c r="I1678">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="J1678" t="s">
-        <v>4887</v>
+        <v>4871</v>
       </c>
       <c r="K1678" t="s">
         <v>24</v>
       </c>
       <c r="L1678" t="s">
-        <v>4888</v>
+        <v>4872</v>
       </c>
       <c r="M1678" t="s">
-        <v>4881</v>
+        <v>26</v>
       </c>
       <c r="N1678" t="s">
-        <v>4882</v>
+        <v>26</v>
       </c>
       <c r="O1678" t="s">
         <v>26</v>
@@ -93306,34 +93216,34 @@
         <v>1628</v>
       </c>
       <c r="C1679" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1679" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1679" t="s">
-        <v>4889</v>
+        <v>4873</v>
       </c>
       <c r="F1679" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="G1679" t="s">
         <v>21</v>
       </c>
       <c r="H1679" t="s">
-        <v>3638</v>
+        <v>2863</v>
       </c>
       <c r="I1679">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="J1679" t="s">
-        <v>4890</v>
+        <v>4874</v>
       </c>
       <c r="K1679" t="s">
         <v>24</v>
       </c>
       <c r="L1679" t="s">
-        <v>4891</v>
+        <v>4875</v>
       </c>
       <c r="M1679" t="s">
         <v>26</v>
@@ -93359,28 +93269,28 @@
         <v>18</v>
       </c>
       <c r="E1680" t="s">
-        <v>4892</v>
+        <v>4876</v>
       </c>
       <c r="F1680" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1680" t="s">
         <v>21</v>
       </c>
       <c r="H1680" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1680">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="J1680" t="s">
-        <v>4893</v>
+        <v>3201</v>
       </c>
       <c r="K1680" t="s">
         <v>24</v>
       </c>
       <c r="L1680" t="s">
-        <v>4894</v>
+        <v>4877</v>
       </c>
       <c r="M1680" t="s">
         <v>26</v>
@@ -93394,19 +93304,19 @@
     </row>
     <row r="1681" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1681" t="s">
-        <v>1627</v>
+        <v>2774</v>
       </c>
       <c r="B1681" t="s">
-        <v>1628</v>
+        <v>116</v>
       </c>
       <c r="C1681" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1681" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1681" t="s">
-        <v>4895</v>
+        <v>4878</v>
       </c>
       <c r="F1681" t="s">
         <v>39</v>
@@ -93415,19 +93325,19 @@
         <v>21</v>
       </c>
       <c r="H1681" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1681">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J1681" t="s">
-        <v>4706</v>
+        <v>4789</v>
       </c>
       <c r="K1681" t="s">
         <v>24</v>
       </c>
       <c r="L1681" t="s">
-        <v>4896</v>
+        <v>4879</v>
       </c>
       <c r="M1681" t="s">
         <v>26</v>
@@ -93441,10 +93351,10 @@
     </row>
     <row r="1682" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1682" t="s">
-        <v>1627</v>
+        <v>2774</v>
       </c>
       <c r="B1682" t="s">
-        <v>1628</v>
+        <v>116</v>
       </c>
       <c r="C1682" t="s">
         <v>17</v>
@@ -93453,28 +93363,28 @@
         <v>18</v>
       </c>
       <c r="E1682" t="s">
-        <v>4897</v>
+        <v>4880</v>
       </c>
       <c r="F1682" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G1682" t="s">
         <v>21</v>
       </c>
       <c r="H1682" t="s">
-        <v>4070</v>
+        <v>3567</v>
       </c>
       <c r="I1682">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="J1682" t="s">
-        <v>4898</v>
+        <v>4458</v>
       </c>
       <c r="K1682" t="s">
         <v>24</v>
       </c>
       <c r="L1682" t="s">
-        <v>4899</v>
+        <v>4881</v>
       </c>
       <c r="M1682" t="s">
         <v>26</v>
@@ -93488,10 +93398,10 @@
     </row>
     <row r="1683" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1683" t="s">
-        <v>1627</v>
+        <v>2774</v>
       </c>
       <c r="B1683" t="s">
-        <v>1628</v>
+        <v>116</v>
       </c>
       <c r="C1683" t="s">
         <v>17</v>
@@ -93500,28 +93410,28 @@
         <v>18</v>
       </c>
       <c r="E1683" t="s">
-        <v>4900</v>
+        <v>4882</v>
       </c>
       <c r="F1683" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1683" t="s">
         <v>21</v>
       </c>
       <c r="H1683" t="s">
-        <v>4132</v>
+        <v>714</v>
       </c>
       <c r="I1683">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="J1683" t="s">
-        <v>4901</v>
+        <v>4883</v>
       </c>
       <c r="K1683" t="s">
         <v>24</v>
       </c>
       <c r="L1683" t="s">
-        <v>4902</v>
+        <v>4884</v>
       </c>
       <c r="M1683" t="s">
         <v>26</v>
@@ -93535,40 +93445,40 @@
     </row>
     <row r="1684" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1684" t="s">
-        <v>1627</v>
+        <v>2774</v>
       </c>
       <c r="B1684" t="s">
-        <v>1628</v>
+        <v>116</v>
       </c>
       <c r="C1684" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1684" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1684" t="s">
-        <v>4903</v>
+        <v>4885</v>
       </c>
       <c r="F1684" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1684" t="s">
         <v>21</v>
       </c>
       <c r="H1684" t="s">
-        <v>2863</v>
+        <v>714</v>
       </c>
       <c r="I1684">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J1684" t="s">
-        <v>4904</v>
+        <v>4886</v>
       </c>
       <c r="K1684" t="s">
         <v>24</v>
       </c>
       <c r="L1684" t="s">
-        <v>4905</v>
+        <v>4887</v>
       </c>
       <c r="M1684" t="s">
         <v>26</v>
@@ -93582,10 +93492,10 @@
     </row>
     <row r="1685" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1685" t="s">
-        <v>1627</v>
+        <v>2774</v>
       </c>
       <c r="B1685" t="s">
-        <v>1628</v>
+        <v>116</v>
       </c>
       <c r="C1685" t="s">
         <v>17</v>
@@ -93594,28 +93504,28 @@
         <v>18</v>
       </c>
       <c r="E1685" t="s">
-        <v>4906</v>
+        <v>4888</v>
       </c>
       <c r="F1685" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G1685" t="s">
         <v>21</v>
       </c>
       <c r="H1685" t="s">
-        <v>2863</v>
+        <v>896</v>
       </c>
       <c r="I1685">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J1685" t="s">
-        <v>3201</v>
+        <v>1029</v>
       </c>
       <c r="K1685" t="s">
         <v>24</v>
       </c>
       <c r="L1685" t="s">
-        <v>4907</v>
+        <v>4889</v>
       </c>
       <c r="M1685" t="s">
         <v>26</v>
@@ -93641,7 +93551,7 @@
         <v>18</v>
       </c>
       <c r="E1686" t="s">
-        <v>4908</v>
+        <v>4890</v>
       </c>
       <c r="F1686" t="s">
         <v>39</v>
@@ -93653,16 +93563,16 @@
         <v>2863</v>
       </c>
       <c r="I1686">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="J1686" t="s">
-        <v>4789</v>
+        <v>3971</v>
       </c>
       <c r="K1686" t="s">
         <v>24</v>
       </c>
       <c r="L1686" t="s">
-        <v>4909</v>
+        <v>4891</v>
       </c>
       <c r="M1686" t="s">
         <v>26</v>
@@ -93688,28 +93598,28 @@
         <v>18</v>
       </c>
       <c r="E1687" t="s">
-        <v>4910</v>
+        <v>4892</v>
       </c>
       <c r="F1687" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G1687" t="s">
         <v>21</v>
       </c>
       <c r="H1687" t="s">
-        <v>3567</v>
+        <v>4132</v>
       </c>
       <c r="I1687">
         <v>195</v>
       </c>
       <c r="J1687" t="s">
-        <v>4458</v>
+        <v>4893</v>
       </c>
       <c r="K1687" t="s">
         <v>24</v>
       </c>
       <c r="L1687" t="s">
-        <v>4911</v>
+        <v>4894</v>
       </c>
       <c r="M1687" t="s">
         <v>26</v>
@@ -93723,40 +93633,40 @@
     </row>
     <row r="1688" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1688" t="s">
-        <v>2774</v>
+        <v>946</v>
       </c>
       <c r="B1688" t="s">
-        <v>116</v>
+        <v>1039</v>
       </c>
       <c r="C1688" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1688" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E1688" t="s">
-        <v>4912</v>
+        <v>4895</v>
       </c>
       <c r="F1688" t="s">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="G1688" t="s">
         <v>21</v>
       </c>
       <c r="H1688" t="s">
-        <v>714</v>
+        <v>3638</v>
       </c>
       <c r="I1688">
-        <v>332</v>
+        <v>532</v>
       </c>
       <c r="J1688" t="s">
-        <v>4913</v>
+        <v>4896</v>
       </c>
       <c r="K1688" t="s">
         <v>24</v>
       </c>
       <c r="L1688" t="s">
-        <v>4914</v>
+        <v>4897</v>
       </c>
       <c r="M1688" t="s">
         <v>26</v>
@@ -93770,40 +93680,40 @@
     </row>
     <row r="1689" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1689" t="s">
-        <v>2774</v>
+        <v>53</v>
       </c>
       <c r="B1689" t="s">
-        <v>116</v>
+        <v>1324</v>
       </c>
       <c r="C1689" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1689" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1689" t="s">
-        <v>4915</v>
+        <v>4898</v>
       </c>
       <c r="F1689" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1689" t="s">
         <v>21</v>
       </c>
       <c r="H1689" t="s">
-        <v>714</v>
+        <v>2863</v>
       </c>
       <c r="I1689">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J1689" t="s">
-        <v>4916</v>
+        <v>4899</v>
       </c>
       <c r="K1689" t="s">
         <v>24</v>
       </c>
       <c r="L1689" t="s">
-        <v>4917</v>
+        <v>4900</v>
       </c>
       <c r="M1689" t="s">
         <v>26</v>
@@ -93817,10 +93727,10 @@
     </row>
     <row r="1690" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1690" t="s">
-        <v>2774</v>
+        <v>53</v>
       </c>
       <c r="B1690" t="s">
-        <v>116</v>
+        <v>1324</v>
       </c>
       <c r="C1690" t="s">
         <v>17</v>
@@ -93829,34 +93739,34 @@
         <v>18</v>
       </c>
       <c r="E1690" t="s">
-        <v>4918</v>
+        <v>4901</v>
       </c>
       <c r="F1690" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1690" t="s">
         <v>21</v>
       </c>
       <c r="H1690" t="s">
-        <v>896</v>
+        <v>3567</v>
       </c>
       <c r="I1690">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J1690" t="s">
-        <v>1029</v>
+        <v>4902</v>
       </c>
       <c r="K1690" t="s">
         <v>24</v>
       </c>
       <c r="L1690" t="s">
-        <v>4919</v>
+        <v>4903</v>
       </c>
       <c r="M1690" t="s">
-        <v>26</v>
+        <v>4904</v>
       </c>
       <c r="N1690" t="s">
-        <v>26</v>
+        <v>4905</v>
       </c>
       <c r="O1690" t="s">
         <v>26</v>
@@ -93864,10 +93774,10 @@
     </row>
     <row r="1691" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1691" t="s">
-        <v>2774</v>
+        <v>53</v>
       </c>
       <c r="B1691" t="s">
-        <v>116</v>
+        <v>1324</v>
       </c>
       <c r="C1691" t="s">
         <v>17</v>
@@ -93876,34 +93786,34 @@
         <v>18</v>
       </c>
       <c r="E1691" t="s">
-        <v>4920</v>
+        <v>4906</v>
       </c>
       <c r="F1691" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1691" t="s">
         <v>21</v>
       </c>
       <c r="H1691" t="s">
-        <v>2863</v>
+        <v>4070</v>
       </c>
       <c r="I1691">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="J1691" t="s">
-        <v>3971</v>
+        <v>4907</v>
       </c>
       <c r="K1691" t="s">
         <v>24</v>
       </c>
       <c r="L1691" t="s">
-        <v>4921</v>
+        <v>4908</v>
       </c>
       <c r="M1691" t="s">
-        <v>26</v>
+        <v>4904</v>
       </c>
       <c r="N1691" t="s">
-        <v>26</v>
+        <v>4905</v>
       </c>
       <c r="O1691" t="s">
         <v>26</v>
@@ -93911,10 +93821,10 @@
     </row>
     <row r="1692" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1692" t="s">
-        <v>2774</v>
+        <v>53</v>
       </c>
       <c r="B1692" t="s">
-        <v>116</v>
+        <v>1324</v>
       </c>
       <c r="C1692" t="s">
         <v>17</v>
@@ -93923,34 +93833,34 @@
         <v>18</v>
       </c>
       <c r="E1692" t="s">
-        <v>4922</v>
+        <v>4909</v>
       </c>
       <c r="F1692" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1692" t="s">
         <v>21</v>
       </c>
       <c r="H1692" t="s">
-        <v>4132</v>
+        <v>714</v>
       </c>
       <c r="I1692">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="J1692" t="s">
-        <v>4923</v>
+        <v>2182</v>
       </c>
       <c r="K1692" t="s">
         <v>24</v>
       </c>
       <c r="L1692" t="s">
-        <v>4924</v>
+        <v>4910</v>
       </c>
       <c r="M1692" t="s">
-        <v>26</v>
+        <v>4904</v>
       </c>
       <c r="N1692" t="s">
-        <v>26</v>
+        <v>4905</v>
       </c>
       <c r="O1692" t="s">
         <v>26</v>
@@ -93958,46 +93868,46 @@
     </row>
     <row r="1693" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1693" t="s">
-        <v>946</v>
+        <v>53</v>
       </c>
       <c r="B1693" t="s">
-        <v>1039</v>
+        <v>1324</v>
       </c>
       <c r="C1693" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1693" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E1693" t="s">
-        <v>4925</v>
+        <v>4911</v>
       </c>
       <c r="F1693" t="s">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="G1693" t="s">
         <v>21</v>
       </c>
       <c r="H1693" t="s">
-        <v>3638</v>
+        <v>896</v>
       </c>
       <c r="I1693">
-        <v>532</v>
+        <v>220</v>
       </c>
       <c r="J1693" t="s">
-        <v>4926</v>
+        <v>1231</v>
       </c>
       <c r="K1693" t="s">
         <v>24</v>
       </c>
       <c r="L1693" t="s">
-        <v>4927</v>
+        <v>4912</v>
       </c>
       <c r="M1693" t="s">
-        <v>26</v>
+        <v>4904</v>
       </c>
       <c r="N1693" t="s">
-        <v>26</v>
+        <v>4905</v>
       </c>
       <c r="O1693" t="s">
         <v>26</v>
@@ -94011,13 +93921,13 @@
         <v>1324</v>
       </c>
       <c r="C1694" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1694" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1694" t="s">
-        <v>4928</v>
+        <v>4913</v>
       </c>
       <c r="F1694" t="s">
         <v>39</v>
@@ -94026,25 +93936,25 @@
         <v>21</v>
       </c>
       <c r="H1694" t="s">
-        <v>2863</v>
+        <v>896</v>
       </c>
       <c r="I1694">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="J1694" t="s">
-        <v>4929</v>
+        <v>4914</v>
       </c>
       <c r="K1694" t="s">
         <v>24</v>
       </c>
       <c r="L1694" t="s">
-        <v>4930</v>
+        <v>4915</v>
       </c>
       <c r="M1694" t="s">
-        <v>26</v>
+        <v>4904</v>
       </c>
       <c r="N1694" t="s">
-        <v>26</v>
+        <v>4905</v>
       </c>
       <c r="O1694" t="s">
         <v>26</v>
@@ -94064,34 +93974,34 @@
         <v>18</v>
       </c>
       <c r="E1695" t="s">
-        <v>4931</v>
+        <v>4916</v>
       </c>
       <c r="F1695" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G1695" t="s">
         <v>21</v>
       </c>
       <c r="H1695" t="s">
-        <v>3567</v>
+        <v>4132</v>
       </c>
       <c r="I1695">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="J1695" t="s">
-        <v>4932</v>
+        <v>4917</v>
       </c>
       <c r="K1695" t="s">
         <v>24</v>
       </c>
       <c r="L1695" t="s">
-        <v>4933</v>
+        <v>4918</v>
       </c>
       <c r="M1695" t="s">
-        <v>4934</v>
+        <v>4904</v>
       </c>
       <c r="N1695" t="s">
-        <v>4935</v>
+        <v>4905</v>
       </c>
       <c r="O1695" t="s">
         <v>26</v>
@@ -94099,10 +94009,10 @@
     </row>
     <row r="1696" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1696" t="s">
-        <v>53</v>
+        <v>1390</v>
       </c>
       <c r="B1696" t="s">
-        <v>1324</v>
+        <v>54</v>
       </c>
       <c r="C1696" t="s">
         <v>17</v>
@@ -94111,34 +94021,34 @@
         <v>18</v>
       </c>
       <c r="E1696" t="s">
-        <v>4936</v>
+        <v>4919</v>
       </c>
       <c r="F1696" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1696" t="s">
         <v>21</v>
       </c>
       <c r="H1696" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1696">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="J1696" t="s">
-        <v>4937</v>
+        <v>4920</v>
       </c>
       <c r="K1696" t="s">
         <v>24</v>
       </c>
       <c r="L1696" t="s">
-        <v>4938</v>
+        <v>4921</v>
       </c>
       <c r="M1696" t="s">
-        <v>4934</v>
+        <v>26</v>
       </c>
       <c r="N1696" t="s">
-        <v>4935</v>
+        <v>26</v>
       </c>
       <c r="O1696" t="s">
         <v>26</v>
@@ -94146,10 +94056,10 @@
     </row>
     <row r="1697" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1697" t="s">
-        <v>53</v>
+        <v>1390</v>
       </c>
       <c r="B1697" t="s">
-        <v>1324</v>
+        <v>54</v>
       </c>
       <c r="C1697" t="s">
         <v>17</v>
@@ -94158,7 +94068,7 @@
         <v>18</v>
       </c>
       <c r="E1697" t="s">
-        <v>4939</v>
+        <v>4922</v>
       </c>
       <c r="F1697" t="s">
         <v>20</v>
@@ -94167,25 +94077,25 @@
         <v>21</v>
       </c>
       <c r="H1697" t="s">
-        <v>714</v>
+        <v>2875</v>
       </c>
       <c r="I1697">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="J1697" t="s">
-        <v>2182</v>
+        <v>4923</v>
       </c>
       <c r="K1697" t="s">
         <v>24</v>
       </c>
       <c r="L1697" t="s">
-        <v>4940</v>
+        <v>4924</v>
       </c>
       <c r="M1697" t="s">
-        <v>4934</v>
+        <v>26</v>
       </c>
       <c r="N1697" t="s">
-        <v>4935</v>
+        <v>26</v>
       </c>
       <c r="O1697" t="s">
         <v>26</v>
@@ -94193,10 +94103,10 @@
     </row>
     <row r="1698" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1698" t="s">
-        <v>53</v>
+        <v>1390</v>
       </c>
       <c r="B1698" t="s">
-        <v>1324</v>
+        <v>54</v>
       </c>
       <c r="C1698" t="s">
         <v>17</v>
@@ -94205,34 +94115,34 @@
         <v>18</v>
       </c>
       <c r="E1698" t="s">
-        <v>4941</v>
+        <v>4925</v>
       </c>
       <c r="F1698" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1698" t="s">
         <v>21</v>
       </c>
       <c r="H1698" t="s">
-        <v>896</v>
+        <v>4070</v>
       </c>
       <c r="I1698">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="J1698" t="s">
-        <v>1231</v>
+        <v>4926</v>
       </c>
       <c r="K1698" t="s">
         <v>24</v>
       </c>
       <c r="L1698" t="s">
-        <v>4942</v>
+        <v>4927</v>
       </c>
       <c r="M1698" t="s">
-        <v>4934</v>
+        <v>26</v>
       </c>
       <c r="N1698" t="s">
-        <v>4935</v>
+        <v>26</v>
       </c>
       <c r="O1698" t="s">
         <v>26</v>
@@ -94240,10 +94150,10 @@
     </row>
     <row r="1699" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1699" t="s">
-        <v>53</v>
+        <v>1390</v>
       </c>
       <c r="B1699" t="s">
-        <v>1324</v>
+        <v>54</v>
       </c>
       <c r="C1699" t="s">
         <v>17</v>
@@ -94252,10 +94162,10 @@
         <v>18</v>
       </c>
       <c r="E1699" t="s">
-        <v>4943</v>
+        <v>4928</v>
       </c>
       <c r="F1699" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="G1699" t="s">
         <v>21</v>
@@ -94264,22 +94174,22 @@
         <v>896</v>
       </c>
       <c r="I1699">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="J1699" t="s">
-        <v>4944</v>
+        <v>4298</v>
       </c>
       <c r="K1699" t="s">
         <v>24</v>
       </c>
       <c r="L1699" t="s">
-        <v>4945</v>
+        <v>4929</v>
       </c>
       <c r="M1699" t="s">
-        <v>4934</v>
+        <v>26</v>
       </c>
       <c r="N1699" t="s">
-        <v>4935</v>
+        <v>26</v>
       </c>
       <c r="O1699" t="s">
         <v>26</v>
@@ -94287,10 +94197,10 @@
     </row>
     <row r="1700" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1700" t="s">
-        <v>53</v>
+        <v>1390</v>
       </c>
       <c r="B1700" t="s">
-        <v>1324</v>
+        <v>54</v>
       </c>
       <c r="C1700" t="s">
         <v>17</v>
@@ -94299,7 +94209,7 @@
         <v>18</v>
       </c>
       <c r="E1700" t="s">
-        <v>4946</v>
+        <v>4930</v>
       </c>
       <c r="F1700" t="s">
         <v>172</v>
@@ -94311,22 +94221,22 @@
         <v>4132</v>
       </c>
       <c r="I1700">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J1700" t="s">
-        <v>4947</v>
+        <v>4931</v>
       </c>
       <c r="K1700" t="s">
         <v>24</v>
       </c>
       <c r="L1700" t="s">
-        <v>4948</v>
+        <v>4932</v>
       </c>
       <c r="M1700" t="s">
-        <v>4934</v>
+        <v>26</v>
       </c>
       <c r="N1700" t="s">
-        <v>4935</v>
+        <v>26</v>
       </c>
       <c r="O1700" t="s">
         <v>26</v>
@@ -94346,28 +94256,28 @@
         <v>18</v>
       </c>
       <c r="E1701" t="s">
-        <v>4949</v>
+        <v>4933</v>
       </c>
       <c r="F1701" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1701" t="s">
         <v>21</v>
       </c>
       <c r="H1701" t="s">
-        <v>2863</v>
+        <v>714</v>
       </c>
       <c r="I1701">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="J1701" t="s">
-        <v>4950</v>
+        <v>839</v>
       </c>
       <c r="K1701" t="s">
         <v>24</v>
       </c>
       <c r="L1701" t="s">
-        <v>4951</v>
+        <v>4934</v>
       </c>
       <c r="M1701" t="s">
         <v>26</v>
@@ -94381,10 +94291,10 @@
     </row>
     <row r="1702" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1702" t="s">
-        <v>1390</v>
+        <v>78</v>
       </c>
       <c r="B1702" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C1702" t="s">
         <v>17</v>
@@ -94393,28 +94303,28 @@
         <v>18</v>
       </c>
       <c r="E1702" t="s">
-        <v>4952</v>
+        <v>4935</v>
       </c>
       <c r="F1702" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1702" t="s">
         <v>21</v>
       </c>
       <c r="H1702" t="s">
-        <v>2875</v>
+        <v>2863</v>
       </c>
       <c r="I1702">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="J1702" t="s">
-        <v>4953</v>
+        <v>4025</v>
       </c>
       <c r="K1702" t="s">
         <v>24</v>
       </c>
       <c r="L1702" t="s">
-        <v>4954</v>
+        <v>4936</v>
       </c>
       <c r="M1702" t="s">
         <v>26</v>
@@ -94428,10 +94338,10 @@
     </row>
     <row r="1703" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1703" t="s">
-        <v>1390</v>
+        <v>78</v>
       </c>
       <c r="B1703" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C1703" t="s">
         <v>17</v>
@@ -94440,28 +94350,28 @@
         <v>18</v>
       </c>
       <c r="E1703" t="s">
-        <v>4955</v>
+        <v>4937</v>
       </c>
       <c r="F1703" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1703" t="s">
         <v>21</v>
       </c>
       <c r="H1703" t="s">
-        <v>4070</v>
+        <v>3567</v>
       </c>
       <c r="I1703">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="J1703" t="s">
-        <v>4956</v>
+        <v>4938</v>
       </c>
       <c r="K1703" t="s">
         <v>24</v>
       </c>
       <c r="L1703" t="s">
-        <v>4957</v>
+        <v>4939</v>
       </c>
       <c r="M1703" t="s">
         <v>26</v>
@@ -94475,10 +94385,10 @@
     </row>
     <row r="1704" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1704" t="s">
-        <v>1390</v>
+        <v>78</v>
       </c>
       <c r="B1704" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C1704" t="s">
         <v>17</v>
@@ -94487,28 +94397,28 @@
         <v>18</v>
       </c>
       <c r="E1704" t="s">
-        <v>4958</v>
+        <v>4940</v>
       </c>
       <c r="F1704" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="G1704" t="s">
         <v>21</v>
       </c>
       <c r="H1704" t="s">
-        <v>896</v>
+        <v>4070</v>
       </c>
       <c r="I1704">
-        <v>316</v>
+        <v>194</v>
       </c>
       <c r="J1704" t="s">
-        <v>4298</v>
+        <v>4426</v>
       </c>
       <c r="K1704" t="s">
         <v>24</v>
       </c>
       <c r="L1704" t="s">
-        <v>4959</v>
+        <v>4941</v>
       </c>
       <c r="M1704" t="s">
         <v>26</v>
@@ -94522,10 +94432,10 @@
     </row>
     <row r="1705" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1705" t="s">
-        <v>1390</v>
+        <v>78</v>
       </c>
       <c r="B1705" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C1705" t="s">
         <v>17</v>
@@ -94534,28 +94444,28 @@
         <v>18</v>
       </c>
       <c r="E1705" t="s">
-        <v>4960</v>
+        <v>4942</v>
       </c>
       <c r="F1705" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1705" t="s">
         <v>21</v>
       </c>
       <c r="H1705" t="s">
-        <v>4132</v>
+        <v>714</v>
       </c>
       <c r="I1705">
-        <v>186</v>
+        <v>291</v>
       </c>
       <c r="J1705" t="s">
-        <v>4961</v>
+        <v>2182</v>
       </c>
       <c r="K1705" t="s">
         <v>24</v>
       </c>
       <c r="L1705" t="s">
-        <v>4962</v>
+        <v>4943</v>
       </c>
       <c r="M1705" t="s">
         <v>26</v>
@@ -94569,10 +94479,10 @@
     </row>
     <row r="1706" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1706" t="s">
-        <v>1390</v>
+        <v>78</v>
       </c>
       <c r="B1706" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C1706" t="s">
         <v>17</v>
@@ -94581,562 +94491,562 @@
         <v>18</v>
       </c>
       <c r="E1706" t="s">
+        <v>4944</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1706" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1706">
+        <v>223</v>
+      </c>
+      <c r="J1706" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K1706" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1706" t="s">
+        <v>4945</v>
+      </c>
+      <c r="M1706" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1706" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1706" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1707" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1707" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1707" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1707" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1707" s="6" t="s">
+        <v>4946</v>
+      </c>
+      <c r="F1707" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1707" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1707" s="6" t="s">
+        <v>2863</v>
+      </c>
+      <c r="I1707" s="6">
+        <v>238</v>
+      </c>
+      <c r="J1707" s="6" t="s">
+        <v>3832</v>
+      </c>
+      <c r="K1707" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1707" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="M1707" s="6" t="s">
+        <v>4947</v>
+      </c>
+      <c r="N1707" s="6" t="s">
+        <v>4948</v>
+      </c>
+      <c r="O1707" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1708" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1708" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1708" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1708" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1708" s="6" t="s">
+        <v>4949</v>
+      </c>
+      <c r="F1708" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1708" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1708" s="6" t="s">
+        <v>4571</v>
+      </c>
+      <c r="I1708" s="6">
+        <v>146</v>
+      </c>
+      <c r="J1708" s="6" t="s">
+        <v>4572</v>
+      </c>
+      <c r="K1708" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1708" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="M1708" s="6" t="s">
+        <v>4947</v>
+      </c>
+      <c r="N1708" s="6" t="s">
+        <v>4948</v>
+      </c>
+      <c r="O1708" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1709" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1709" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1709" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1709" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1709" s="6" t="s">
+        <v>4950</v>
+      </c>
+      <c r="F1709" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1709" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1709" s="6" t="s">
+        <v>2875</v>
+      </c>
+      <c r="I1709" s="6">
+        <v>192</v>
+      </c>
+      <c r="J1709" s="6" t="s">
+        <v>4951</v>
+      </c>
+      <c r="K1709" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1709" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="M1709" s="6" t="s">
+        <v>4947</v>
+      </c>
+      <c r="N1709" s="6" t="s">
+        <v>4948</v>
+      </c>
+      <c r="O1709" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1710" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1710" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1710" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1710" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1710" s="6" t="s">
+        <v>4952</v>
+      </c>
+      <c r="F1710" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1710" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1710" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1710" s="6">
+        <v>206</v>
+      </c>
+      <c r="J1710" s="6" t="s">
+        <v>4953</v>
+      </c>
+      <c r="K1710" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1710" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="M1710" s="6" t="s">
+        <v>4947</v>
+      </c>
+      <c r="N1710" s="6" t="s">
+        <v>4948</v>
+      </c>
+      <c r="O1710" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1711" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1711" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1711" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1711" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1711" s="6" t="s">
+        <v>4954</v>
+      </c>
+      <c r="F1711" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1711" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1711" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1711" s="6">
+        <v>210</v>
+      </c>
+      <c r="J1711" s="6" t="s">
+        <v>4955</v>
+      </c>
+      <c r="K1711" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1711" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="M1711" s="6" t="s">
+        <v>4947</v>
+      </c>
+      <c r="N1711" s="6" t="s">
+        <v>4948</v>
+      </c>
+      <c r="O1711" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1712" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1712" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="C1712" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1712" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1712" s="7" t="s">
+        <v>4956</v>
+      </c>
+      <c r="F1712" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1712" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1712" s="7" t="s">
+        <v>2863</v>
+      </c>
+      <c r="I1712" s="7">
+        <v>222</v>
+      </c>
+      <c r="J1712" s="7" t="s">
+        <v>3111</v>
+      </c>
+      <c r="K1712" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1712" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="M1712" s="7" t="s">
+        <v>4947</v>
+      </c>
+      <c r="N1712" s="7" t="s">
+        <v>4948</v>
+      </c>
+      <c r="O1712" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1713" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>4957</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1713" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1713" t="s">
+        <v>4070</v>
+      </c>
+      <c r="I1713">
+        <v>340</v>
+      </c>
+      <c r="J1713" t="s">
+        <v>4958</v>
+      </c>
+      <c r="K1713" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1713" t="s">
+        <v>4959</v>
+      </c>
+      <c r="M1713" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1713" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1713" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1714" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>4960</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1714" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1714" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1714">
+        <v>50</v>
+      </c>
+      <c r="J1714" t="s">
+        <v>4961</v>
+      </c>
+      <c r="K1714" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1714" t="s">
+        <v>4962</v>
+      </c>
+      <c r="M1714" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1714" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1714" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1715" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1715" t="s">
         <v>4963</v>
       </c>
-      <c r="F1706" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1706" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1706" t="s">
-        <v>714</v>
-      </c>
-      <c r="I1706">
-        <v>150</v>
-      </c>
-      <c r="J1706" t="s">
-        <v>839</v>
-      </c>
-      <c r="K1706" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1706" t="s">
+      <c r="F1715" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1715" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1715">
+        <v>621</v>
+      </c>
+      <c r="J1715" t="s">
         <v>4964</v>
       </c>
-      <c r="M1706" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1706" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1706" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1707" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1707" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1707" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1707" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1707" t="s">
+      <c r="K1715" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1715" t="s">
         <v>4965</v>
       </c>
-      <c r="F1707" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1707" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1707" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1707">
-        <v>236</v>
-      </c>
-      <c r="J1707" t="s">
-        <v>4025</v>
-      </c>
-      <c r="K1707" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1707" t="s">
+      <c r="M1715" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1715" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1715" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1716" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1716" t="s">
         <v>4966</v>
       </c>
-      <c r="M1707" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1707" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1707" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1708" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1708" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1708" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1708" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1708" t="s">
+      <c r="F1716" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1716" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1716">
+        <v>162</v>
+      </c>
+      <c r="J1716" t="s">
         <v>4967</v>
       </c>
-      <c r="F1708" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1708" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1708" t="s">
-        <v>3567</v>
-      </c>
-      <c r="I1708">
-        <v>205</v>
-      </c>
-      <c r="J1708" t="s">
+      <c r="K1716" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1716" t="s">
         <v>4968</v>
       </c>
-      <c r="K1708" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1708" t="s">
+      <c r="M1716" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1716" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1716" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A1717" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1717" t="s">
         <v>4969</v>
       </c>
-      <c r="M1708" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1708" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1708" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1709" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1709" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1709" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1709" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1709" t="s">
+      <c r="F1717" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1717" t="s">
+        <v>4070</v>
+      </c>
+      <c r="I1717">
+        <v>429</v>
+      </c>
+      <c r="J1717" t="s">
         <v>4970</v>
       </c>
-      <c r="F1709" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1709" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1709" t="s">
-        <v>4070</v>
-      </c>
-      <c r="I1709">
-        <v>194</v>
-      </c>
-      <c r="J1709" t="s">
-        <v>4426</v>
-      </c>
-      <c r="K1709" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1709" t="s">
+      <c r="K1717" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1717" t="s">
         <v>4971</v>
       </c>
-      <c r="M1709" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1709" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1709" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1710" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1710" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1710" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1710" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1710" t="s">
-        <v>4972</v>
-      </c>
-      <c r="F1710" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1710" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1710" t="s">
-        <v>714</v>
-      </c>
-      <c r="I1710">
-        <v>291</v>
-      </c>
-      <c r="J1710" t="s">
-        <v>2182</v>
-      </c>
-      <c r="K1710" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1710" t="s">
-        <v>4973</v>
-      </c>
-      <c r="M1710" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1710" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1710" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1711" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1711" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1711" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1711" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1711" t="s">
-        <v>4974</v>
-      </c>
-      <c r="F1711" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1711" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1711" t="s">
-        <v>896</v>
-      </c>
-      <c r="I1711">
-        <v>223</v>
-      </c>
-      <c r="J1711" t="s">
-        <v>1239</v>
-      </c>
-      <c r="K1711" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1711" t="s">
-        <v>4975</v>
-      </c>
-      <c r="M1711" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1711" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1711" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1712" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1712" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1712" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1712" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1712" s="6" t="s">
-        <v>4976</v>
-      </c>
-      <c r="F1712" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1712" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1712" s="6" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1712" s="6">
-        <v>238</v>
-      </c>
-      <c r="J1712" s="6" t="s">
-        <v>3832</v>
-      </c>
-      <c r="K1712" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1712" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="M1712" s="6" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N1712" s="6" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O1712" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1713" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1713" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1713" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1713" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1713" s="6" t="s">
-        <v>4979</v>
-      </c>
-      <c r="F1713" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1713" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1713" s="6" t="s">
-        <v>4571</v>
-      </c>
-      <c r="I1713" s="6">
-        <v>146</v>
-      </c>
-      <c r="J1713" s="6" t="s">
-        <v>4572</v>
-      </c>
-      <c r="K1713" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1713" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="M1713" s="6" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N1713" s="6" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O1713" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1714" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1714" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1714" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1714" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1714" s="6" t="s">
-        <v>4980</v>
-      </c>
-      <c r="F1714" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1714" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1714" s="6" t="s">
-        <v>2875</v>
-      </c>
-      <c r="I1714" s="6">
-        <v>192</v>
-      </c>
-      <c r="J1714" s="6" t="s">
-        <v>4981</v>
-      </c>
-      <c r="K1714" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1714" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="M1714" s="6" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N1714" s="6" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O1714" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1715" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1715" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1715" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1715" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1715" s="6" t="s">
-        <v>4982</v>
-      </c>
-      <c r="F1715" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1715" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1715" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="I1715" s="6">
-        <v>206</v>
-      </c>
-      <c r="J1715" s="6" t="s">
-        <v>4983</v>
-      </c>
-      <c r="K1715" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1715" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="M1715" s="6" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N1715" s="6" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O1715" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1716" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1716" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1716" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1716" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1716" s="6" t="s">
-        <v>4984</v>
-      </c>
-      <c r="F1716" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1716" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1716" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="I1716" s="6">
-        <v>210</v>
-      </c>
-      <c r="J1716" s="6" t="s">
-        <v>4985</v>
-      </c>
-      <c r="K1716" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1716" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="M1716" s="6" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N1716" s="6" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O1716" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1717" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="B1717" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="C1717" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1717" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1717" s="7" t="s">
-        <v>4986</v>
-      </c>
-      <c r="F1717" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1717" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1717" s="7" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1717" s="7">
-        <v>222</v>
-      </c>
-      <c r="J1717" s="7" t="s">
-        <v>3111</v>
-      </c>
-      <c r="K1717" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1717" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="M1717" s="7" t="s">
-        <v>4977</v>
-      </c>
-      <c r="N1717" s="7" t="s">
-        <v>4978</v>
-      </c>
-      <c r="O1717" s="5" t="s">
+      <c r="M1717" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1717" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1717" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="1718" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1718" t="s">
-        <v>3873</v>
+        <v>218</v>
       </c>
       <c r="B1718" t="s">
-        <v>3874</v>
+        <v>219</v>
       </c>
       <c r="C1718" t="s">
         <v>17</v>
@@ -95145,28 +95055,28 @@
         <v>18</v>
       </c>
       <c r="E1718" t="s">
-        <v>4987</v>
+        <v>4972</v>
       </c>
       <c r="F1718" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1718" t="s">
         <v>21</v>
       </c>
       <c r="H1718" t="s">
-        <v>4070</v>
+        <v>3567</v>
       </c>
       <c r="I1718">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="J1718" t="s">
-        <v>4988</v>
+        <v>4973</v>
       </c>
       <c r="K1718" t="s">
         <v>24</v>
       </c>
       <c r="L1718" t="s">
-        <v>4989</v>
+        <v>4974</v>
       </c>
       <c r="M1718" t="s">
         <v>26</v>
@@ -95180,40 +95090,40 @@
     </row>
     <row r="1719" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1719" t="s">
-        <v>3873</v>
+        <v>218</v>
       </c>
       <c r="B1719" t="s">
-        <v>3874</v>
+        <v>219</v>
       </c>
       <c r="C1719" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1719" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1719" t="s">
-        <v>4990</v>
+        <v>4975</v>
       </c>
       <c r="F1719" t="s">
-        <v>422</v>
+        <v>39</v>
       </c>
       <c r="G1719" t="s">
         <v>21</v>
       </c>
       <c r="H1719" t="s">
-        <v>368</v>
+        <v>3567</v>
       </c>
       <c r="I1719">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="J1719" t="s">
-        <v>4991</v>
+        <v>4232</v>
       </c>
       <c r="K1719" t="s">
         <v>24</v>
       </c>
       <c r="L1719" t="s">
-        <v>4992</v>
+        <v>4976</v>
       </c>
       <c r="M1719" t="s">
         <v>26</v>
@@ -95227,10 +95137,10 @@
     </row>
     <row r="1720" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1720" t="s">
-        <v>3873</v>
+        <v>218</v>
       </c>
       <c r="B1720" t="s">
-        <v>3874</v>
+        <v>219</v>
       </c>
       <c r="C1720" t="s">
         <v>17</v>
@@ -95239,28 +95149,28 @@
         <v>18</v>
       </c>
       <c r="E1720" t="s">
-        <v>4993</v>
+        <v>4977</v>
       </c>
       <c r="F1720" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1720" t="s">
         <v>21</v>
       </c>
       <c r="H1720" t="s">
-        <v>896</v>
+        <v>4132</v>
       </c>
       <c r="I1720">
-        <v>621</v>
+        <v>181</v>
       </c>
       <c r="J1720" t="s">
-        <v>4994</v>
+        <v>4978</v>
       </c>
       <c r="K1720" t="s">
         <v>24</v>
       </c>
       <c r="L1720" t="s">
-        <v>4995</v>
+        <v>4979</v>
       </c>
       <c r="M1720" t="s">
         <v>26</v>
@@ -95286,7 +95196,7 @@
         <v>18</v>
       </c>
       <c r="E1721" t="s">
-        <v>4996</v>
+        <v>4980</v>
       </c>
       <c r="F1721" t="s">
         <v>172</v>
@@ -95295,19 +95205,19 @@
         <v>21</v>
       </c>
       <c r="H1721" t="s">
-        <v>173</v>
+        <v>4132</v>
       </c>
       <c r="I1721">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="J1721" t="s">
-        <v>4997</v>
+        <v>4981</v>
       </c>
       <c r="K1721" t="s">
         <v>24</v>
       </c>
       <c r="L1721" t="s">
-        <v>4998</v>
+        <v>4982</v>
       </c>
       <c r="M1721" t="s">
         <v>26</v>
@@ -95321,10 +95231,10 @@
     </row>
     <row r="1722" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1722" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="B1722" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C1722" t="s">
         <v>17</v>
@@ -95333,28 +95243,28 @@
         <v>18</v>
       </c>
       <c r="E1722" t="s">
-        <v>4999</v>
+        <v>4983</v>
       </c>
       <c r="F1722" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1722" t="s">
         <v>21</v>
       </c>
       <c r="H1722" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1722">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="J1722" t="s">
-        <v>5000</v>
+        <v>4984</v>
       </c>
       <c r="K1722" t="s">
         <v>24</v>
       </c>
       <c r="L1722" t="s">
-        <v>5001</v>
+        <v>4985</v>
       </c>
       <c r="M1722" t="s">
         <v>26</v>
@@ -95368,10 +95278,10 @@
     </row>
     <row r="1723" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1723" t="s">
-        <v>218</v>
+        <v>402</v>
       </c>
       <c r="B1723" t="s">
-        <v>219</v>
+        <v>2798</v>
       </c>
       <c r="C1723" t="s">
         <v>17</v>
@@ -95380,28 +95290,28 @@
         <v>18</v>
       </c>
       <c r="E1723" t="s">
-        <v>5002</v>
+        <v>4986</v>
       </c>
       <c r="F1723" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1723" t="s">
         <v>21</v>
       </c>
       <c r="H1723" t="s">
-        <v>3567</v>
+        <v>2875</v>
       </c>
       <c r="I1723">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="J1723" t="s">
-        <v>5003</v>
+        <v>4987</v>
       </c>
       <c r="K1723" t="s">
         <v>24</v>
       </c>
       <c r="L1723" t="s">
-        <v>5004</v>
+        <v>4988</v>
       </c>
       <c r="M1723" t="s">
         <v>26</v>
@@ -95415,10 +95325,10 @@
     </row>
     <row r="1724" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1724" t="s">
-        <v>218</v>
+        <v>402</v>
       </c>
       <c r="B1724" t="s">
-        <v>219</v>
+        <v>2798</v>
       </c>
       <c r="C1724" t="s">
         <v>17</v>
@@ -95427,7 +95337,7 @@
         <v>18</v>
       </c>
       <c r="E1724" t="s">
-        <v>5005</v>
+        <v>4989</v>
       </c>
       <c r="F1724" t="s">
         <v>39</v>
@@ -95439,16 +95349,16 @@
         <v>3567</v>
       </c>
       <c r="I1724">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="J1724" t="s">
-        <v>4232</v>
+        <v>4990</v>
       </c>
       <c r="K1724" t="s">
         <v>24</v>
       </c>
       <c r="L1724" t="s">
-        <v>5006</v>
+        <v>4991</v>
       </c>
       <c r="M1724" t="s">
         <v>26</v>
@@ -95462,10 +95372,10 @@
     </row>
     <row r="1725" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1725" t="s">
-        <v>218</v>
+        <v>402</v>
       </c>
       <c r="B1725" t="s">
-        <v>219</v>
+        <v>2798</v>
       </c>
       <c r="C1725" t="s">
         <v>17</v>
@@ -95474,28 +95384,28 @@
         <v>18</v>
       </c>
       <c r="E1725" t="s">
-        <v>5007</v>
+        <v>4992</v>
       </c>
       <c r="F1725" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1725" t="s">
         <v>21</v>
       </c>
       <c r="H1725" t="s">
-        <v>4132</v>
+        <v>3567</v>
       </c>
       <c r="I1725">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="J1725" t="s">
-        <v>5008</v>
+        <v>4993</v>
       </c>
       <c r="K1725" t="s">
         <v>24</v>
       </c>
       <c r="L1725" t="s">
-        <v>5009</v>
+        <v>4994</v>
       </c>
       <c r="M1725" t="s">
         <v>26</v>
@@ -95509,10 +95419,10 @@
     </row>
     <row r="1726" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1726" t="s">
-        <v>218</v>
+        <v>953</v>
       </c>
       <c r="B1726" t="s">
-        <v>219</v>
+        <v>954</v>
       </c>
       <c r="C1726" t="s">
         <v>17</v>
@@ -95521,7 +95431,7 @@
         <v>18</v>
       </c>
       <c r="E1726" t="s">
-        <v>5010</v>
+        <v>4995</v>
       </c>
       <c r="F1726" t="s">
         <v>172</v>
@@ -95530,19 +95440,19 @@
         <v>21</v>
       </c>
       <c r="H1726" t="s">
-        <v>4132</v>
+        <v>173</v>
       </c>
       <c r="I1726">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="J1726" t="s">
-        <v>5011</v>
+        <v>4996</v>
       </c>
       <c r="K1726" t="s">
         <v>24</v>
       </c>
       <c r="L1726" t="s">
-        <v>5012</v>
+        <v>959</v>
       </c>
       <c r="M1726" t="s">
         <v>26</v>
@@ -95556,10 +95466,10 @@
     </row>
     <row r="1727" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1727" t="s">
-        <v>15</v>
+        <v>1018</v>
       </c>
       <c r="B1727" t="s">
-        <v>254</v>
+        <v>1019</v>
       </c>
       <c r="C1727" t="s">
         <v>17</v>
@@ -95568,28 +95478,28 @@
         <v>18</v>
       </c>
       <c r="E1727" t="s">
-        <v>5013</v>
+        <v>4997</v>
       </c>
       <c r="F1727" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1727" t="s">
         <v>21</v>
       </c>
       <c r="H1727" t="s">
-        <v>2863</v>
+        <v>3567</v>
       </c>
       <c r="I1727">
-        <v>455</v>
+        <v>284</v>
       </c>
       <c r="J1727" t="s">
-        <v>5014</v>
+        <v>4998</v>
       </c>
       <c r="K1727" t="s">
         <v>24</v>
       </c>
       <c r="L1727" t="s">
-        <v>5015</v>
+        <v>1022</v>
       </c>
       <c r="M1727" t="s">
         <v>26</v>
@@ -95603,10 +95513,10 @@
     </row>
     <row r="1728" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1728" t="s">
-        <v>402</v>
+        <v>1018</v>
       </c>
       <c r="B1728" t="s">
-        <v>2798</v>
+        <v>1019</v>
       </c>
       <c r="C1728" t="s">
         <v>17</v>
@@ -95615,28 +95525,28 @@
         <v>18</v>
       </c>
       <c r="E1728" t="s">
-        <v>5016</v>
+        <v>4999</v>
       </c>
       <c r="F1728" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G1728" t="s">
         <v>21</v>
       </c>
       <c r="H1728" t="s">
-        <v>2875</v>
+        <v>4070</v>
       </c>
       <c r="I1728">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="J1728" t="s">
-        <v>5017</v>
+        <v>5000</v>
       </c>
       <c r="K1728" t="s">
         <v>24</v>
       </c>
       <c r="L1728" t="s">
-        <v>5018</v>
+        <v>1022</v>
       </c>
       <c r="M1728" t="s">
         <v>26</v>
@@ -95650,40 +95560,40 @@
     </row>
     <row r="1729" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1729" t="s">
-        <v>402</v>
+        <v>34</v>
       </c>
       <c r="B1729" t="s">
-        <v>2798</v>
+        <v>35</v>
       </c>
       <c r="C1729" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1729" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1729" t="s">
-        <v>5019</v>
+        <v>5001</v>
       </c>
       <c r="F1729" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1729" t="s">
         <v>21</v>
       </c>
       <c r="H1729" t="s">
-        <v>3567</v>
+        <v>173</v>
       </c>
       <c r="I1729">
-        <v>114</v>
+        <v>412</v>
       </c>
       <c r="J1729" t="s">
-        <v>5020</v>
+        <v>5002</v>
       </c>
       <c r="K1729" t="s">
         <v>24</v>
       </c>
       <c r="L1729" t="s">
-        <v>5021</v>
+        <v>5003</v>
       </c>
       <c r="M1729" t="s">
         <v>26</v>
@@ -95697,19 +95607,19 @@
     </row>
     <row r="1730" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
-        <v>402</v>
+        <v>34</v>
       </c>
       <c r="B1730" t="s">
-        <v>2798</v>
+        <v>35</v>
       </c>
       <c r="C1730" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1730" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1730" t="s">
-        <v>5022</v>
+        <v>5004</v>
       </c>
       <c r="F1730" t="s">
         <v>39</v>
@@ -95718,19 +95628,19 @@
         <v>21</v>
       </c>
       <c r="H1730" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1730">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="J1730" t="s">
-        <v>5023</v>
+        <v>5005</v>
       </c>
       <c r="K1730" t="s">
         <v>24</v>
       </c>
       <c r="L1730" t="s">
-        <v>5024</v>
+        <v>5006</v>
       </c>
       <c r="M1730" t="s">
         <v>26</v>
@@ -95744,19 +95654,19 @@
     </row>
     <row r="1731" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
-        <v>953</v>
+        <v>34</v>
       </c>
       <c r="B1731" t="s">
-        <v>954</v>
+        <v>35</v>
       </c>
       <c r="C1731" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1731" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1731" t="s">
-        <v>5025</v>
+        <v>5007</v>
       </c>
       <c r="F1731" t="s">
         <v>172</v>
@@ -95765,19 +95675,19 @@
         <v>21</v>
       </c>
       <c r="H1731" t="s">
-        <v>173</v>
+        <v>4070</v>
       </c>
       <c r="I1731">
-        <v>397</v>
+        <v>175</v>
       </c>
       <c r="J1731" t="s">
-        <v>5026</v>
+        <v>5008</v>
       </c>
       <c r="K1731" t="s">
         <v>24</v>
       </c>
       <c r="L1731" t="s">
-        <v>959</v>
+        <v>5009</v>
       </c>
       <c r="M1731" t="s">
         <v>26</v>
@@ -95791,40 +95701,40 @@
     </row>
     <row r="1732" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1732" t="s">
-        <v>1018</v>
+        <v>34</v>
       </c>
       <c r="B1732" t="s">
-        <v>1019</v>
+        <v>35</v>
       </c>
       <c r="C1732" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1732" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E1732" t="s">
-        <v>5027</v>
+        <v>5010</v>
       </c>
       <c r="F1732" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="G1732" t="s">
         <v>21</v>
       </c>
       <c r="H1732" t="s">
-        <v>3567</v>
+        <v>4132</v>
       </c>
       <c r="I1732">
-        <v>284</v>
+        <v>447</v>
       </c>
       <c r="J1732" t="s">
-        <v>5028</v>
+        <v>5011</v>
       </c>
       <c r="K1732" t="s">
         <v>24</v>
       </c>
       <c r="L1732" t="s">
-        <v>1022</v>
+        <v>5012</v>
       </c>
       <c r="M1732" t="s">
         <v>26</v>
@@ -95838,10 +95748,10 @@
     </row>
     <row r="1733" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1733" t="s">
-        <v>1018</v>
+        <v>189</v>
       </c>
       <c r="B1733" t="s">
-        <v>1019</v>
+        <v>1357</v>
       </c>
       <c r="C1733" t="s">
         <v>17</v>
@@ -95850,28 +95760,28 @@
         <v>18</v>
       </c>
       <c r="E1733" t="s">
-        <v>5029</v>
+        <v>5013</v>
       </c>
       <c r="F1733" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1733" t="s">
         <v>21</v>
       </c>
       <c r="H1733" t="s">
-        <v>4070</v>
+        <v>714</v>
       </c>
       <c r="I1733">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="J1733" t="s">
-        <v>5030</v>
+        <v>839</v>
       </c>
       <c r="K1733" t="s">
         <v>24</v>
       </c>
       <c r="L1733" t="s">
-        <v>1022</v>
+        <v>1360</v>
       </c>
       <c r="M1733" t="s">
         <v>26</v>
@@ -95885,40 +95795,40 @@
     </row>
     <row r="1734" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1734" t="s">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="B1734" t="s">
-        <v>35</v>
+        <v>1357</v>
       </c>
       <c r="C1734" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1734" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1734" t="s">
-        <v>5031</v>
+        <v>5014</v>
       </c>
       <c r="F1734" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1734" t="s">
         <v>21</v>
       </c>
       <c r="H1734" t="s">
-        <v>173</v>
+        <v>3567</v>
       </c>
       <c r="I1734">
-        <v>412</v>
+        <v>709</v>
       </c>
       <c r="J1734" t="s">
-        <v>5032</v>
+        <v>5015</v>
       </c>
       <c r="K1734" t="s">
         <v>24</v>
       </c>
       <c r="L1734" t="s">
-        <v>5033</v>
+        <v>1360</v>
       </c>
       <c r="M1734" t="s">
         <v>26</v>
@@ -95932,19 +95842,19 @@
     </row>
     <row r="1735" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1735" t="s">
-        <v>34</v>
+        <v>2071</v>
       </c>
       <c r="B1735" t="s">
-        <v>35</v>
+        <v>2072</v>
       </c>
       <c r="C1735" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1735" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1735" t="s">
-        <v>5034</v>
+        <v>5016</v>
       </c>
       <c r="F1735" t="s">
         <v>39</v>
@@ -95956,16 +95866,16 @@
         <v>2863</v>
       </c>
       <c r="I1735">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="J1735" t="s">
-        <v>5035</v>
+        <v>3826</v>
       </c>
       <c r="K1735" t="s">
         <v>24</v>
       </c>
       <c r="L1735" t="s">
-        <v>5036</v>
+        <v>5017</v>
       </c>
       <c r="M1735" t="s">
         <v>26</v>
@@ -95979,40 +95889,40 @@
     </row>
     <row r="1736" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1736" t="s">
-        <v>34</v>
+        <v>2071</v>
       </c>
       <c r="B1736" t="s">
-        <v>35</v>
+        <v>2072</v>
       </c>
       <c r="C1736" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1736" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1736" t="s">
-        <v>5037</v>
+        <v>5018</v>
       </c>
       <c r="F1736" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1736" t="s">
         <v>21</v>
       </c>
       <c r="H1736" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1736">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="J1736" t="s">
-        <v>5038</v>
+        <v>5019</v>
       </c>
       <c r="K1736" t="s">
         <v>24</v>
       </c>
       <c r="L1736" t="s">
-        <v>5039</v>
+        <v>5017</v>
       </c>
       <c r="M1736" t="s">
         <v>26</v>
@@ -96026,40 +95936,40 @@
     </row>
     <row r="1737" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1737" t="s">
-        <v>34</v>
+        <v>2071</v>
       </c>
       <c r="B1737" t="s">
-        <v>35</v>
+        <v>2072</v>
       </c>
       <c r="C1737" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D1737" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E1737" t="s">
-        <v>5040</v>
+        <v>5020</v>
       </c>
       <c r="F1737" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1737" t="s">
         <v>21</v>
       </c>
       <c r="H1737" t="s">
-        <v>4132</v>
+        <v>2863</v>
       </c>
       <c r="I1737">
-        <v>447</v>
+        <v>233</v>
       </c>
       <c r="J1737" t="s">
-        <v>5041</v>
+        <v>2946</v>
       </c>
       <c r="K1737" t="s">
         <v>24</v>
       </c>
       <c r="L1737" t="s">
-        <v>5042</v>
+        <v>5021</v>
       </c>
       <c r="M1737" t="s">
         <v>26</v>
@@ -96073,10 +95983,10 @@
     </row>
     <row r="1738" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1738" t="s">
-        <v>189</v>
+        <v>2071</v>
       </c>
       <c r="B1738" t="s">
-        <v>1357</v>
+        <v>2072</v>
       </c>
       <c r="C1738" t="s">
         <v>17</v>
@@ -96085,28 +95995,28 @@
         <v>18</v>
       </c>
       <c r="E1738" t="s">
-        <v>5043</v>
+        <v>5022</v>
       </c>
       <c r="F1738" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1738" t="s">
         <v>21</v>
       </c>
       <c r="H1738" t="s">
-        <v>714</v>
+        <v>2863</v>
       </c>
       <c r="I1738">
-        <v>150</v>
+        <v>668</v>
       </c>
       <c r="J1738" t="s">
-        <v>839</v>
+        <v>5023</v>
       </c>
       <c r="K1738" t="s">
         <v>24</v>
       </c>
       <c r="L1738" t="s">
-        <v>1360</v>
+        <v>5024</v>
       </c>
       <c r="M1738" t="s">
         <v>26</v>
@@ -96120,10 +96030,10 @@
     </row>
     <row r="1739" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1739" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B1739" t="s">
-        <v>1357</v>
+        <v>143</v>
       </c>
       <c r="C1739" t="s">
         <v>17</v>
@@ -96132,7 +96042,7 @@
         <v>18</v>
       </c>
       <c r="E1739" t="s">
-        <v>5044</v>
+        <v>5025</v>
       </c>
       <c r="F1739" t="s">
         <v>39</v>
@@ -96141,19 +96051,19 @@
         <v>21</v>
       </c>
       <c r="H1739" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1739">
-        <v>709</v>
+        <v>492</v>
       </c>
       <c r="J1739" t="s">
-        <v>5045</v>
+        <v>5026</v>
       </c>
       <c r="K1739" t="s">
         <v>24</v>
       </c>
       <c r="L1739" t="s">
-        <v>1360</v>
+        <v>5027</v>
       </c>
       <c r="M1739" t="s">
         <v>26</v>
@@ -96167,10 +96077,10 @@
     </row>
     <row r="1740" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1740" t="s">
-        <v>2071</v>
+        <v>142</v>
       </c>
       <c r="B1740" t="s">
-        <v>2072</v>
+        <v>143</v>
       </c>
       <c r="C1740" t="s">
         <v>17</v>
@@ -96179,7 +96089,7 @@
         <v>18</v>
       </c>
       <c r="E1740" t="s">
-        <v>5046</v>
+        <v>5028</v>
       </c>
       <c r="F1740" t="s">
         <v>39</v>
@@ -96191,16 +96101,16 @@
         <v>2863</v>
       </c>
       <c r="I1740">
-        <v>552</v>
+        <v>233</v>
       </c>
       <c r="J1740" t="s">
-        <v>3826</v>
+        <v>2946</v>
       </c>
       <c r="K1740" t="s">
         <v>24</v>
       </c>
       <c r="L1740" t="s">
-        <v>5047</v>
+        <v>5029</v>
       </c>
       <c r="M1740" t="s">
         <v>26</v>
@@ -96214,10 +96124,10 @@
     </row>
     <row r="1741" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1741" t="s">
-        <v>2071</v>
+        <v>142</v>
       </c>
       <c r="B1741" t="s">
-        <v>2072</v>
+        <v>143</v>
       </c>
       <c r="C1741" t="s">
         <v>17</v>
@@ -96226,28 +96136,28 @@
         <v>18</v>
       </c>
       <c r="E1741" t="s">
-        <v>5048</v>
+        <v>5030</v>
       </c>
       <c r="F1741" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1741" t="s">
         <v>21</v>
       </c>
       <c r="H1741" t="s">
-        <v>2863</v>
+        <v>4070</v>
       </c>
       <c r="I1741">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="J1741" t="s">
-        <v>5049</v>
+        <v>5031</v>
       </c>
       <c r="K1741" t="s">
         <v>24</v>
       </c>
       <c r="L1741" t="s">
-        <v>5047</v>
+        <v>5032</v>
       </c>
       <c r="M1741" t="s">
         <v>26</v>
@@ -96261,10 +96171,10 @@
     </row>
     <row r="1742" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1742" t="s">
-        <v>2071</v>
+        <v>142</v>
       </c>
       <c r="B1742" t="s">
-        <v>2072</v>
+        <v>143</v>
       </c>
       <c r="C1742" t="s">
         <v>17</v>
@@ -96273,7 +96183,7 @@
         <v>18</v>
       </c>
       <c r="E1742" t="s">
-        <v>5050</v>
+        <v>5033</v>
       </c>
       <c r="F1742" t="s">
         <v>39</v>
@@ -96285,16 +96195,16 @@
         <v>2863</v>
       </c>
       <c r="I1742">
-        <v>233</v>
+        <v>507</v>
       </c>
       <c r="J1742" t="s">
-        <v>2946</v>
+        <v>5034</v>
       </c>
       <c r="K1742" t="s">
         <v>24</v>
       </c>
       <c r="L1742" t="s">
-        <v>5051</v>
+        <v>5035</v>
       </c>
       <c r="M1742" t="s">
         <v>26</v>
@@ -96308,10 +96218,10 @@
     </row>
     <row r="1743" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1743" t="s">
-        <v>2071</v>
+        <v>1399</v>
       </c>
       <c r="B1743" t="s">
-        <v>2072</v>
+        <v>1400</v>
       </c>
       <c r="C1743" t="s">
         <v>17</v>
@@ -96320,28 +96230,28 @@
         <v>18</v>
       </c>
       <c r="E1743" t="s">
-        <v>5052</v>
+        <v>5036</v>
       </c>
       <c r="F1743" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1743" t="s">
         <v>21</v>
       </c>
       <c r="H1743" t="s">
-        <v>2863</v>
+        <v>4070</v>
       </c>
       <c r="I1743">
-        <v>668</v>
+        <v>446</v>
       </c>
       <c r="J1743" t="s">
-        <v>5053</v>
+        <v>5037</v>
       </c>
       <c r="K1743" t="s">
         <v>24</v>
       </c>
       <c r="L1743" t="s">
-        <v>5054</v>
+        <v>5038</v>
       </c>
       <c r="M1743" t="s">
         <v>26</v>
@@ -96355,10 +96265,10 @@
     </row>
     <row r="1744" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1744" t="s">
-        <v>142</v>
+        <v>1399</v>
       </c>
       <c r="B1744" t="s">
-        <v>143</v>
+        <v>1400</v>
       </c>
       <c r="C1744" t="s">
         <v>17</v>
@@ -96367,28 +96277,28 @@
         <v>18</v>
       </c>
       <c r="E1744" t="s">
-        <v>5055</v>
+        <v>5039</v>
       </c>
       <c r="F1744" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="G1744" t="s">
         <v>21</v>
       </c>
       <c r="H1744" t="s">
-        <v>2863</v>
+        <v>3567</v>
       </c>
       <c r="I1744">
-        <v>492</v>
+        <v>149</v>
       </c>
       <c r="J1744" t="s">
-        <v>5056</v>
+        <v>5040</v>
       </c>
       <c r="K1744" t="s">
         <v>24</v>
       </c>
       <c r="L1744" t="s">
-        <v>5057</v>
+        <v>5041</v>
       </c>
       <c r="M1744" t="s">
         <v>26</v>
@@ -96402,10 +96312,10 @@
     </row>
     <row r="1745" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1745" t="s">
-        <v>142</v>
+        <v>1399</v>
       </c>
       <c r="B1745" t="s">
-        <v>143</v>
+        <v>1400</v>
       </c>
       <c r="C1745" t="s">
         <v>17</v>
@@ -96414,28 +96324,28 @@
         <v>18</v>
       </c>
       <c r="E1745" t="s">
-        <v>5058</v>
+        <v>5042</v>
       </c>
       <c r="F1745" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="G1745" t="s">
         <v>21</v>
       </c>
       <c r="H1745" t="s">
-        <v>2863</v>
+        <v>3567</v>
       </c>
       <c r="I1745">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="J1745" t="s">
-        <v>2946</v>
+        <v>5043</v>
       </c>
       <c r="K1745" t="s">
         <v>24</v>
       </c>
       <c r="L1745" t="s">
-        <v>5059</v>
+        <v>5044</v>
       </c>
       <c r="M1745" t="s">
         <v>26</v>
@@ -96449,10 +96359,10 @@
     </row>
     <row r="1746" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
-        <v>142</v>
+        <v>1399</v>
       </c>
       <c r="B1746" t="s">
-        <v>143</v>
+        <v>1400</v>
       </c>
       <c r="C1746" t="s">
         <v>17</v>
@@ -96461,28 +96371,28 @@
         <v>18</v>
       </c>
       <c r="E1746" t="s">
-        <v>5060</v>
+        <v>5045</v>
       </c>
       <c r="F1746" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="G1746" t="s">
         <v>21</v>
       </c>
       <c r="H1746" t="s">
-        <v>4070</v>
+        <v>4571</v>
       </c>
       <c r="I1746">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J1746" t="s">
-        <v>5061</v>
+        <v>5046</v>
       </c>
       <c r="K1746" t="s">
         <v>24</v>
       </c>
       <c r="L1746" t="s">
-        <v>5062</v>
+        <v>5047</v>
       </c>
       <c r="M1746" t="s">
         <v>26</v>
@@ -96496,10 +96406,10 @@
     </row>
     <row r="1747" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
-        <v>142</v>
+        <v>1399</v>
       </c>
       <c r="B1747" t="s">
-        <v>143</v>
+        <v>1400</v>
       </c>
       <c r="C1747" t="s">
         <v>17</v>
@@ -96508,28 +96418,28 @@
         <v>18</v>
       </c>
       <c r="E1747" t="s">
-        <v>5063</v>
+        <v>5048</v>
       </c>
       <c r="F1747" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="G1747" t="s">
         <v>21</v>
       </c>
       <c r="H1747" t="s">
-        <v>2863</v>
+        <v>3727</v>
       </c>
       <c r="I1747">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="J1747" t="s">
-        <v>5064</v>
+        <v>5049</v>
       </c>
       <c r="K1747" t="s">
         <v>24</v>
       </c>
       <c r="L1747" t="s">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="M1747" t="s">
         <v>26</v>
@@ -96555,28 +96465,28 @@
         <v>18</v>
       </c>
       <c r="E1748" t="s">
-        <v>5066</v>
+        <v>5051</v>
       </c>
       <c r="F1748" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1748" t="s">
         <v>21</v>
       </c>
       <c r="H1748" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1748">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="J1748" t="s">
-        <v>5067</v>
+        <v>5052</v>
       </c>
       <c r="K1748" t="s">
         <v>24</v>
       </c>
       <c r="L1748" t="s">
-        <v>5068</v>
+        <v>5053</v>
       </c>
       <c r="M1748" t="s">
         <v>26</v>
@@ -96590,10 +96500,10 @@
     </row>
     <row r="1749" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
-        <v>1399</v>
+        <v>83</v>
       </c>
       <c r="B1749" t="s">
-        <v>1400</v>
+        <v>84</v>
       </c>
       <c r="C1749" t="s">
         <v>17</v>
@@ -96602,28 +96512,28 @@
         <v>18</v>
       </c>
       <c r="E1749" t="s">
-        <v>5069</v>
+        <v>5054</v>
       </c>
       <c r="F1749" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="G1749" t="s">
         <v>21</v>
       </c>
       <c r="H1749" t="s">
-        <v>3567</v>
+        <v>173</v>
       </c>
       <c r="I1749">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="J1749" t="s">
-        <v>5070</v>
+        <v>5055</v>
       </c>
       <c r="K1749" t="s">
         <v>24</v>
       </c>
       <c r="L1749" t="s">
-        <v>5071</v>
+        <v>5056</v>
       </c>
       <c r="M1749" t="s">
         <v>26</v>
@@ -96637,10 +96547,10 @@
     </row>
     <row r="1750" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1750" t="s">
-        <v>1399</v>
+        <v>83</v>
       </c>
       <c r="B1750" t="s">
-        <v>1400</v>
+        <v>84</v>
       </c>
       <c r="C1750" t="s">
         <v>17</v>
@@ -96649,28 +96559,28 @@
         <v>18</v>
       </c>
       <c r="E1750" t="s">
-        <v>5072</v>
+        <v>5057</v>
       </c>
       <c r="F1750" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="G1750" t="s">
         <v>21</v>
       </c>
       <c r="H1750" t="s">
-        <v>3567</v>
+        <v>3727</v>
       </c>
       <c r="I1750">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="J1750" t="s">
-        <v>5073</v>
+        <v>4123</v>
       </c>
       <c r="K1750" t="s">
         <v>24</v>
       </c>
       <c r="L1750" t="s">
-        <v>5074</v>
+        <v>5058</v>
       </c>
       <c r="M1750" t="s">
         <v>26</v>
@@ -96684,10 +96594,10 @@
     </row>
     <row r="1751" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1751" t="s">
-        <v>1399</v>
+        <v>83</v>
       </c>
       <c r="B1751" t="s">
-        <v>1400</v>
+        <v>84</v>
       </c>
       <c r="C1751" t="s">
         <v>17</v>
@@ -96696,28 +96606,28 @@
         <v>18</v>
       </c>
       <c r="E1751" t="s">
-        <v>5075</v>
+        <v>5059</v>
       </c>
       <c r="F1751" t="s">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="G1751" t="s">
         <v>21</v>
       </c>
       <c r="H1751" t="s">
-        <v>4571</v>
+        <v>3567</v>
       </c>
       <c r="I1751">
-        <v>151</v>
+        <v>478</v>
       </c>
       <c r="J1751" t="s">
-        <v>5076</v>
+        <v>5060</v>
       </c>
       <c r="K1751" t="s">
         <v>24</v>
       </c>
       <c r="L1751" t="s">
-        <v>5077</v>
+        <v>5061</v>
       </c>
       <c r="M1751" t="s">
         <v>26</v>
@@ -96731,10 +96641,10 @@
     </row>
     <row r="1752" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1752" t="s">
-        <v>1399</v>
+        <v>83</v>
       </c>
       <c r="B1752" t="s">
-        <v>1400</v>
+        <v>84</v>
       </c>
       <c r="C1752" t="s">
         <v>17</v>
@@ -96743,28 +96653,28 @@
         <v>18</v>
       </c>
       <c r="E1752" t="s">
-        <v>5078</v>
+        <v>5062</v>
       </c>
       <c r="F1752" t="s">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="G1752" t="s">
         <v>21</v>
       </c>
       <c r="H1752" t="s">
-        <v>3727</v>
+        <v>714</v>
       </c>
       <c r="I1752">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="J1752" t="s">
-        <v>5079</v>
+        <v>740</v>
       </c>
       <c r="K1752" t="s">
         <v>24</v>
       </c>
       <c r="L1752" t="s">
-        <v>5080</v>
+        <v>5063</v>
       </c>
       <c r="M1752" t="s">
         <v>26</v>
@@ -96778,10 +96688,10 @@
     </row>
     <row r="1753" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1753" t="s">
-        <v>1399</v>
+        <v>653</v>
       </c>
       <c r="B1753" t="s">
-        <v>1400</v>
+        <v>654</v>
       </c>
       <c r="C1753" t="s">
         <v>17</v>
@@ -96790,28 +96700,28 @@
         <v>18</v>
       </c>
       <c r="E1753" t="s">
-        <v>5081</v>
+        <v>5064</v>
       </c>
       <c r="F1753" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1753" t="s">
         <v>21</v>
       </c>
       <c r="H1753" t="s">
-        <v>2863</v>
+        <v>173</v>
       </c>
       <c r="I1753">
-        <v>105</v>
+        <v>395</v>
       </c>
       <c r="J1753" t="s">
-        <v>5082</v>
+        <v>5065</v>
       </c>
       <c r="K1753" t="s">
         <v>24</v>
       </c>
       <c r="L1753" t="s">
-        <v>5083</v>
+        <v>5066</v>
       </c>
       <c r="M1753" t="s">
         <v>26</v>
@@ -96825,10 +96735,10 @@
     </row>
     <row r="1754" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1754" t="s">
-        <v>83</v>
+        <v>653</v>
       </c>
       <c r="B1754" t="s">
-        <v>84</v>
+        <v>654</v>
       </c>
       <c r="C1754" t="s">
         <v>17</v>
@@ -96837,28 +96747,28 @@
         <v>18</v>
       </c>
       <c r="E1754" t="s">
-        <v>5084</v>
+        <v>5067</v>
       </c>
       <c r="F1754" t="s">
-        <v>172</v>
+        <v>4074</v>
       </c>
       <c r="G1754" t="s">
         <v>21</v>
       </c>
       <c r="H1754" t="s">
-        <v>173</v>
+        <v>4140</v>
       </c>
       <c r="I1754">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J1754" t="s">
-        <v>5085</v>
+        <v>5068</v>
       </c>
       <c r="K1754" t="s">
         <v>24</v>
       </c>
       <c r="L1754" t="s">
-        <v>5086</v>
+        <v>5069</v>
       </c>
       <c r="M1754" t="s">
         <v>26</v>
@@ -96872,10 +96782,10 @@
     </row>
     <row r="1755" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1755" t="s">
-        <v>83</v>
+        <v>620</v>
       </c>
       <c r="B1755" t="s">
-        <v>84</v>
+        <v>621</v>
       </c>
       <c r="C1755" t="s">
         <v>17</v>
@@ -96884,7 +96794,7 @@
         <v>18</v>
       </c>
       <c r="E1755" t="s">
-        <v>5087</v>
+        <v>5070</v>
       </c>
       <c r="F1755" t="s">
         <v>172</v>
@@ -96893,19 +96803,19 @@
         <v>21</v>
       </c>
       <c r="H1755" t="s">
-        <v>3727</v>
+        <v>4070</v>
       </c>
       <c r="I1755">
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="J1755" t="s">
-        <v>4123</v>
+        <v>5071</v>
       </c>
       <c r="K1755" t="s">
         <v>24</v>
       </c>
       <c r="L1755" t="s">
-        <v>5088</v>
+        <v>5072</v>
       </c>
       <c r="M1755" t="s">
         <v>26</v>
@@ -96919,10 +96829,10 @@
     </row>
     <row r="1756" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1756" t="s">
-        <v>83</v>
+        <v>620</v>
       </c>
       <c r="B1756" t="s">
-        <v>84</v>
+        <v>621</v>
       </c>
       <c r="C1756" t="s">
         <v>17</v>
@@ -96931,7 +96841,7 @@
         <v>18</v>
       </c>
       <c r="E1756" t="s">
-        <v>5089</v>
+        <v>5073</v>
       </c>
       <c r="F1756" t="s">
         <v>39</v>
@@ -96940,19 +96850,19 @@
         <v>21</v>
       </c>
       <c r="H1756" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1756">
-        <v>478</v>
+        <v>127</v>
       </c>
       <c r="J1756" t="s">
-        <v>5090</v>
+        <v>5074</v>
       </c>
       <c r="K1756" t="s">
         <v>24</v>
       </c>
       <c r="L1756" t="s">
-        <v>5091</v>
+        <v>5075</v>
       </c>
       <c r="M1756" t="s">
         <v>26</v>
@@ -96966,10 +96876,10 @@
     </row>
     <row r="1757" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1757" t="s">
-        <v>83</v>
+        <v>620</v>
       </c>
       <c r="B1757" t="s">
-        <v>84</v>
+        <v>621</v>
       </c>
       <c r="C1757" t="s">
         <v>17</v>
@@ -96978,28 +96888,28 @@
         <v>18</v>
       </c>
       <c r="E1757" t="s">
-        <v>5092</v>
+        <v>5076</v>
       </c>
       <c r="F1757" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1757" t="s">
         <v>21</v>
       </c>
       <c r="H1757" t="s">
-        <v>714</v>
+        <v>3567</v>
       </c>
       <c r="I1757">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="J1757" t="s">
-        <v>740</v>
+        <v>4619</v>
       </c>
       <c r="K1757" t="s">
         <v>24</v>
       </c>
       <c r="L1757" t="s">
-        <v>5093</v>
+        <v>5077</v>
       </c>
       <c r="M1757" t="s">
         <v>26</v>
@@ -97013,10 +96923,10 @@
     </row>
     <row r="1758" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1758" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B1758" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="C1758" t="s">
         <v>17</v>
@@ -97025,7 +96935,7 @@
         <v>18</v>
       </c>
       <c r="E1758" t="s">
-        <v>5094</v>
+        <v>5078</v>
       </c>
       <c r="F1758" t="s">
         <v>172</v>
@@ -97034,19 +96944,19 @@
         <v>21</v>
       </c>
       <c r="H1758" t="s">
-        <v>173</v>
+        <v>4132</v>
       </c>
       <c r="I1758">
-        <v>395</v>
+        <v>184</v>
       </c>
       <c r="J1758" t="s">
-        <v>5095</v>
+        <v>5079</v>
       </c>
       <c r="K1758" t="s">
         <v>24</v>
       </c>
       <c r="L1758" t="s">
-        <v>5096</v>
+        <v>5080</v>
       </c>
       <c r="M1758" t="s">
         <v>26</v>
@@ -97060,10 +96970,10 @@
     </row>
     <row r="1759" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1759" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B1759" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="C1759" t="s">
         <v>17</v>
@@ -97072,28 +96982,28 @@
         <v>18</v>
       </c>
       <c r="E1759" t="s">
-        <v>5097</v>
+        <v>5081</v>
       </c>
       <c r="F1759" t="s">
-        <v>4074</v>
+        <v>172</v>
       </c>
       <c r="G1759" t="s">
         <v>21</v>
       </c>
       <c r="H1759" t="s">
-        <v>4140</v>
+        <v>4132</v>
       </c>
       <c r="I1759">
-        <v>224</v>
+        <v>382</v>
       </c>
       <c r="J1759" t="s">
-        <v>5098</v>
+        <v>5082</v>
       </c>
       <c r="K1759" t="s">
         <v>24</v>
       </c>
       <c r="L1759" t="s">
-        <v>5099</v>
+        <v>5083</v>
       </c>
       <c r="M1759" t="s">
         <v>26</v>
@@ -97119,28 +97029,28 @@
         <v>18</v>
       </c>
       <c r="E1760" t="s">
-        <v>5100</v>
+        <v>5084</v>
       </c>
       <c r="F1760" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G1760" t="s">
         <v>21</v>
       </c>
       <c r="H1760" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1760">
-        <v>375</v>
+        <v>133</v>
       </c>
       <c r="J1760" t="s">
-        <v>5101</v>
+        <v>5085</v>
       </c>
       <c r="K1760" t="s">
         <v>24</v>
       </c>
       <c r="L1760" t="s">
-        <v>5102</v>
+        <v>5086</v>
       </c>
       <c r="M1760" t="s">
         <v>26</v>
@@ -97154,10 +97064,10 @@
     </row>
     <row r="1761" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1761" t="s">
-        <v>620</v>
+        <v>1013</v>
       </c>
       <c r="B1761" t="s">
-        <v>621</v>
+        <v>1014</v>
       </c>
       <c r="C1761" t="s">
         <v>17</v>
@@ -97166,28 +97076,28 @@
         <v>18</v>
       </c>
       <c r="E1761" t="s">
-        <v>5103</v>
+        <v>5087</v>
       </c>
       <c r="F1761" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1761" t="s">
         <v>21</v>
       </c>
       <c r="H1761" t="s">
-        <v>2863</v>
+        <v>2875</v>
       </c>
       <c r="I1761">
-        <v>127</v>
+        <v>323</v>
       </c>
       <c r="J1761" t="s">
-        <v>5104</v>
+        <v>5088</v>
       </c>
       <c r="K1761" t="s">
         <v>24</v>
       </c>
       <c r="L1761" t="s">
-        <v>5105</v>
+        <v>5089</v>
       </c>
       <c r="M1761" t="s">
         <v>26</v>
@@ -97201,10 +97111,10 @@
     </row>
     <row r="1762" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1762" t="s">
-        <v>620</v>
+        <v>1013</v>
       </c>
       <c r="B1762" t="s">
-        <v>621</v>
+        <v>1014</v>
       </c>
       <c r="C1762" t="s">
         <v>17</v>
@@ -97213,7 +97123,7 @@
         <v>18</v>
       </c>
       <c r="E1762" t="s">
-        <v>5106</v>
+        <v>5090</v>
       </c>
       <c r="F1762" t="s">
         <v>39</v>
@@ -97225,16 +97135,16 @@
         <v>3567</v>
       </c>
       <c r="I1762">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="J1762" t="s">
-        <v>4619</v>
+        <v>5091</v>
       </c>
       <c r="K1762" t="s">
         <v>24</v>
       </c>
       <c r="L1762" t="s">
-        <v>5107</v>
+        <v>5092</v>
       </c>
       <c r="M1762" t="s">
         <v>26</v>
@@ -97248,10 +97158,10 @@
     </row>
     <row r="1763" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1763" t="s">
-        <v>620</v>
+        <v>1013</v>
       </c>
       <c r="B1763" t="s">
-        <v>621</v>
+        <v>1014</v>
       </c>
       <c r="C1763" t="s">
         <v>17</v>
@@ -97260,28 +97170,28 @@
         <v>18</v>
       </c>
       <c r="E1763" t="s">
-        <v>5108</v>
+        <v>5093</v>
       </c>
       <c r="F1763" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1763" t="s">
         <v>21</v>
       </c>
       <c r="H1763" t="s">
-        <v>4132</v>
+        <v>2863</v>
       </c>
       <c r="I1763">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="J1763" t="s">
-        <v>5109</v>
+        <v>4266</v>
       </c>
       <c r="K1763" t="s">
         <v>24</v>
       </c>
       <c r="L1763" t="s">
-        <v>5110</v>
+        <v>5094</v>
       </c>
       <c r="M1763" t="s">
         <v>26</v>
@@ -97295,10 +97205,10 @@
     </row>
     <row r="1764" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1764" t="s">
-        <v>620</v>
+        <v>1013</v>
       </c>
       <c r="B1764" t="s">
-        <v>621</v>
+        <v>1014</v>
       </c>
       <c r="C1764" t="s">
         <v>17</v>
@@ -97307,7 +97217,7 @@
         <v>18</v>
       </c>
       <c r="E1764" t="s">
-        <v>5111</v>
+        <v>5095</v>
       </c>
       <c r="F1764" t="s">
         <v>172</v>
@@ -97316,19 +97226,19 @@
         <v>21</v>
       </c>
       <c r="H1764" t="s">
-        <v>4132</v>
+        <v>4070</v>
       </c>
       <c r="I1764">
-        <v>382</v>
+        <v>183</v>
       </c>
       <c r="J1764" t="s">
-        <v>5112</v>
+        <v>4622</v>
       </c>
       <c r="K1764" t="s">
         <v>24</v>
       </c>
       <c r="L1764" t="s">
-        <v>5113</v>
+        <v>5096</v>
       </c>
       <c r="M1764" t="s">
         <v>26</v>
@@ -97342,10 +97252,10 @@
     </row>
     <row r="1765" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1765" t="s">
-        <v>620</v>
+        <v>1013</v>
       </c>
       <c r="B1765" t="s">
-        <v>621</v>
+        <v>1014</v>
       </c>
       <c r="C1765" t="s">
         <v>17</v>
@@ -97354,28 +97264,28 @@
         <v>18</v>
       </c>
       <c r="E1765" t="s">
-        <v>5114</v>
+        <v>5097</v>
       </c>
       <c r="F1765" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G1765" t="s">
         <v>21</v>
       </c>
       <c r="H1765" t="s">
-        <v>2863</v>
+        <v>714</v>
       </c>
       <c r="I1765">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="J1765" t="s">
-        <v>5115</v>
+        <v>1566</v>
       </c>
       <c r="K1765" t="s">
         <v>24</v>
       </c>
       <c r="L1765" t="s">
-        <v>5116</v>
+        <v>5098</v>
       </c>
       <c r="M1765" t="s">
         <v>26</v>
@@ -97401,28 +97311,28 @@
         <v>18</v>
       </c>
       <c r="E1766" t="s">
-        <v>5117</v>
+        <v>5099</v>
       </c>
       <c r="F1766" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1766" t="s">
         <v>21</v>
       </c>
       <c r="H1766" t="s">
-        <v>2875</v>
+        <v>2863</v>
       </c>
       <c r="I1766">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="J1766" t="s">
-        <v>5118</v>
+        <v>5100</v>
       </c>
       <c r="K1766" t="s">
         <v>24</v>
       </c>
       <c r="L1766" t="s">
-        <v>5119</v>
+        <v>5101</v>
       </c>
       <c r="M1766" t="s">
         <v>26</v>
@@ -97436,10 +97346,10 @@
     </row>
     <row r="1767" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1767" t="s">
-        <v>1013</v>
+        <v>125</v>
       </c>
       <c r="B1767" t="s">
-        <v>1014</v>
+        <v>126</v>
       </c>
       <c r="C1767" t="s">
         <v>17</v>
@@ -97448,7 +97358,7 @@
         <v>18</v>
       </c>
       <c r="E1767" t="s">
-        <v>5120</v>
+        <v>5102</v>
       </c>
       <c r="F1767" t="s">
         <v>39</v>
@@ -97457,19 +97367,19 @@
         <v>21</v>
       </c>
       <c r="H1767" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1767">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="J1767" t="s">
-        <v>5121</v>
+        <v>5103</v>
       </c>
       <c r="K1767" t="s">
         <v>24</v>
       </c>
       <c r="L1767" t="s">
-        <v>5122</v>
+        <v>5104</v>
       </c>
       <c r="M1767" t="s">
         <v>26</v>
@@ -97483,10 +97393,10 @@
     </row>
     <row r="1768" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1768" t="s">
-        <v>1013</v>
+        <v>125</v>
       </c>
       <c r="B1768" t="s">
-        <v>1014</v>
+        <v>126</v>
       </c>
       <c r="C1768" t="s">
         <v>17</v>
@@ -97495,28 +97405,28 @@
         <v>18</v>
       </c>
       <c r="E1768" t="s">
-        <v>5123</v>
+        <v>5105</v>
       </c>
       <c r="F1768" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1768" t="s">
         <v>21</v>
       </c>
       <c r="H1768" t="s">
-        <v>2863</v>
+        <v>714</v>
       </c>
       <c r="I1768">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J1768" t="s">
-        <v>4266</v>
+        <v>1246</v>
       </c>
       <c r="K1768" t="s">
         <v>24</v>
       </c>
       <c r="L1768" t="s">
-        <v>5124</v>
+        <v>5106</v>
       </c>
       <c r="M1768" t="s">
         <v>26</v>
@@ -97530,10 +97440,10 @@
     </row>
     <row r="1769" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1769" t="s">
-        <v>1013</v>
+        <v>125</v>
       </c>
       <c r="B1769" t="s">
-        <v>1014</v>
+        <v>126</v>
       </c>
       <c r="C1769" t="s">
         <v>17</v>
@@ -97542,7 +97452,7 @@
         <v>18</v>
       </c>
       <c r="E1769" t="s">
-        <v>5125</v>
+        <v>5107</v>
       </c>
       <c r="F1769" t="s">
         <v>172</v>
@@ -97551,19 +97461,19 @@
         <v>21</v>
       </c>
       <c r="H1769" t="s">
-        <v>4070</v>
+        <v>4132</v>
       </c>
       <c r="I1769">
-        <v>183</v>
+        <v>411</v>
       </c>
       <c r="J1769" t="s">
-        <v>4622</v>
+        <v>5108</v>
       </c>
       <c r="K1769" t="s">
         <v>24</v>
       </c>
       <c r="L1769" t="s">
-        <v>5126</v>
+        <v>5109</v>
       </c>
       <c r="M1769" t="s">
         <v>26</v>
@@ -97577,10 +97487,10 @@
     </row>
     <row r="1770" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1770" t="s">
-        <v>1013</v>
+        <v>27</v>
       </c>
       <c r="B1770" t="s">
-        <v>1014</v>
+        <v>3331</v>
       </c>
       <c r="C1770" t="s">
         <v>17</v>
@@ -97589,28 +97499,28 @@
         <v>18</v>
       </c>
       <c r="E1770" t="s">
-        <v>5127</v>
+        <v>5110</v>
       </c>
       <c r="F1770" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="G1770" t="s">
         <v>21</v>
       </c>
       <c r="H1770" t="s">
-        <v>714</v>
+        <v>2863</v>
       </c>
       <c r="I1770">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="J1770" t="s">
-        <v>1566</v>
+        <v>4920</v>
       </c>
       <c r="K1770" t="s">
         <v>24</v>
       </c>
       <c r="L1770" t="s">
-        <v>5128</v>
+        <v>5111</v>
       </c>
       <c r="M1770" t="s">
         <v>26</v>
@@ -97624,10 +97534,10 @@
     </row>
     <row r="1771" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1771" t="s">
-        <v>1013</v>
+        <v>27</v>
       </c>
       <c r="B1771" t="s">
-        <v>1014</v>
+        <v>3331</v>
       </c>
       <c r="C1771" t="s">
         <v>17</v>
@@ -97636,28 +97546,28 @@
         <v>18</v>
       </c>
       <c r="E1771" t="s">
-        <v>5129</v>
+        <v>5112</v>
       </c>
       <c r="F1771" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1771" t="s">
         <v>21</v>
       </c>
       <c r="H1771" t="s">
-        <v>2863</v>
+        <v>173</v>
       </c>
       <c r="I1771">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="J1771" t="s">
-        <v>5130</v>
+        <v>5113</v>
       </c>
       <c r="K1771" t="s">
         <v>24</v>
       </c>
       <c r="L1771" t="s">
-        <v>5131</v>
+        <v>5114</v>
       </c>
       <c r="M1771" t="s">
         <v>26</v>
@@ -97671,10 +97581,10 @@
     </row>
     <row r="1772" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1772" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B1772" t="s">
-        <v>126</v>
+        <v>3331</v>
       </c>
       <c r="C1772" t="s">
         <v>17</v>
@@ -97683,28 +97593,28 @@
         <v>18</v>
       </c>
       <c r="E1772" t="s">
-        <v>5132</v>
+        <v>5115</v>
       </c>
       <c r="F1772" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1772" t="s">
         <v>21</v>
       </c>
       <c r="H1772" t="s">
-        <v>2863</v>
+        <v>4070</v>
       </c>
       <c r="I1772">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="J1772" t="s">
-        <v>5133</v>
+        <v>5116</v>
       </c>
       <c r="K1772" t="s">
         <v>24</v>
       </c>
       <c r="L1772" t="s">
-        <v>5134</v>
+        <v>5117</v>
       </c>
       <c r="M1772" t="s">
         <v>26</v>
@@ -97718,10 +97628,10 @@
     </row>
     <row r="1773" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1773" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B1773" t="s">
-        <v>126</v>
+        <v>3331</v>
       </c>
       <c r="C1773" t="s">
         <v>17</v>
@@ -97730,28 +97640,28 @@
         <v>18</v>
       </c>
       <c r="E1773" t="s">
-        <v>5135</v>
+        <v>5118</v>
       </c>
       <c r="F1773" t="s">
-        <v>20</v>
+        <v>4074</v>
       </c>
       <c r="G1773" t="s">
         <v>21</v>
       </c>
       <c r="H1773" t="s">
-        <v>714</v>
+        <v>360</v>
       </c>
       <c r="I1773">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="J1773" t="s">
-        <v>1246</v>
+        <v>5119</v>
       </c>
       <c r="K1773" t="s">
         <v>24</v>
       </c>
       <c r="L1773" t="s">
-        <v>5136</v>
+        <v>5120</v>
       </c>
       <c r="M1773" t="s">
         <v>26</v>
@@ -97765,10 +97675,10 @@
     </row>
     <row r="1774" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1774" t="s">
-        <v>125</v>
+        <v>419</v>
       </c>
       <c r="B1774" t="s">
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="C1774" t="s">
         <v>17</v>
@@ -97777,28 +97687,28 @@
         <v>18</v>
       </c>
       <c r="E1774" t="s">
-        <v>5137</v>
+        <v>5121</v>
       </c>
       <c r="F1774" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="G1774" t="s">
         <v>21</v>
       </c>
       <c r="H1774" t="s">
-        <v>4132</v>
+        <v>2875</v>
       </c>
       <c r="I1774">
-        <v>411</v>
+        <v>200</v>
       </c>
       <c r="J1774" t="s">
-        <v>5138</v>
+        <v>4187</v>
       </c>
       <c r="K1774" t="s">
         <v>24</v>
       </c>
       <c r="L1774" t="s">
-        <v>5139</v>
+        <v>5122</v>
       </c>
       <c r="M1774" t="s">
         <v>26</v>
@@ -97812,10 +97722,10 @@
     </row>
     <row r="1775" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1775" t="s">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="B1775" t="s">
-        <v>3331</v>
+        <v>420</v>
       </c>
       <c r="C1775" t="s">
         <v>17</v>
@@ -97824,28 +97734,28 @@
         <v>18</v>
       </c>
       <c r="E1775" t="s">
-        <v>5140</v>
+        <v>5123</v>
       </c>
       <c r="F1775" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="G1775" t="s">
         <v>21</v>
       </c>
       <c r="H1775" t="s">
-        <v>2863</v>
+        <v>4136</v>
       </c>
       <c r="I1775">
-        <v>221</v>
+        <v>421</v>
       </c>
       <c r="J1775" t="s">
-        <v>4950</v>
+        <v>5124</v>
       </c>
       <c r="K1775" t="s">
         <v>24</v>
       </c>
       <c r="L1775" t="s">
-        <v>5141</v>
+        <v>5125</v>
       </c>
       <c r="M1775" t="s">
         <v>26</v>
@@ -97859,10 +97769,10 @@
     </row>
     <row r="1776" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1776" t="s">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="B1776" t="s">
-        <v>3331</v>
+        <v>420</v>
       </c>
       <c r="C1776" t="s">
         <v>17</v>
@@ -97871,28 +97781,28 @@
         <v>18</v>
       </c>
       <c r="E1776" t="s">
-        <v>5142</v>
+        <v>5126</v>
       </c>
       <c r="F1776" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1776" t="s">
         <v>21</v>
       </c>
       <c r="H1776" t="s">
-        <v>173</v>
+        <v>3567</v>
       </c>
       <c r="I1776">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="J1776" t="s">
-        <v>5143</v>
+        <v>5127</v>
       </c>
       <c r="K1776" t="s">
         <v>24</v>
       </c>
       <c r="L1776" t="s">
-        <v>5144</v>
+        <v>5128</v>
       </c>
       <c r="M1776" t="s">
         <v>26</v>
@@ -97906,10 +97816,10 @@
     </row>
     <row r="1777" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1777" t="s">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="B1777" t="s">
-        <v>3331</v>
+        <v>420</v>
       </c>
       <c r="C1777" t="s">
         <v>17</v>
@@ -97918,7 +97828,7 @@
         <v>18</v>
       </c>
       <c r="E1777" t="s">
-        <v>5145</v>
+        <v>5129</v>
       </c>
       <c r="F1777" t="s">
         <v>172</v>
@@ -97930,16 +97840,16 @@
         <v>4070</v>
       </c>
       <c r="I1777">
-        <v>372</v>
+        <v>201</v>
       </c>
       <c r="J1777" t="s">
-        <v>5146</v>
+        <v>5130</v>
       </c>
       <c r="K1777" t="s">
         <v>24</v>
       </c>
       <c r="L1777" t="s">
-        <v>5147</v>
+        <v>5131</v>
       </c>
       <c r="M1777" t="s">
         <v>26</v>
@@ -97953,10 +97863,10 @@
     </row>
     <row r="1778" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1778" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="B1778" t="s">
-        <v>3331</v>
+        <v>1997</v>
       </c>
       <c r="C1778" t="s">
         <v>17</v>
@@ -97965,28 +97875,28 @@
         <v>18</v>
       </c>
       <c r="E1778" t="s">
-        <v>5148</v>
+        <v>5132</v>
       </c>
       <c r="F1778" t="s">
-        <v>4074</v>
+        <v>39</v>
       </c>
       <c r="G1778" t="s">
         <v>21</v>
       </c>
       <c r="H1778" t="s">
-        <v>360</v>
+        <v>2863</v>
       </c>
       <c r="I1778">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="J1778" t="s">
-        <v>5149</v>
+        <v>4266</v>
       </c>
       <c r="K1778" t="s">
         <v>24</v>
       </c>
       <c r="L1778" t="s">
-        <v>5150</v>
+        <v>5133</v>
       </c>
       <c r="M1778" t="s">
         <v>26</v>
@@ -98000,10 +97910,10 @@
     </row>
     <row r="1779" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1779" t="s">
-        <v>419</v>
+        <v>253</v>
       </c>
       <c r="B1779" t="s">
-        <v>420</v>
+        <v>1997</v>
       </c>
       <c r="C1779" t="s">
         <v>17</v>
@@ -98012,28 +97922,28 @@
         <v>18</v>
       </c>
       <c r="E1779" t="s">
-        <v>5151</v>
+        <v>5134</v>
       </c>
       <c r="F1779" t="s">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="G1779" t="s">
         <v>21</v>
       </c>
       <c r="H1779" t="s">
-        <v>2875</v>
+        <v>4070</v>
       </c>
       <c r="I1779">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J1779" t="s">
-        <v>4187</v>
+        <v>5135</v>
       </c>
       <c r="K1779" t="s">
         <v>24</v>
       </c>
       <c r="L1779" t="s">
-        <v>5152</v>
+        <v>5136</v>
       </c>
       <c r="M1779" t="s">
         <v>26</v>
@@ -98047,10 +97957,10 @@
     </row>
     <row r="1780" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1780" t="s">
-        <v>419</v>
+        <v>253</v>
       </c>
       <c r="B1780" t="s">
-        <v>420</v>
+        <v>1997</v>
       </c>
       <c r="C1780" t="s">
         <v>17</v>
@@ -98059,28 +97969,28 @@
         <v>18</v>
       </c>
       <c r="E1780" t="s">
-        <v>5153</v>
+        <v>5137</v>
       </c>
       <c r="F1780" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1780" t="s">
         <v>21</v>
       </c>
       <c r="H1780" t="s">
-        <v>4136</v>
+        <v>2863</v>
       </c>
       <c r="I1780">
-        <v>421</v>
+        <v>528</v>
       </c>
       <c r="J1780" t="s">
-        <v>5154</v>
+        <v>5138</v>
       </c>
       <c r="K1780" t="s">
         <v>24</v>
       </c>
       <c r="L1780" t="s">
-        <v>5155</v>
+        <v>5139</v>
       </c>
       <c r="M1780" t="s">
         <v>26</v>
@@ -98094,10 +98004,10 @@
     </row>
     <row r="1781" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1781" t="s">
-        <v>419</v>
+        <v>1184</v>
       </c>
       <c r="B1781" t="s">
-        <v>420</v>
+        <v>1185</v>
       </c>
       <c r="C1781" t="s">
         <v>17</v>
@@ -98106,7 +98016,7 @@
         <v>18</v>
       </c>
       <c r="E1781" t="s">
-        <v>5156</v>
+        <v>5140</v>
       </c>
       <c r="F1781" t="s">
         <v>39</v>
@@ -98115,19 +98025,19 @@
         <v>21</v>
       </c>
       <c r="H1781" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1781">
-        <v>296</v>
+        <v>240</v>
       </c>
       <c r="J1781" t="s">
-        <v>5157</v>
+        <v>5141</v>
       </c>
       <c r="K1781" t="s">
         <v>24</v>
       </c>
       <c r="L1781" t="s">
-        <v>5158</v>
+        <v>5142</v>
       </c>
       <c r="M1781" t="s">
         <v>26</v>
@@ -98141,10 +98051,10 @@
     </row>
     <row r="1782" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1782" t="s">
-        <v>419</v>
+        <v>1184</v>
       </c>
       <c r="B1782" t="s">
-        <v>420</v>
+        <v>1185</v>
       </c>
       <c r="C1782" t="s">
         <v>17</v>
@@ -98153,7 +98063,7 @@
         <v>18</v>
       </c>
       <c r="E1782" t="s">
-        <v>5159</v>
+        <v>5143</v>
       </c>
       <c r="F1782" t="s">
         <v>172</v>
@@ -98162,19 +98072,19 @@
         <v>21</v>
       </c>
       <c r="H1782" t="s">
-        <v>4070</v>
+        <v>173</v>
       </c>
       <c r="I1782">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="J1782" t="s">
-        <v>5160</v>
+        <v>2688</v>
       </c>
       <c r="K1782" t="s">
         <v>24</v>
       </c>
       <c r="L1782" t="s">
-        <v>5161</v>
+        <v>5144</v>
       </c>
       <c r="M1782" t="s">
         <v>26</v>
@@ -98188,10 +98098,10 @@
     </row>
     <row r="1783" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1783" t="s">
-        <v>253</v>
+        <v>1184</v>
       </c>
       <c r="B1783" t="s">
-        <v>1997</v>
+        <v>1185</v>
       </c>
       <c r="C1783" t="s">
         <v>17</v>
@@ -98200,28 +98110,28 @@
         <v>18</v>
       </c>
       <c r="E1783" t="s">
-        <v>5162</v>
+        <v>5145</v>
       </c>
       <c r="F1783" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1783" t="s">
         <v>21</v>
       </c>
       <c r="H1783" t="s">
-        <v>2863</v>
+        <v>4132</v>
       </c>
       <c r="I1783">
-        <v>255</v>
+        <v>426</v>
       </c>
       <c r="J1783" t="s">
-        <v>4266</v>
+        <v>5146</v>
       </c>
       <c r="K1783" t="s">
         <v>24</v>
       </c>
       <c r="L1783" t="s">
-        <v>5163</v>
+        <v>5147</v>
       </c>
       <c r="M1783" t="s">
         <v>26</v>
@@ -98235,10 +98145,10 @@
     </row>
     <row r="1784" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1784" t="s">
-        <v>253</v>
+        <v>1184</v>
       </c>
       <c r="B1784" t="s">
-        <v>1997</v>
+        <v>1185</v>
       </c>
       <c r="C1784" t="s">
         <v>17</v>
@@ -98247,28 +98157,28 @@
         <v>18</v>
       </c>
       <c r="E1784" t="s">
-        <v>5164</v>
+        <v>5148</v>
       </c>
       <c r="F1784" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1784" t="s">
         <v>21</v>
       </c>
       <c r="H1784" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1784">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="J1784" t="s">
-        <v>5165</v>
+        <v>5149</v>
       </c>
       <c r="K1784" t="s">
         <v>24</v>
       </c>
       <c r="L1784" t="s">
-        <v>5166</v>
+        <v>5150</v>
       </c>
       <c r="M1784" t="s">
         <v>26</v>
@@ -98282,10 +98192,10 @@
     </row>
     <row r="1785" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1785" t="s">
-        <v>253</v>
+        <v>5151</v>
       </c>
       <c r="B1785" t="s">
-        <v>1997</v>
+        <v>427</v>
       </c>
       <c r="C1785" t="s">
         <v>17</v>
@@ -98294,28 +98204,28 @@
         <v>18</v>
       </c>
       <c r="E1785" t="s">
-        <v>5167</v>
+        <v>5152</v>
       </c>
       <c r="F1785" t="s">
-        <v>39</v>
+        <v>4074</v>
       </c>
       <c r="G1785" t="s">
         <v>21</v>
       </c>
       <c r="H1785" t="s">
-        <v>2863</v>
+        <v>360</v>
       </c>
       <c r="I1785">
-        <v>528</v>
+        <v>110</v>
       </c>
       <c r="J1785" t="s">
-        <v>5168</v>
+        <v>5153</v>
       </c>
       <c r="K1785" t="s">
         <v>24</v>
       </c>
       <c r="L1785" t="s">
-        <v>5169</v>
+        <v>5154</v>
       </c>
       <c r="M1785" t="s">
         <v>26</v>
@@ -98329,10 +98239,10 @@
     </row>
     <row r="1786" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1786" t="s">
-        <v>1184</v>
+        <v>5151</v>
       </c>
       <c r="B1786" t="s">
-        <v>1185</v>
+        <v>427</v>
       </c>
       <c r="C1786" t="s">
         <v>17</v>
@@ -98341,7 +98251,7 @@
         <v>18</v>
       </c>
       <c r="E1786" t="s">
-        <v>5170</v>
+        <v>5155</v>
       </c>
       <c r="F1786" t="s">
         <v>39</v>
@@ -98353,16 +98263,16 @@
         <v>2863</v>
       </c>
       <c r="I1786">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="J1786" t="s">
-        <v>5171</v>
+        <v>3009</v>
       </c>
       <c r="K1786" t="s">
         <v>24</v>
       </c>
       <c r="L1786" t="s">
-        <v>5172</v>
+        <v>5156</v>
       </c>
       <c r="M1786" t="s">
         <v>26</v>
@@ -98376,10 +98286,10 @@
     </row>
     <row r="1787" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1787" t="s">
-        <v>1184</v>
+        <v>5151</v>
       </c>
       <c r="B1787" t="s">
-        <v>1185</v>
+        <v>427</v>
       </c>
       <c r="C1787" t="s">
         <v>17</v>
@@ -98388,28 +98298,28 @@
         <v>18</v>
       </c>
       <c r="E1787" t="s">
-        <v>5173</v>
+        <v>5157</v>
       </c>
       <c r="F1787" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="G1787" t="s">
         <v>21</v>
       </c>
       <c r="H1787" t="s">
-        <v>173</v>
+        <v>896</v>
       </c>
       <c r="I1787">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="J1787" t="s">
-        <v>2688</v>
+        <v>897</v>
       </c>
       <c r="K1787" t="s">
         <v>24</v>
       </c>
       <c r="L1787" t="s">
-        <v>5174</v>
+        <v>5158</v>
       </c>
       <c r="M1787" t="s">
         <v>26</v>
@@ -98423,10 +98333,10 @@
     </row>
     <row r="1788" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1788" t="s">
-        <v>1184</v>
+        <v>5151</v>
       </c>
       <c r="B1788" t="s">
-        <v>1185</v>
+        <v>427</v>
       </c>
       <c r="C1788" t="s">
         <v>17</v>
@@ -98435,7 +98345,7 @@
         <v>18</v>
       </c>
       <c r="E1788" t="s">
-        <v>5175</v>
+        <v>5159</v>
       </c>
       <c r="F1788" t="s">
         <v>172</v>
@@ -98447,16 +98357,16 @@
         <v>4132</v>
       </c>
       <c r="I1788">
-        <v>426</v>
+        <v>182</v>
       </c>
       <c r="J1788" t="s">
-        <v>5176</v>
+        <v>5160</v>
       </c>
       <c r="K1788" t="s">
         <v>24</v>
       </c>
       <c r="L1788" t="s">
-        <v>5177</v>
+        <v>5161</v>
       </c>
       <c r="M1788" t="s">
         <v>26</v>
@@ -98470,10 +98380,10 @@
     </row>
     <row r="1789" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1789" t="s">
-        <v>1184</v>
+        <v>1343</v>
       </c>
       <c r="B1789" t="s">
-        <v>1185</v>
+        <v>1344</v>
       </c>
       <c r="C1789" t="s">
         <v>17</v>
@@ -98482,28 +98392,28 @@
         <v>18</v>
       </c>
       <c r="E1789" t="s">
-        <v>5178</v>
+        <v>5162</v>
       </c>
       <c r="F1789" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1789" t="s">
         <v>21</v>
       </c>
       <c r="H1789" t="s">
-        <v>2863</v>
+        <v>2875</v>
       </c>
       <c r="I1789">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="J1789" t="s">
-        <v>5179</v>
+        <v>5163</v>
       </c>
       <c r="K1789" t="s">
         <v>24</v>
       </c>
       <c r="L1789" t="s">
-        <v>5180</v>
+        <v>5164</v>
       </c>
       <c r="M1789" t="s">
         <v>26</v>
@@ -98517,10 +98427,10 @@
     </row>
     <row r="1790" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1790" t="s">
-        <v>5181</v>
+        <v>1343</v>
       </c>
       <c r="B1790" t="s">
-        <v>427</v>
+        <v>1344</v>
       </c>
       <c r="C1790" t="s">
         <v>17</v>
@@ -98529,28 +98439,28 @@
         <v>18</v>
       </c>
       <c r="E1790" t="s">
-        <v>5182</v>
+        <v>5165</v>
       </c>
       <c r="F1790" t="s">
-        <v>4074</v>
+        <v>39</v>
       </c>
       <c r="G1790" t="s">
         <v>21</v>
       </c>
       <c r="H1790" t="s">
-        <v>360</v>
+        <v>2863</v>
       </c>
       <c r="I1790">
-        <v>110</v>
+        <v>416</v>
       </c>
       <c r="J1790" t="s">
-        <v>5183</v>
+        <v>5166</v>
       </c>
       <c r="K1790" t="s">
         <v>24</v>
       </c>
       <c r="L1790" t="s">
-        <v>5184</v>
+        <v>5167</v>
       </c>
       <c r="M1790" t="s">
         <v>26</v>
@@ -98564,10 +98474,10 @@
     </row>
     <row r="1791" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1791" t="s">
-        <v>5181</v>
+        <v>1343</v>
       </c>
       <c r="B1791" t="s">
-        <v>427</v>
+        <v>1344</v>
       </c>
       <c r="C1791" t="s">
         <v>17</v>
@@ -98576,7 +98486,7 @@
         <v>18</v>
       </c>
       <c r="E1791" t="s">
-        <v>5185</v>
+        <v>5168</v>
       </c>
       <c r="F1791" t="s">
         <v>39</v>
@@ -98585,19 +98495,19 @@
         <v>21</v>
       </c>
       <c r="H1791" t="s">
-        <v>2863</v>
+        <v>3567</v>
       </c>
       <c r="I1791">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="J1791" t="s">
-        <v>3009</v>
+        <v>5169</v>
       </c>
       <c r="K1791" t="s">
         <v>24</v>
       </c>
       <c r="L1791" t="s">
-        <v>5186</v>
+        <v>5170</v>
       </c>
       <c r="M1791" t="s">
         <v>26</v>
@@ -98611,10 +98521,10 @@
     </row>
     <row r="1792" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1792" t="s">
-        <v>5181</v>
+        <v>1343</v>
       </c>
       <c r="B1792" t="s">
-        <v>427</v>
+        <v>1344</v>
       </c>
       <c r="C1792" t="s">
         <v>17</v>
@@ -98623,28 +98533,28 @@
         <v>18</v>
       </c>
       <c r="E1792" t="s">
-        <v>5187</v>
+        <v>5171</v>
       </c>
       <c r="F1792" t="s">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="G1792" t="s">
         <v>21</v>
       </c>
       <c r="H1792" t="s">
-        <v>896</v>
+        <v>714</v>
       </c>
       <c r="I1792">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="J1792" t="s">
-        <v>897</v>
+        <v>5172</v>
       </c>
       <c r="K1792" t="s">
         <v>24</v>
       </c>
       <c r="L1792" t="s">
-        <v>5188</v>
+        <v>5173</v>
       </c>
       <c r="M1792" t="s">
         <v>26</v>
@@ -98658,10 +98568,10 @@
     </row>
     <row r="1793" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1793" t="s">
-        <v>5181</v>
+        <v>1343</v>
       </c>
       <c r="B1793" t="s">
-        <v>427</v>
+        <v>1344</v>
       </c>
       <c r="C1793" t="s">
         <v>17</v>
@@ -98670,28 +98580,28 @@
         <v>18</v>
       </c>
       <c r="E1793" t="s">
-        <v>5189</v>
+        <v>5174</v>
       </c>
       <c r="F1793" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G1793" t="s">
         <v>21</v>
       </c>
       <c r="H1793" t="s">
-        <v>4132</v>
+        <v>2863</v>
       </c>
       <c r="I1793">
-        <v>182</v>
+        <v>510</v>
       </c>
       <c r="J1793" t="s">
-        <v>5190</v>
+        <v>5175</v>
       </c>
       <c r="K1793" t="s">
         <v>24</v>
       </c>
       <c r="L1793" t="s">
-        <v>5191</v>
+        <v>5176</v>
       </c>
       <c r="M1793" t="s">
         <v>26</v>
@@ -98705,10 +98615,10 @@
     </row>
     <row r="1794" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1794" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="B1794" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="C1794" t="s">
         <v>17</v>
@@ -98717,28 +98627,28 @@
         <v>18</v>
       </c>
       <c r="E1794" t="s">
-        <v>5192</v>
+        <v>5177</v>
       </c>
       <c r="F1794" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1794" t="s">
         <v>21</v>
       </c>
       <c r="H1794" t="s">
-        <v>2875</v>
+        <v>2863</v>
       </c>
       <c r="I1794">
-        <v>260</v>
+        <v>503</v>
       </c>
       <c r="J1794" t="s">
-        <v>5193</v>
+        <v>5178</v>
       </c>
       <c r="K1794" t="s">
         <v>24</v>
       </c>
       <c r="L1794" t="s">
-        <v>5194</v>
+        <v>5179</v>
       </c>
       <c r="M1794" t="s">
         <v>26</v>
@@ -98752,10 +98662,10 @@
     </row>
     <row r="1795" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1795" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="B1795" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="C1795" t="s">
         <v>17</v>
@@ -98764,34 +98674,34 @@
         <v>18</v>
       </c>
       <c r="E1795" t="s">
-        <v>5195</v>
+        <v>5180</v>
       </c>
       <c r="F1795" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="G1795" t="s">
         <v>21</v>
       </c>
       <c r="H1795" t="s">
-        <v>2863</v>
+        <v>4070</v>
       </c>
       <c r="I1795">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J1795" t="s">
-        <v>5196</v>
+        <v>5181</v>
       </c>
       <c r="K1795" t="s">
         <v>24</v>
       </c>
       <c r="L1795" t="s">
-        <v>5197</v>
+        <v>5182</v>
       </c>
       <c r="M1795" t="s">
-        <v>26</v>
+        <v>5183</v>
       </c>
       <c r="N1795" t="s">
-        <v>26</v>
+        <v>5184</v>
       </c>
       <c r="O1795" t="s">
         <v>26</v>
@@ -98799,10 +98709,10 @@
     </row>
     <row r="1796" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1796" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="B1796" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="C1796" t="s">
         <v>17</v>
@@ -98811,7 +98721,7 @@
         <v>18</v>
       </c>
       <c r="E1796" t="s">
-        <v>5198</v>
+        <v>5185</v>
       </c>
       <c r="F1796" t="s">
         <v>39</v>
@@ -98820,19 +98730,19 @@
         <v>21</v>
       </c>
       <c r="H1796" t="s">
-        <v>3567</v>
+        <v>2863</v>
       </c>
       <c r="I1796">
-        <v>202</v>
+        <v>474</v>
       </c>
       <c r="J1796" t="s">
-        <v>5199</v>
+        <v>5186</v>
       </c>
       <c r="K1796" t="s">
         <v>24</v>
       </c>
       <c r="L1796" t="s">
-        <v>5200</v>
+        <v>5187</v>
       </c>
       <c r="M1796" t="s">
         <v>26</v>
@@ -98846,10 +98756,10 @@
     </row>
     <row r="1797" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1797" t="s">
-        <v>1343</v>
+        <v>1105</v>
       </c>
       <c r="B1797" t="s">
-        <v>1344</v>
+        <v>1106</v>
       </c>
       <c r="C1797" t="s">
         <v>17</v>
@@ -98858,28 +98768,28 @@
         <v>18</v>
       </c>
       <c r="E1797" t="s">
-        <v>5201</v>
+        <v>5188</v>
       </c>
       <c r="F1797" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1797" t="s">
         <v>21</v>
       </c>
       <c r="H1797" t="s">
-        <v>714</v>
+        <v>2863</v>
       </c>
       <c r="I1797">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="J1797" t="s">
-        <v>5202</v>
+        <v>5189</v>
       </c>
       <c r="K1797" t="s">
         <v>24</v>
       </c>
       <c r="L1797" t="s">
-        <v>5203</v>
+        <v>5190</v>
       </c>
       <c r="M1797" t="s">
         <v>26</v>
@@ -98893,10 +98803,10 @@
     </row>
     <row r="1798" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1798" t="s">
-        <v>1343</v>
+        <v>1105</v>
       </c>
       <c r="B1798" t="s">
-        <v>1344</v>
+        <v>1106</v>
       </c>
       <c r="C1798" t="s">
         <v>17</v>
@@ -98905,10 +98815,10 @@
         <v>18</v>
       </c>
       <c r="E1798" t="s">
-        <v>5204</v>
+        <v>5191</v>
       </c>
       <c r="F1798" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G1798" t="s">
         <v>21</v>
@@ -98917,16 +98827,16 @@
         <v>2863</v>
       </c>
       <c r="I1798">
-        <v>510</v>
+        <v>221</v>
       </c>
       <c r="J1798" t="s">
-        <v>5205</v>
+        <v>4920</v>
       </c>
       <c r="K1798" t="s">
         <v>24</v>
       </c>
       <c r="L1798" t="s">
-        <v>5206</v>
+        <v>5192</v>
       </c>
       <c r="M1798" t="s">
         <v>26</v>
@@ -98940,10 +98850,10 @@
     </row>
     <row r="1799" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1799" t="s">
-        <v>1351</v>
+        <v>1105</v>
       </c>
       <c r="B1799" t="s">
-        <v>1352</v>
+        <v>1106</v>
       </c>
       <c r="C1799" t="s">
         <v>17</v>
@@ -98952,28 +98862,28 @@
         <v>18</v>
       </c>
       <c r="E1799" t="s">
-        <v>5207</v>
+        <v>5193</v>
       </c>
       <c r="F1799" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1799" t="s">
         <v>21</v>
       </c>
       <c r="H1799" t="s">
-        <v>2863</v>
+        <v>714</v>
       </c>
       <c r="I1799">
-        <v>503</v>
+        <v>311</v>
       </c>
       <c r="J1799" t="s">
-        <v>5208</v>
+        <v>5194</v>
       </c>
       <c r="K1799" t="s">
         <v>24</v>
       </c>
       <c r="L1799" t="s">
-        <v>5209</v>
+        <v>5195</v>
       </c>
       <c r="M1799" t="s">
         <v>26</v>
@@ -98987,10 +98897,10 @@
     </row>
     <row r="1800" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1800" t="s">
-        <v>1351</v>
+        <v>1105</v>
       </c>
       <c r="B1800" t="s">
-        <v>1352</v>
+        <v>1106</v>
       </c>
       <c r="C1800" t="s">
         <v>17</v>
@@ -98999,279 +98909,44 @@
         <v>18</v>
       </c>
       <c r="E1800" t="s">
-        <v>5210</v>
+        <v>5196</v>
       </c>
       <c r="F1800" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="G1800" t="s">
         <v>21</v>
       </c>
       <c r="H1800" t="s">
-        <v>4070</v>
+        <v>2863</v>
       </c>
       <c r="I1800">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="J1800" t="s">
-        <v>5211</v>
+        <v>5197</v>
       </c>
       <c r="K1800" t="s">
         <v>24</v>
       </c>
       <c r="L1800" t="s">
-        <v>5212</v>
+        <v>5198</v>
       </c>
       <c r="M1800" t="s">
-        <v>5213</v>
+        <v>26</v>
       </c>
       <c r="N1800" t="s">
-        <v>5214</v>
+        <v>26</v>
       </c>
       <c r="O1800" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1801" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1801" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B1801" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C1801" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1801" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1801" t="s">
-        <v>5215</v>
-      </c>
-      <c r="F1801" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1801" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1801" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1801">
-        <v>474</v>
-      </c>
-      <c r="J1801" t="s">
-        <v>5216</v>
-      </c>
-      <c r="K1801" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1801" t="s">
-        <v>5217</v>
-      </c>
-      <c r="M1801" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1801" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1801" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1802" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1802" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C1802" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1802" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1802" t="s">
-        <v>5218</v>
-      </c>
-      <c r="F1802" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1802" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1802" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1802">
-        <v>359</v>
-      </c>
-      <c r="J1802" t="s">
-        <v>5219</v>
-      </c>
-      <c r="K1802" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1802" t="s">
-        <v>5220</v>
-      </c>
-      <c r="M1802" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1802" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1802" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1803" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1803" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C1803" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1803" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1803" t="s">
-        <v>5221</v>
-      </c>
-      <c r="F1803" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1803" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1803" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1803">
-        <v>221</v>
-      </c>
-      <c r="J1803" t="s">
-        <v>4950</v>
-      </c>
-      <c r="K1803" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1803" t="s">
-        <v>5222</v>
-      </c>
-      <c r="M1803" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1803" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1803" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1804" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1804" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C1804" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1804" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1804" t="s">
-        <v>5223</v>
-      </c>
-      <c r="F1804" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1804" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1804" t="s">
-        <v>714</v>
-      </c>
-      <c r="I1804">
-        <v>311</v>
-      </c>
-      <c r="J1804" t="s">
-        <v>5224</v>
-      </c>
-      <c r="K1804" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1804" t="s">
-        <v>5225</v>
-      </c>
-      <c r="M1804" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1804" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1804" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1805" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B1805" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C1805" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1805" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1805" t="s">
-        <v>5226</v>
-      </c>
-      <c r="F1805" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1805" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1805" t="s">
-        <v>2863</v>
-      </c>
-      <c r="I1805">
-        <v>368</v>
-      </c>
-      <c r="J1805" t="s">
-        <v>5227</v>
-      </c>
-      <c r="K1805" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1805" t="s">
-        <v>5228</v>
-      </c>
-      <c r="M1805" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1805" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1805" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P1805" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:P1800" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AB475SZ"/>
+        <filter val="AH373GQ"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Combustible Satelital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57E8EBC-E39C-4AF4-A32F-9EB517D0F800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96F111-4F10-44A3-92C9-B93A521D3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15688,7 +15688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -15712,6 +15712,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16116,7 +16117,7 @@
   <dimension ref="A1:P1800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1817" sqref="J1817"/>
+      <selection activeCell="L1803" sqref="L1803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20471,7 +20472,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -20505,8 +20506,8 @@
       <c r="K97" t="s">
         <v>24</v>
       </c>
-      <c r="L97">
-        <v>2377973.8390000002</v>
+      <c r="L97" s="1">
+        <v>2366824</v>
       </c>
       <c r="M97" t="s">
         <v>26</v>
@@ -20518,7 +20519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>1686</v>
       </c>
@@ -20555,7 +20556,10 @@
       <c r="L98" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M98" s="3"/>
+      <c r="M98" s="13">
+        <f>+L98-L97</f>
+        <v>11161</v>
+      </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
@@ -74314,7 +74318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1277" spans="1:16" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1277" s="7" t="s">
         <v>1686</v>
       </c>
@@ -78967,7 +78971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1376" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1376" s="7" t="s">
         <v>1686</v>
       </c>
@@ -81176,7 +81180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1423" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1423" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1423" s="7" t="s">
         <v>1686</v>
       </c>
@@ -81223,7 +81227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1424" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1424" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1424" s="7" t="s">
         <v>1686</v>
       </c>
@@ -98946,7 +98950,7 @@
   <autoFilter ref="A1:P1800" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AH373GQ"/>
+        <filter val="AB475TJ"/>
       </filters>
     </filterColumn>
   </autoFilter>
